--- a/data/input_data.xlsx
+++ b/data/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mustafacressive.com/Personal/KPWS/EEMv2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevWork\EEM-2\EEM-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CC1C13-10C0-BE42-97DF-E9FB90C2EA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD6BBAB-FEEC-41B2-B8CD-67BEB18D4D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="src" sheetId="10" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="solar" sheetId="1" r:id="rId5"/>
     <sheet name="for_deck" sheetId="13" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +32,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="207">
   <si>
     <t>ATTRIBUTE</t>
   </si>
@@ -177,9 +178,6 @@
     <t>opex_baseline_fixed</t>
   </si>
   <si>
-    <t>Rs./ MW/ month</t>
-  </si>
-  <si>
     <t>tariff_baseline_fixed</t>
   </si>
   <si>
@@ -657,13 +655,13 @@
     <t>Variable OPEX Baseline</t>
   </si>
   <si>
-    <t>PKR per MW per month</t>
-  </si>
-  <si>
     <t>Annual Degradation</t>
   </si>
   <si>
     <t>Est. downtime per failure</t>
+  </si>
+  <si>
+    <t>Rs./ MW/ year</t>
   </si>
 </sst>
 </file>
@@ -926,7 +924,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1191,13 +1189,13 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1209,25 +1207,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1239,7 +1231,7 @@
     <cellStyle name="Comma 4" xfId="6" xr:uid="{D5A4242B-509E-4D2E-81AD-417CF0F2EB3A}"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="5" xr:uid="{0F634CA9-310C-492D-92C5-B0307AB554B9}"/>
   </cellStyles>
   <dxfs count="16">
@@ -1251,6 +1243,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1275,6 +1274,32 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -1282,14 +1307,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1310,32 +1328,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1350,7 +1342,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{334C99AB-72E3-CB41-9650-9B243B76A9DD}" name="Table1" displayName="Table1" ref="B24:H37" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10" tableBorderDxfId="15" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{334C99AB-72E3-CB41-9650-9B243B76A9DD}" name="Table1" displayName="Table1" ref="B24:H37" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13" dataCellStyle="Comma">
   <autoFilter ref="B24:H37" xr:uid="{334C99AB-72E3-CB41-9650-9B243B76A9DD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1361,20 +1353,20 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9EAA21EB-E27B-9C46-8C7B-3660DD908D03}" name="Attribute" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{913A1F11-746C-8D42-8994-DFB62036DFD7}" name="Unit" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{26EBABE7-C7E6-9B4A-A556-8A8346231D26}" name="Source Type 1" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{CD320B3E-E051-8D4C-B138-1C468F56B8D9}" name="Source Type 2" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{BE9352AE-6AC9-A242-B347-679B5261A0E8}" name="Source Type 3" dataDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{56674598-5A56-9D44-A0E7-E2770772FBF4}" name="Source Type 4" dataDxfId="12" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{4FD08785-2A70-3946-9986-711F60CCECB9}" name="Source Type 5" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{9EAA21EB-E27B-9C46-8C7B-3660DD908D03}" name="Attribute" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{913A1F11-746C-8D42-8994-DFB62036DFD7}" name="Unit" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{26EBABE7-C7E6-9B4A-A556-8A8346231D26}" name="Source Type 1" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{CD320B3E-E051-8D4C-B138-1C468F56B8D9}" name="Source Type 2" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{BE9352AE-6AC9-A242-B347-679B5261A0E8}" name="Source Type 3" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{56674598-5A56-9D44-A0E7-E2770772FBF4}" name="Source Type 4" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{4FD08785-2A70-3946-9986-711F60CCECB9}" name="Source Type 5" dataDxfId="6" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{93AF1ACF-555D-5B40-90B6-A3FA3B1D0812}" name="Table2" displayName="Table2" ref="J24:L39" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{93AF1ACF-555D-5B40-90B6-A3FA3B1D0812}" name="Table2" displayName="Table2" ref="J24:L39" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="J24:L39" xr:uid="{93AF1ACF-555D-5B40-90B6-A3FA3B1D0812}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1654,20 +1646,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C560C09F-AE50-47AF-9672-D0EBBBFD54D2}">
   <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="99" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="28" customWidth="1"/>
-    <col min="4" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="4" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="54" t="s">
         <v>10</v>
       </c>
@@ -1727,7 +1719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
@@ -1753,7 +1745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="54" t="s">
         <v>20</v>
       </c>
@@ -1779,7 +1771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="54" t="s">
         <v>24</v>
       </c>
@@ -1805,7 +1797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="54" t="s">
         <v>27</v>
       </c>
@@ -1831,7 +1823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="54" t="s">
         <v>30</v>
       </c>
@@ -1857,7 +1849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="54" t="s">
         <v>35</v>
       </c>
@@ -1890,7 +1882,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="54" t="s">
         <v>39</v>
       </c>
@@ -1923,7 +1915,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="54" t="s">
         <v>42</v>
       </c>
@@ -1931,37 +1923,37 @@
         <v>43</v>
       </c>
       <c r="D11" s="92">
-        <v>1300</v>
+        <v>1120</v>
       </c>
       <c r="E11" s="92">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="F11" s="92">
         <v>0</v>
       </c>
       <c r="G11" s="92">
-        <v>1300</v>
+        <v>1120</v>
       </c>
       <c r="H11" s="93">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="I11" s="58"/>
       <c r="J11" s="67" t="s">
         <v>44</v>
       </c>
       <c r="K11" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" s="98">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="98">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="54" t="s">
+      <c r="C12" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
       </c>
       <c r="D12" s="92">
         <v>0</v>
@@ -1980,18 +1972,18 @@
       </c>
       <c r="I12" s="58"/>
       <c r="J12" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="L12" s="98">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
@@ -2013,21 +2005,21 @@
       </c>
       <c r="I13" s="58"/>
       <c r="J13" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="L13" s="70">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
       </c>
       <c r="D14" s="94">
         <v>2</v>
@@ -2046,21 +2038,21 @@
       </c>
       <c r="I14" s="61"/>
       <c r="J14" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="L14" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="B15" s="62" t="s">
+      <c r="C15" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
       </c>
       <c r="D15" s="94">
         <v>4</v>
@@ -2079,15 +2071,15 @@
       </c>
       <c r="I15" s="61"/>
       <c r="J15" s="67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="101">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="101">
         <v>0.05</v>
@@ -2106,21 +2098,21 @@
       </c>
       <c r="I16" s="61"/>
       <c r="J16" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" t="s">
         <v>60</v>
-      </c>
-      <c r="K16" t="s">
-        <v>61</v>
       </c>
       <c r="L16" s="91">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D17" s="94">
         <v>0</v>
@@ -2139,22 +2131,22 @@
       </c>
       <c r="I17" s="61"/>
       <c r="J17" s="67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L17" s="91">
         <v>100</v>
       </c>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="65" t="s">
         <v>65</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>66</v>
       </c>
       <c r="D18" s="96">
         <v>0</v>
@@ -2173,22 +2165,22 @@
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" t="s">
         <v>53</v>
-      </c>
-      <c r="K18" t="s">
-        <v>54</v>
       </c>
       <c r="L18" s="99">
         <v>2</v>
       </c>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
         <v>67</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
       </c>
       <c r="D19" s="94">
         <v>2</v>
@@ -2206,21 +2198,21 @@
         <v>0</v>
       </c>
       <c r="J19" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L19" s="99">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
         <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
       </c>
       <c r="D20" s="94">
         <v>0</v>
@@ -2238,16 +2230,16 @@
         <v>10</v>
       </c>
       <c r="J20" s="69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L20" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="67" t="s">
         <v>37</v>
       </c>
@@ -2267,18 +2259,18 @@
         <v>12</v>
       </c>
       <c r="J21" s="71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K21" s="72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L21" s="100">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
@@ -2299,21 +2291,21 @@
         <v>6000</v>
       </c>
       <c r="J22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" t="s">
         <v>73</v>
-      </c>
-      <c r="K22" t="s">
-        <v>74</v>
       </c>
       <c r="L22" s="90">
         <v>290</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
         <v>70</v>
-      </c>
-      <c r="K23" t="s">
-        <v>71</v>
       </c>
       <c r="L23" s="90">
         <v>40</v>
@@ -2333,41 +2325,41 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
-    <col min="5" max="10" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="81"/>
       <c r="C2" s="82"/>
       <c r="D2" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="73"/>
       <c r="F2" s="74"/>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="C3" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="D3" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="E3" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="F3" s="57"/>
       <c r="G3" s="11"/>
@@ -2375,7 +2367,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="86">
         <v>1</v>
       </c>
@@ -2386,7 +2378,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="77">
         <v>0.1</v>
@@ -2401,7 +2393,7 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="86">
         <v>2</v>
       </c>
@@ -2412,13 +2404,13 @@
         <v>7</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="16">
         <v>50000000</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -2426,7 +2418,7 @@
       <c r="J5" s="17"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="86">
         <v>3</v>
       </c>
@@ -2437,13 +2429,13 @@
         <v>7.5</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="16">
         <v>34000000</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -2451,7 +2443,7 @@
       <c r="J6" s="17"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="86">
         <v>4</v>
       </c>
@@ -2466,7 +2458,7 @@
       <c r="G7" s="17"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="86">
         <v>5</v>
       </c>
@@ -2481,7 +2473,7 @@
       <c r="G8" s="17"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="86">
         <v>6</v>
       </c>
@@ -2496,7 +2488,7 @@
       <c r="G9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="86">
         <v>7</v>
       </c>
@@ -2511,7 +2503,7 @@
       <c r="G10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="86">
         <v>8</v>
       </c>
@@ -2528,7 +2520,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="86">
         <v>9</v>
       </c>
@@ -2545,7 +2537,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="86">
         <v>10</v>
       </c>
@@ -2562,7 +2554,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="86">
         <v>11</v>
       </c>
@@ -2575,7 +2567,7 @@
       <c r="D14" s="54"/>
       <c r="F14" s="57"/>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="86">
         <v>12</v>
       </c>
@@ -2588,7 +2580,7 @@
       <c r="D15" s="54"/>
       <c r="F15" s="57"/>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="79"/>
       <c r="B16" s="88"/>
       <c r="C16" s="89"/>
@@ -2600,11 +2592,11 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D19" s="17"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -2614,7 +2606,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="28"/>
@@ -2624,7 +2616,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="28"/>
@@ -2634,7 +2626,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="28"/>
@@ -2644,7 +2636,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="28"/>
@@ -2654,7 +2646,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="28"/>
@@ -2664,7 +2656,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="28"/>
@@ -2674,7 +2666,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="28"/>
@@ -2684,7 +2676,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="28"/>
@@ -2694,7 +2686,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="28"/>
@@ -2704,7 +2696,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="28"/>
@@ -2714,7 +2706,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
     </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="28"/>
@@ -2724,7 +2716,7 @@
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
     </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="28"/>
@@ -2748,353 +2740,353 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
-        <v>91</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>92</v>
-      </c>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>93</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="37">
         <v>37750</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
         <v>95</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="B6" s="38">
         <v>0.1</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="38">
         <v>200</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="34"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="35"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="39">
         <v>47000</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
         <v>95</v>
       </c>
-      <c r="D10" t="s">
-        <v>96</v>
-      </c>
       <c r="F10" s="35"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="38">
         <v>0.1</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="38">
         <v>200</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
         <v>105</v>
-      </c>
-      <c r="D13" s="34"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
-        <v>106</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="40">
         <v>64000</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
         <v>95</v>
       </c>
-      <c r="D15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" s="38">
         <v>0.05</v>
       </c>
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="38">
         <v>220</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" s="41">
         <f>B15</f>
         <v>64000</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B21" s="42">
         <v>0.05</v>
       </c>
       <c r="C21" s="31"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="42">
+        <v>0</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
         <v>114</v>
-      </c>
-      <c r="B22" s="42">
-        <v>0</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
-        <v>115</v>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="34"/>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="45"/>
       <c r="C24" s="44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="B25" s="46">
         <v>38280</v>
       </c>
       <c r="C25" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
         <v>95</v>
       </c>
-      <c r="D25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" s="38">
         <v>0.05</v>
       </c>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="38">
         <v>400</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
         <v>122</v>
-      </c>
-      <c r="D28" s="34"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
-        <v>123</v>
       </c>
       <c r="B29" s="47"/>
       <c r="C29" s="33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="46">
         <v>76620</v>
       </c>
       <c r="C30" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="D30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>126</v>
       </c>
       <c r="B31" s="38">
         <v>0.05</v>
       </c>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" s="15">
         <v>500</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3110,94 +3102,94 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" t="s">
         <v>145</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>146</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>360000000</v>
       </c>
@@ -3260,12 +3252,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="3"/>
@@ -3284,18 +3276,18 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
         <v>151</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>152</v>
       </c>
-      <c r="C5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -3307,7 +3299,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -3319,7 +3311,7 @@
         <v>7.6666666666666675E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -3331,7 +3323,7 @@
         <v>7.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -3343,7 +3335,7 @@
         <v>9.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -3355,7 +3347,7 @@
         <v>0.10666666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -3367,7 +3359,7 @@
         <v>9.9999999999999992E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -3379,7 +3371,7 @@
         <v>9.8333333333333328E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -3391,7 +3383,7 @@
         <v>8.9166666666666672E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -3403,7 +3395,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -3415,7 +3407,7 @@
         <v>6.8333333333333329E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -3427,7 +3419,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -3439,18 +3431,18 @@
         <v>7.166666666666667E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>1</v>
       </c>
@@ -3461,7 +3453,7 @@
         <v>7.0064119192243659</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>1</v>
       </c>
@@ -3472,7 +3464,7 @@
         <v>7.214523164349842</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>1</v>
       </c>
@@ -3483,7 +3475,7 @@
         <v>7.353263994433493</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>1</v>
       </c>
@@ -3494,7 +3486,7 @@
         <v>7.214523164349842</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>1</v>
       </c>
@@ -3505,7 +3497,7 @@
         <v>6.4514485988897627</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>1</v>
       </c>
@@ -3516,7 +3508,7 @@
         <v>5.5496332033460325</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>1</v>
       </c>
@@ -3527,7 +3519,7 @@
         <v>5.2027811281369045</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>1</v>
       </c>
@@ -3538,7 +3530,7 @@
         <v>4.9946698830114284</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>1</v>
       </c>
@@ -3549,7 +3541,7 @@
         <v>4.7865586378859524</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>1</v>
       </c>
@@ -3560,7 +3552,7 @@
         <v>4.6478178078023022</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>1</v>
       </c>
@@ -3571,7 +3563,7 @@
         <v>4.5090769777186512</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>1</v>
       </c>
@@ -3582,7 +3574,7 @@
         <v>4.5090769777186512</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>1</v>
       </c>
@@ -3593,7 +3585,7 @@
         <v>4.7171882228441282</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>1</v>
       </c>
@@ -3604,7 +3596,7 @@
         <v>5.3415219582205555</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>1</v>
       </c>
@@ -3615,7 +3607,7 @@
         <v>5.6190036183878576</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>1</v>
       </c>
@@ -3626,7 +3618,7 @@
         <v>5.6190036183878576</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>1</v>
       </c>
@@ -3637,7 +3629,7 @@
         <v>5.4802627883042074</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>1</v>
       </c>
@@ -3648,7 +3640,7 @@
         <v>5.5496332033460325</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>1</v>
       </c>
@@ -3659,7 +3651,7 @@
         <v>5.6190036183878576</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>1</v>
       </c>
@@ -3670,7 +3662,7 @@
         <v>5.8271148635133336</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>1</v>
       </c>
@@ -3681,7 +3673,7 @@
         <v>6.1739669387224607</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>1</v>
       </c>
@@ -3692,7 +3684,7 @@
         <v>6.5208190139315869</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>1</v>
       </c>
@@ -3703,7 +3695,7 @@
         <v>6.7289302590570639</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>1</v>
       </c>
@@ -3714,7 +3706,7 @@
         <v>6.867671089140714</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>2</v>
       </c>
@@ -3725,7 +3717,7 @@
         <v>7.0163219785160527</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>2</v>
       </c>
@@ -3736,7 +3728,7 @@
         <v>7.1352426900163248</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>2</v>
       </c>
@@ -3747,7 +3739,7 @@
         <v>6.9568616227659161</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>2</v>
       </c>
@@ -3758,7 +3750,7 @@
         <v>6.5406391325149658</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>2</v>
       </c>
@@ -3769,7 +3761,7 @@
         <v>5.4703527290125162</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>2</v>
       </c>
@@ -3780,7 +3772,7 @@
         <v>4.6973681042607476</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>2</v>
       </c>
@@ -3791,7 +3783,7 @@
         <v>4.3406059697599311</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>2</v>
       </c>
@@ -3802,7 +3794,7 @@
         <v>4.1622249025095224</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>2</v>
       </c>
@@ -3813,7 +3805,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>2</v>
       </c>
@@ -3824,7 +3816,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>2</v>
       </c>
@@ -3835,7 +3827,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>2</v>
       </c>
@@ -3846,7 +3838,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>2</v>
       </c>
@@ -3857,7 +3849,7 @@
         <v>4.1622249025095224</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>2</v>
       </c>
@@ -3868,7 +3860,7 @@
         <v>4.6973681042607476</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>2</v>
       </c>
@@ -3879,7 +3871,7 @@
         <v>5.0541302387615632</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>2</v>
       </c>
@@ -3890,7 +3882,7 @@
         <v>5.1730509502618363</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>2</v>
       </c>
@@ -3901,7 +3893,7 @@
         <v>5.2325113060119719</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>2</v>
       </c>
@@ -3912,7 +3904,7 @@
         <v>5.5298130847626519</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>2</v>
       </c>
@@ -3923,7 +3915,7 @@
         <v>5.8271148635133327</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>2</v>
       </c>
@@ -3934,7 +3926,7 @@
         <v>6.0649562865138771</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>2</v>
       </c>
@@ -3945,7 +3937,7 @@
         <v>6.3622580652645571</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>2</v>
       </c>
@@ -3956,7 +3948,7 @@
         <v>6.6000994882651014</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>2</v>
       </c>
@@ -3967,7 +3959,7 @@
         <v>6.7784805555155092</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>2</v>
       </c>
@@ -3978,7 +3970,7 @@
         <v>6.7784805555155092</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>3</v>
       </c>
@@ -3989,7 +3981,7 @@
         <v>6.7912677287951082</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>3</v>
       </c>
@@ -4000,7 +3992,7 @@
         <v>6.671068299966878</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>3</v>
       </c>
@@ -4011,7 +4003,7 @@
         <v>6.4907691567245287</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>3</v>
       </c>
@@ -4022,7 +4014,7 @@
         <v>6.1301708702398336</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>3</v>
       </c>
@@ -4033,7 +4025,7 @@
         <v>5.2887748684422089</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>3</v>
       </c>
@@ -4044,7 +4036,7 @@
         <v>4.6276780098869326</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>3</v>
       </c>
@@ -4055,7 +4047,7 @@
         <v>4.2069800089881202</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>3</v>
       </c>
@@ -4066,7 +4058,7 @@
         <v>3.9665811513316567</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>3</v>
       </c>
@@ -4077,7 +4069,7 @@
         <v>3.7862820080893083</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>3</v>
       </c>
@@ -4088,7 +4080,7 @@
         <v>3.7862820080893083</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>3</v>
       </c>
@@ -4099,7 +4091,7 @@
         <v>3.8463817225034247</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>3</v>
       </c>
@@ -4110,7 +4102,7 @@
         <v>3.9665811513316567</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>3</v>
       </c>
@@ -4121,7 +4113,7 @@
         <v>4.2069800089881202</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>3</v>
       </c>
@@ -4132,7 +4124,7 @@
         <v>4.6276780098869326</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>3</v>
       </c>
@@ -4143,7 +4135,7 @@
         <v>5.2887748684422089</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>3</v>
       </c>
@@ -4154,7 +4146,7 @@
         <v>5.7695725837551368</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>3</v>
       </c>
@@ -4165,7 +4157,7 @@
         <v>6.1902705846539483</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <v>3</v>
       </c>
@@ -4176,7 +4168,7 @@
         <v>6.2503702990680647</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>3</v>
       </c>
@@ -4187,7 +4179,7 @@
         <v>6.430669442310414</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <v>3</v>
       </c>
@@ -4198,7 +4190,7 @@
         <v>6.6109685855527616</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>3</v>
       </c>
@@ -4209,7 +4201,7 @@
         <v>6.8513674432092246</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
         <v>3</v>
       </c>
@@ -4220,7 +4212,7 @@
         <v>7.151866015279805</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>3</v>
       </c>
@@ -4231,7 +4223,7 @@
         <v>7.392264872936269</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>3</v>
       </c>
@@ -4242,7 +4234,7 @@
         <v>7.392264872936269</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>4</v>
       </c>
@@ -4253,7 +4245,7 @@
         <v>12.420607645583972</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>4</v>
       </c>
@@ -4264,7 +4256,7 @@
         <v>11.89207115002721</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>4</v>
       </c>
@@ -4275,7 +4267,7 @@
         <v>11.011176990765936</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>4</v>
       </c>
@@ -4286,7 +4278,7 @@
         <v>9.3374780881695134</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>4</v>
       </c>
@@ -4297,7 +4289,7 @@
         <v>7.5756897696469636</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>4</v>
       </c>
@@ -4308,7 +4300,7 @@
         <v>6.6067061944595613</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>4</v>
       </c>
@@ -4319,7 +4311,7 @@
         <v>6.3424379466811773</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>4</v>
       </c>
@@ -4330,7 +4322,7 @@
         <v>6.3424379466811773</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>4</v>
       </c>
@@ -4341,7 +4333,7 @@
         <v>6.4305273626073056</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="19">
         <v>4</v>
       </c>
@@ -4352,7 +4344,7 @@
         <v>6.6067061944595613</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="19">
         <v>4</v>
       </c>
@@ -4363,7 +4355,7 @@
         <v>6.8709744422379435</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>4</v>
       </c>
@@ -4374,7 +4366,7 @@
         <v>7.2233321059424531</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
         <v>4</v>
       </c>
@@ -4385,7 +4377,7 @@
         <v>7.6637791855730901</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="19">
         <v>4</v>
       </c>
@@ -4396,7 +4388,7 @@
         <v>8.2804050970559828</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="19">
         <v>4</v>
       </c>
@@ -4407,7 +4399,7 @@
         <v>9.1612992563172586</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="19">
         <v>4</v>
       </c>
@@ -4418,7 +4410,7 @@
         <v>9.8660145837262778</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="19">
         <v>4</v>
       </c>
@@ -4429,7 +4421,7 @@
         <v>10.570729911135297</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="19">
         <v>4</v>
       </c>
@@ -4440,7 +4432,7 @@
         <v>11.363534654470445</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="19">
         <v>4</v>
       </c>
@@ -4451,7 +4443,7 @@
         <v>11.89207115002721</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="19">
         <v>4</v>
       </c>
@@ -4462,7 +4454,7 @@
         <v>12.244428813731718</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="19">
         <v>4</v>
       </c>
@@ -4473,7 +4465,7 @@
         <v>12.420607645583972</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="19">
         <v>4</v>
       </c>
@@ -4484,7 +4476,7 @@
         <v>12.508697061510102</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="19">
         <v>4</v>
       </c>
@@ -4495,7 +4487,7 @@
         <v>12.420607645583972</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="19">
         <v>4</v>
       </c>
@@ -4506,7 +4498,7 @@
         <v>12.156339397805592</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="19">
         <v>5</v>
       </c>
@@ -4517,7 +4509,7 @@
         <v>11.873489788855293</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="19">
         <v>5</v>
       </c>
@@ -4528,7 +4520,7 @@
         <v>11.706257538308035</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="19">
         <v>5</v>
       </c>
@@ -4539,7 +4531,7 @@
         <v>11.037328536119004</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="19">
         <v>5</v>
       </c>
@@ -4550,7 +4542,7 @@
         <v>9.9503189075618295</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="19">
         <v>5</v>
       </c>
@@ -4561,7 +4553,7 @@
         <v>9.2813899053727997</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="19">
         <v>5</v>
       </c>
@@ -4572,7 +4564,7 @@
         <v>8.946925404278284</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="19">
         <v>5</v>
       </c>
@@ -4583,7 +4575,7 @@
         <v>8.7796931537310261</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="19">
         <v>5</v>
       </c>
@@ -4594,7 +4586,7 @@
         <v>8.7796931537310261</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="19">
         <v>5</v>
       </c>
@@ -4605,7 +4597,7 @@
         <v>8.863309279004655</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="19">
         <v>5</v>
       </c>
@@ -4616,7 +4608,7 @@
         <v>9.1141576548255419</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="19">
         <v>5</v>
       </c>
@@ -4627,7 +4619,7 @@
         <v>9.4486221559200558</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="19">
         <v>5</v>
       </c>
@@ -4638,7 +4630,7 @@
         <v>9.6994705317409426</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="19">
         <v>5</v>
       </c>
@@ -4649,7 +4641,7 @@
         <v>9.7830866570145716</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="19">
         <v>5</v>
       </c>
@@ -4660,7 +4652,7 @@
         <v>10.033935032835458</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="19">
         <v>5</v>
       </c>
@@ -4671,7 +4663,7 @@
         <v>10.535631784477232</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="19">
         <v>5</v>
       </c>
@@ -4682,7 +4674,7 @@
         <v>11.120944661392633</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="19">
         <v>5</v>
       </c>
@@ -4693,7 +4685,7 @@
         <v>11.706257538308035</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="19">
         <v>5</v>
       </c>
@@ -4704,7 +4696,7 @@
         <v>12.12433816467618</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="19">
         <v>5</v>
       </c>
@@ -4715,7 +4707,7 @@
         <v>12.291570415223436</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="19">
         <v>5</v>
       </c>
@@ -4726,7 +4718,7 @@
         <v>12.458802665770694</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="19">
         <v>5</v>
       </c>
@@ -4737,7 +4729,7 @@
         <v>12.542418791044323</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="19">
         <v>5</v>
       </c>
@@ -4748,7 +4740,7 @@
         <v>12.375186540497065</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="19">
         <v>5</v>
       </c>
@@ -4759,7 +4751,7 @@
         <v>12.291570415223436</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="19">
         <v>5</v>
       </c>
@@ -4770,7 +4762,7 @@
         <v>12.375186540497065</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="19">
         <v>6</v>
       </c>
@@ -4781,7 +4773,7 @@
         <v>14.750132249750415</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="19">
         <v>6</v>
       </c>
@@ -4792,7 +4784,7 @@
         <v>14.508326803033196</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="19">
         <v>6</v>
       </c>
@@ -4803,7 +4795,7 @@
         <v>14.024715909598756</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="19">
         <v>6</v>
       </c>
@@ -4814,7 +4806,7 @@
         <v>13.420202292805707</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="19">
         <v>6</v>
       </c>
@@ -4825,7 +4817,7 @@
         <v>12.936591399371267</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="19">
         <v>6</v>
       </c>
@@ -4836,7 +4828,7 @@
         <v>12.452980505936829</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="19">
         <v>6</v>
       </c>
@@ -4847,7 +4839,7 @@
         <v>12.452980505936829</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="19">
         <v>6</v>
       </c>
@@ -4858,7 +4850,7 @@
         <v>12.573883229295438</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="19">
         <v>6</v>
       </c>
@@ -4869,7 +4861,7 @@
         <v>12.936591399371267</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="19">
         <v>6</v>
       </c>
@@ -4880,7 +4872,7 @@
         <v>13.299299569447097</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="19">
         <v>6</v>
       </c>
@@ -4891,7 +4883,7 @@
         <v>13.662007739522924</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="19">
         <v>6</v>
       </c>
@@ -4902,7 +4894,7 @@
         <v>14.024715909598756</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="19">
         <v>6</v>
       </c>
@@ -4913,7 +4905,7 @@
         <v>14.145618632957365</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="19">
         <v>6</v>
       </c>
@@ -4924,7 +4916,7 @@
         <v>14.750132249750415</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="19">
         <v>6</v>
       </c>
@@ -4935,7 +4927,7 @@
         <v>15.112840419826245</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="19">
         <v>6</v>
       </c>
@@ -4946,7 +4938,7 @@
         <v>15.233743143184856</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="19">
         <v>6</v>
       </c>
@@ -4957,7 +4949,7 @@
         <v>15.475548589902077</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="19">
         <v>6</v>
       </c>
@@ -4968,7 +4960,7 @@
         <v>15.717354036619296</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="19">
         <v>6</v>
       </c>
@@ -4979,7 +4971,7 @@
         <v>15.838256759977906</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="19">
         <v>6</v>
       </c>
@@ -4990,7 +4982,7 @@
         <v>15.838256759977906</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="19">
         <v>6</v>
       </c>
@@ -5001,7 +4993,7 @@
         <v>15.959159483336515</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="19">
         <v>6</v>
       </c>
@@ -5012,7 +5004,7 @@
         <v>16.080062206695125</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="19">
         <v>6</v>
       </c>
@@ -5023,7 +5015,7 @@
         <v>16.080062206695125</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="19">
         <v>6</v>
       </c>
@@ -5034,7 +5026,7 @@
         <v>15.959159483336515</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="19">
         <v>7</v>
       </c>
@@ -5045,7 +5037,7 @@
         <v>14.754230647152404</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="19">
         <v>7</v>
       </c>
@@ -5056,7 +5048,7 @@
         <v>14.633294330372467</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="19">
         <v>7</v>
       </c>
@@ -5067,7 +5059,7 @@
         <v>14.391421696812589</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="19">
         <v>7</v>
       </c>
@@ -5078,7 +5070,7 @@
         <v>13.907676429692838</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="19">
         <v>7</v>
       </c>
@@ -5089,7 +5081,7 @@
         <v>13.302994845793153</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="19">
         <v>7</v>
       </c>
@@ -5100,7 +5092,7 @@
         <v>12.819249578673402</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="19">
         <v>7</v>
       </c>
@@ -5111,7 +5103,7 @@
         <v>12.577376945113524</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="19">
         <v>7</v>
       </c>
@@ -5122,7 +5114,7 @@
         <v>12.577376945113524</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="19">
         <v>7</v>
       </c>
@@ -5133,7 +5125,7 @@
         <v>12.94018589545334</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="19">
         <v>7</v>
       </c>
@@ -5144,7 +5136,7 @@
         <v>13.302994845793153</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="19">
         <v>7</v>
       </c>
@@ -5155,7 +5147,7 @@
         <v>13.7867401129129</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="19">
         <v>7</v>
       </c>
@@ -5166,7 +5158,7 @@
         <v>14.270485380032653</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="19">
         <v>7</v>
       </c>
@@ -5177,7 +5169,7 @@
         <v>14.754230647152404</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="19">
         <v>7</v>
       </c>
@@ -5188,7 +5180,7 @@
         <v>15.117039597492216</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="19">
         <v>7</v>
       </c>
@@ -5199,7 +5191,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="19">
         <v>7</v>
       </c>
@@ -5210,7 +5202,7 @@
         <v>14.996103280712278</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="19">
         <v>7</v>
       </c>
@@ -5221,7 +5213,7 @@
         <v>14.875166963932342</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="19">
         <v>7</v>
       </c>
@@ -5232,7 +5224,7 @@
         <v>14.754230647152404</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="19">
         <v>7</v>
       </c>
@@ -5243,7 +5235,7 @@
         <v>14.875166963932342</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="19">
         <v>7</v>
       </c>
@@ -5254,7 +5246,7 @@
         <v>14.996103280712278</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="19">
         <v>7</v>
       </c>
@@ -5265,7 +5257,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="19">
         <v>7</v>
       </c>
@@ -5276,7 +5268,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="19">
         <v>7</v>
       </c>
@@ -5287,7 +5279,7 @@
         <v>15.358912231052093</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="19">
         <v>7</v>
       </c>
@@ -5298,7 +5290,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="19">
         <v>8</v>
       </c>
@@ -5309,7 +5301,7 @@
         <v>15.99427999252725</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="19">
         <v>8</v>
       </c>
@@ -5320,7 +5312,7 @@
         <v>15.857576744727872</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="19">
         <v>8</v>
       </c>
@@ -5331,7 +5323,7 @@
         <v>15.310763753530361</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="19">
         <v>8</v>
       </c>
@@ -5342,7 +5334,7 @@
         <v>14.627247514533469</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="19">
         <v>8</v>
       </c>
@@ -5353,7 +5345,7 @@
         <v>13.670324779937822</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="19">
         <v>8</v>
       </c>
@@ -5364,7 +5356,7 @@
         <v>12.986808540940929</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="19">
         <v>8</v>
       </c>
@@ -5375,7 +5367,7 @@
         <v>12.576698797542795</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="19">
         <v>8</v>
       </c>
@@ -5386,7 +5378,7 @@
         <v>12.576698797542795</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="19">
         <v>8</v>
       </c>
@@ -5397,7 +5389,7 @@
         <v>12.986808540940929</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="19">
         <v>8</v>
       </c>
@@ -5408,7 +5400,7 @@
         <v>13.260215036539686</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="19">
         <v>8</v>
       </c>
@@ -5419,7 +5411,7 @@
         <v>13.533621532138444</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="19">
         <v>8</v>
       </c>
@@ -5430,7 +5422,7 @@
         <v>14.217137771135336</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="19">
         <v>8</v>
       </c>
@@ -5441,7 +5433,7 @@
         <v>14.627247514533469</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="19">
         <v>8</v>
       </c>
@@ -5452,7 +5444,7 @@
         <v>15.037357257931603</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="19">
         <v>8</v>
       </c>
@@ -5463,7 +5455,7 @@
         <v>15.174060505730983</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="19">
         <v>8</v>
       </c>
@@ -5474,7 +5466,7 @@
         <v>15.174060505730983</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="19">
         <v>8</v>
       </c>
@@ -5485,7 +5477,7 @@
         <v>15.174060505730983</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="19">
         <v>8</v>
       </c>
@@ -5496,7 +5488,7 @@
         <v>15.310763753530361</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="19">
         <v>8</v>
       </c>
@@ -5507,7 +5499,7 @@
         <v>15.447467001329738</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="19">
         <v>8</v>
       </c>
@@ -5518,7 +5510,7 @@
         <v>15.584170249129116</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="19">
         <v>8</v>
       </c>
@@ -5529,7 +5521,7 @@
         <v>15.857576744727872</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="19">
         <v>8</v>
       </c>
@@ -5540,7 +5532,7 @@
         <v>15.99427999252725</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="19">
         <v>8</v>
       </c>
@@ -5551,7 +5543,7 @@
         <v>15.857576744727872</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="19">
         <v>8</v>
       </c>
@@ -5562,7 +5554,7 @@
         <v>15.584170249129116</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="19">
         <v>9</v>
       </c>
@@ -5573,7 +5565,7 @@
         <v>10.413723481572847</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="19">
         <v>9</v>
       </c>
@@ -5584,7 +5576,7 @@
         <v>10.234176524994005</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="19">
         <v>9</v>
       </c>
@@ -5595,7 +5587,7 @@
         <v>9.9648560901257426</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="19">
         <v>9</v>
       </c>
@@ -5606,7 +5598,7 @@
         <v>9.0671213072315311</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="19">
         <v>9</v>
       </c>
@@ -5617,7 +5609,7 @@
         <v>8.1693865243373196</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="19">
         <v>9</v>
       </c>
@@ -5628,7 +5620,7 @@
         <v>7.6307456546007923</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="19">
         <v>9</v>
       </c>
@@ -5639,7 +5631,7 @@
         <v>7.3614252197325287</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="19">
         <v>9</v>
       </c>
@@ -5650,7 +5642,7 @@
         <v>7.271651741443109</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="19">
         <v>9</v>
       </c>
@@ -5661,7 +5653,7 @@
         <v>7.271651741443109</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="19">
         <v>9</v>
       </c>
@@ -5672,7 +5664,7 @@
         <v>7.5409721763113717</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="19">
         <v>9</v>
       </c>
@@ -5683,7 +5675,7 @@
         <v>7.8102926111796354</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="19">
         <v>9</v>
       </c>
@@ -5694,7 +5686,7 @@
         <v>8.1693865243373196</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="19">
         <v>9</v>
       </c>
@@ -5705,7 +5697,7 @@
         <v>8.6182539157844253</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="19">
         <v>9</v>
       </c>
@@ -5716,7 +5708,7 @@
         <v>8.9773478289421096</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="19">
         <v>9</v>
       </c>
@@ -5727,7 +5719,7 @@
         <v>9.2466682638103723</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="19">
         <v>9</v>
       </c>
@@ -5738,7 +5730,7 @@
         <v>9.3364417420997956</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="19">
         <v>9</v>
       </c>
@@ -5749,7 +5741,7 @@
         <v>9.6955356552574798</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="19">
         <v>9</v>
       </c>
@@ -5760,7 +5752,7 @@
         <v>9.9648560901257426</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="19">
         <v>9</v>
       </c>
@@ -5771,7 +5763,7 @@
         <v>10.054629568415162</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="19">
         <v>9</v>
       </c>
@@ -5782,7 +5774,7 @@
         <v>10.234176524994005</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="19">
         <v>9</v>
       </c>
@@ -5793,7 +5785,7 @@
         <v>10.413723481572847</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="19">
         <v>9</v>
       </c>
@@ -5804,7 +5796,7 @@
         <v>10.503496959862268</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="19">
         <v>9</v>
       </c>
@@ -5815,7 +5807,7 @@
         <v>10.503496959862268</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="19">
         <v>9</v>
       </c>
@@ -5826,7 +5818,7 @@
         <v>10.503496959862268</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="19">
         <v>10</v>
       </c>
@@ -5837,7 +5829,7 @@
         <v>7.6863386701395395</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="19">
         <v>10</v>
       </c>
@@ -5848,7 +5840,7 @@
         <v>7.4688007832487973</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="19">
         <v>10</v>
       </c>
@@ -5859,7 +5851,7 @@
         <v>7.1062376384308941</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="19">
         <v>10</v>
       </c>
@@ -5870,7 +5862,7 @@
         <v>6.59864923568583</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="19">
         <v>10</v>
       </c>
@@ -5881,7 +5873,7 @@
         <v>5.5834724301957026</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="19">
         <v>10</v>
       </c>
@@ -5892,7 +5884,7 @@
         <v>4.5682956247055753</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="19">
         <v>10</v>
       </c>
@@ -5903,7 +5895,7 @@
         <v>4.0607072219605111</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="19">
         <v>10</v>
       </c>
@@ -5914,7 +5906,7 @@
         <v>3.9156819640333502</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="19">
         <v>10</v>
       </c>
@@ -5925,7 +5917,7 @@
         <v>3.9881945929969311</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="19">
         <v>10</v>
       </c>
@@ -5936,7 +5928,7 @@
         <v>3.9881945929969311</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="19">
         <v>10</v>
       </c>
@@ -5947,7 +5939,7 @@
         <v>4.1332198509240916</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="19">
         <v>10</v>
       </c>
@@ -5958,7 +5950,7 @@
         <v>4.2782451088512525</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="19">
         <v>10</v>
       </c>
@@ -5969,7 +5961,7 @@
         <v>4.5682956247055753</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="19">
         <v>10</v>
       </c>
@@ -5980,7 +5972,7 @@
         <v>5.3659345433049612</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="19">
         <v>10</v>
       </c>
@@ -5991,7 +5983,7 @@
         <v>5.8010103170864449</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="19">
         <v>10</v>
       </c>
@@ -6002,7 +5994,7 @@
         <v>6.0910608329407667</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="19">
         <v>10</v>
       </c>
@@ -6013,7 +6005,7 @@
         <v>6.1635734619043472</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="19">
         <v>10</v>
       </c>
@@ -6024,7 +6016,7 @@
         <v>6.4536239777586699</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="19">
         <v>10</v>
       </c>
@@ -6035,7 +6027,7 @@
         <v>6.8161871225765713</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="19">
         <v>10</v>
       </c>
@@ -6046,7 +6038,7 @@
         <v>7.251262896358055</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="19">
         <v>10</v>
       </c>
@@ -6057,7 +6049,7 @@
         <v>7.6138260411759591</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="19">
         <v>10</v>
       </c>
@@ -6068,7 +6060,7 @@
         <v>7.8313639280667005</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="19">
         <v>10</v>
       </c>
@@ -6079,7 +6071,7 @@
         <v>7.9038765570302809</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="19">
         <v>10</v>
       </c>
@@ -6090,7 +6082,7 @@
         <v>7.8313639280667005</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="19">
         <v>11</v>
       </c>
@@ -6101,7 +6093,7 @@
         <v>6.9330774804658635</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="19">
         <v>11</v>
       </c>
@@ -6112,7 +6104,7 @@
         <v>6.9984838717910138</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="19">
         <v>11</v>
       </c>
@@ -6123,7 +6115,7 @@
         <v>6.9984838717910138</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="19">
         <v>11</v>
       </c>
@@ -6134,7 +6126,7 @@
         <v>6.8022646978155654</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="19">
         <v>11</v>
       </c>
@@ -6145,7 +6137,7 @@
         <v>6.2136071758892166</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="19">
         <v>11</v>
       </c>
@@ -6156,7 +6148,7 @@
         <v>5.101698523361673</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="19">
         <v>11</v>
       </c>
@@ -6167,7 +6159,7 @@
         <v>4.4476346101101765</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="19">
         <v>11</v>
       </c>
@@ -6178,7 +6170,7 @@
         <v>4.0551962621592788</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="19">
         <v>11</v>
       </c>
@@ -6189,7 +6181,7 @@
         <v>3.8589770881838299</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="19">
         <v>11</v>
       </c>
@@ -6200,7 +6192,7 @@
         <v>3.79357069685868</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="19">
         <v>11</v>
       </c>
@@ -6211,7 +6203,7 @@
         <v>3.79357069685868</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="19">
         <v>11</v>
       </c>
@@ -6222,7 +6214,7 @@
         <v>3.79357069685868</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="19">
         <v>11</v>
       </c>
@@ -6233,7 +6225,7 @@
         <v>3.9897898708341288</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="19">
         <v>11</v>
       </c>
@@ -6244,7 +6236,7 @@
         <v>4.5784473927604754</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="19">
         <v>11</v>
       </c>
@@ -6255,7 +6247,7 @@
         <v>4.7746665667359247</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="19">
         <v>11</v>
       </c>
@@ -6266,7 +6258,7 @@
         <v>4.8400729580610751</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="19">
         <v>11</v>
       </c>
@@ -6277,7 +6269,7 @@
         <v>4.8400729580610751</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="19">
         <v>11</v>
       </c>
@@ -6288,7 +6280,7 @@
         <v>4.8400729580610751</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="19">
         <v>11</v>
       </c>
@@ -6299,7 +6291,7 @@
         <v>4.9708857407113731</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="19">
         <v>11</v>
       </c>
@@ -6310,7 +6302,7 @@
         <v>5.2979176973371223</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="19">
         <v>11</v>
       </c>
@@ -6321,7 +6313,7 @@
         <v>5.69035604528802</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="19">
         <v>11</v>
       </c>
@@ -6332,7 +6324,7 @@
         <v>6.0827943932389186</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="19">
         <v>11</v>
       </c>
@@ -6343,7 +6335,7 @@
         <v>6.4752327411898163</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="19">
         <v>11</v>
       </c>
@@ -6354,7 +6346,7 @@
         <v>6.7368583064904151</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="19">
         <v>12</v>
       </c>
@@ -6365,7 +6357,7 @@
         <v>7.5486995823254119</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="19">
         <v>12</v>
       </c>
@@ -6376,7 +6368,7 @@
         <v>7.6952762732443523</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="19">
         <v>12</v>
       </c>
@@ -6387,7 +6379,7 @@
         <v>7.6952762732443523</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="19">
         <v>12</v>
       </c>
@@ -6398,7 +6390,7 @@
         <v>7.5486995823254119</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="19">
         <v>12</v>
       </c>
@@ -6409,7 +6401,7 @@
         <v>7.0356811641091213</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="19">
         <v>12</v>
       </c>
@@ -6420,7 +6412,7 @@
         <v>5.9363559822170719</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="19">
         <v>12</v>
       </c>
@@ -6431,7 +6423,7 @@
         <v>5.4233375640007813</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="19">
         <v>12</v>
       </c>
@@ -6442,7 +6434,7 @@
         <v>5.0568958367034309</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="19">
         <v>12</v>
       </c>
@@ -6453,7 +6445,7 @@
         <v>4.8370308003250218</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="19">
         <v>12</v>
       </c>
@@ -6464,7 +6456,7 @@
         <v>4.763742454865552</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="19">
         <v>12</v>
       </c>
@@ -6475,7 +6467,7 @@
         <v>4.6904541094060814</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="19">
         <v>12</v>
       </c>
@@ -6486,7 +6478,7 @@
         <v>4.763742454865552</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="19">
         <v>12</v>
       </c>
@@ -6497,7 +6489,7 @@
         <v>5.0568958367034309</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="19">
         <v>12</v>
       </c>
@@ -6508,7 +6500,7 @@
         <v>5.6432026003791913</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="19">
         <v>12</v>
       </c>
@@ -6519,7 +6511,7 @@
         <v>5.9363559822170719</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="19">
         <v>12</v>
       </c>
@@ -6530,7 +6522,7 @@
         <v>6.0096443276765408</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="19">
         <v>12</v>
       </c>
@@ -6541,7 +6533,7 @@
         <v>6.0829326731360105</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="19">
         <v>12</v>
       </c>
@@ -6552,7 +6544,7 @@
         <v>6.156221018595482</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="19">
         <v>12</v>
       </c>
@@ -6563,7 +6555,7 @@
         <v>6.3760860549738911</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="19">
         <v>12</v>
       </c>
@@ -6574,7 +6566,7 @@
         <v>6.6692394368117718</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="19">
         <v>12</v>
       </c>
@@ -6585,7 +6577,7 @@
         <v>6.9623928186496506</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="19">
         <v>12</v>
       </c>
@@ -6596,7 +6588,7 @@
         <v>7.2555462004875313</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="19">
         <v>12</v>
       </c>
@@ -6607,7 +6599,7 @@
         <v>7.4754112368659413</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="19">
         <v>12</v>
       </c>
@@ -6631,56 +6623,56 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="21" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="21" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
         <v>156</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>158</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>159</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>160</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" t="s">
         <v>161</v>
       </c>
-      <c r="H1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>162</v>
       </c>
-      <c r="K1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>150000000</v>
       </c>
@@ -6694,7 +6686,7 @@
         <v>0.1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F2" s="2">
         <v>12000</v>
@@ -6716,47 +6708,47 @@
         <v>80000000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
         <v>149</v>
       </c>
-      <c r="B3" t="s">
-        <v>150</v>
-      </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>165</v>
       </c>
-      <c r="I3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>166</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>167</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>168</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>169</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6776,7 +6768,7 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6795,7 +6787,7 @@
         <v>364</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I7" s="46">
         <v>110000000</v>
@@ -6804,7 +6796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6823,18 +6815,18 @@
         <v>341</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I8" s="46">
         <f>400000</f>
         <v>400000</v>
       </c>
       <c r="J8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K8" s="29"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -6853,13 +6845,13 @@
         <v>330</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I9" s="50">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -6878,16 +6870,16 @@
         <v>341</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I10">
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -6906,13 +6898,13 @@
         <v>330</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -6932,7 +6924,7 @@
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -6952,7 +6944,7 @@
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -6971,7 +6963,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -6990,7 +6982,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -7009,7 +7001,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -7028,19 +7020,19 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>1</v>
       </c>
@@ -7052,7 +7044,7 @@
       </c>
       <c r="D22" s="21"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>1</v>
       </c>
@@ -7064,7 +7056,7 @@
       </c>
       <c r="D23" s="21"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>1</v>
       </c>
@@ -7076,7 +7068,7 @@
       </c>
       <c r="D24" s="21"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>1</v>
       </c>
@@ -7088,7 +7080,7 @@
       </c>
       <c r="D25" s="21"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>1</v>
       </c>
@@ -7100,7 +7092,7 @@
       </c>
       <c r="D26" s="21"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>1</v>
       </c>
@@ -7112,7 +7104,7 @@
       </c>
       <c r="D27" s="21"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>1</v>
       </c>
@@ -7124,7 +7116,7 @@
       </c>
       <c r="D28" s="21"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>1</v>
       </c>
@@ -7136,7 +7128,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>1</v>
       </c>
@@ -7148,7 +7140,7 @@
       </c>
       <c r="D30" s="21"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>1</v>
       </c>
@@ -7160,7 +7152,7 @@
       </c>
       <c r="D31" s="21"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>1</v>
       </c>
@@ -7172,7 +7164,7 @@
       </c>
       <c r="D32" s="21"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>1</v>
       </c>
@@ -7184,7 +7176,7 @@
       </c>
       <c r="D33" s="21"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>1</v>
       </c>
@@ -7196,7 +7188,7 @@
       </c>
       <c r="D34" s="21"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>1</v>
       </c>
@@ -7208,7 +7200,7 @@
       </c>
       <c r="D35" s="21"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>1</v>
       </c>
@@ -7220,7 +7212,7 @@
       </c>
       <c r="D36" s="21"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>1</v>
       </c>
@@ -7232,7 +7224,7 @@
       </c>
       <c r="D37" s="21"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>1</v>
       </c>
@@ -7244,7 +7236,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>1</v>
       </c>
@@ -7256,7 +7248,7 @@
       </c>
       <c r="D39" s="21"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>1</v>
       </c>
@@ -7268,7 +7260,7 @@
       </c>
       <c r="D40" s="21"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>1</v>
       </c>
@@ -7280,7 +7272,7 @@
       </c>
       <c r="D41" s="21"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>1</v>
       </c>
@@ -7292,7 +7284,7 @@
       </c>
       <c r="D42" s="21"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>1</v>
       </c>
@@ -7304,7 +7296,7 @@
       </c>
       <c r="D43" s="21"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>1</v>
       </c>
@@ -7316,7 +7308,7 @@
       </c>
       <c r="D44" s="21"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>1</v>
       </c>
@@ -7328,7 +7320,7 @@
       </c>
       <c r="D45" s="21"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>2</v>
       </c>
@@ -7340,7 +7332,7 @@
       </c>
       <c r="D46" s="21"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>2</v>
       </c>
@@ -7352,7 +7344,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>2</v>
       </c>
@@ -7364,7 +7356,7 @@
       </c>
       <c r="D48" s="21"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>2</v>
       </c>
@@ -7376,7 +7368,7 @@
       </c>
       <c r="D49" s="21"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>2</v>
       </c>
@@ -7388,7 +7380,7 @@
       </c>
       <c r="D50" s="21"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>2</v>
       </c>
@@ -7400,7 +7392,7 @@
       </c>
       <c r="D51" s="21"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>2</v>
       </c>
@@ -7412,7 +7404,7 @@
       </c>
       <c r="D52" s="21"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>2</v>
       </c>
@@ -7424,7 +7416,7 @@
       </c>
       <c r="D53" s="21"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>2</v>
       </c>
@@ -7436,7 +7428,7 @@
       </c>
       <c r="D54" s="21"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>2</v>
       </c>
@@ -7448,7 +7440,7 @@
       </c>
       <c r="D55" s="21"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>2</v>
       </c>
@@ -7460,7 +7452,7 @@
       </c>
       <c r="D56" s="21"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>2</v>
       </c>
@@ -7472,7 +7464,7 @@
       </c>
       <c r="D57" s="21"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>2</v>
       </c>
@@ -7484,7 +7476,7 @@
       </c>
       <c r="D58" s="21"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>2</v>
       </c>
@@ -7496,7 +7488,7 @@
       </c>
       <c r="D59" s="21"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>2</v>
       </c>
@@ -7508,7 +7500,7 @@
       </c>
       <c r="D60" s="21"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>2</v>
       </c>
@@ -7520,7 +7512,7 @@
       </c>
       <c r="D61" s="21"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>2</v>
       </c>
@@ -7532,7 +7524,7 @@
       </c>
       <c r="D62" s="21"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>2</v>
       </c>
@@ -7544,7 +7536,7 @@
       </c>
       <c r="D63" s="21"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>2</v>
       </c>
@@ -7556,7 +7548,7 @@
       </c>
       <c r="D64" s="21"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>2</v>
       </c>
@@ -7568,7 +7560,7 @@
       </c>
       <c r="D65" s="21"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>2</v>
       </c>
@@ -7580,7 +7572,7 @@
       </c>
       <c r="D66" s="21"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>2</v>
       </c>
@@ -7592,7 +7584,7 @@
       </c>
       <c r="D67" s="21"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>2</v>
       </c>
@@ -7604,7 +7596,7 @@
       </c>
       <c r="D68" s="21"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>2</v>
       </c>
@@ -7616,7 +7608,7 @@
       </c>
       <c r="D69" s="21"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>3</v>
       </c>
@@ -7628,7 +7620,7 @@
       </c>
       <c r="D70" s="21"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>3</v>
       </c>
@@ -7640,7 +7632,7 @@
       </c>
       <c r="D71" s="21"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>3</v>
       </c>
@@ -7652,7 +7644,7 @@
       </c>
       <c r="D72" s="21"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>3</v>
       </c>
@@ -7664,7 +7656,7 @@
       </c>
       <c r="D73" s="21"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>3</v>
       </c>
@@ -7676,7 +7668,7 @@
       </c>
       <c r="D74" s="21"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>3</v>
       </c>
@@ -7688,7 +7680,7 @@
       </c>
       <c r="D75" s="21"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>3</v>
       </c>
@@ -7700,7 +7692,7 @@
       </c>
       <c r="D76" s="21"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>3</v>
       </c>
@@ -7712,7 +7704,7 @@
       </c>
       <c r="D77" s="21"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>3</v>
       </c>
@@ -7724,7 +7716,7 @@
       </c>
       <c r="D78" s="21"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>3</v>
       </c>
@@ -7736,7 +7728,7 @@
       </c>
       <c r="D79" s="21"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>3</v>
       </c>
@@ -7748,7 +7740,7 @@
       </c>
       <c r="D80" s="21"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>3</v>
       </c>
@@ -7760,7 +7752,7 @@
       </c>
       <c r="D81" s="21"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>3</v>
       </c>
@@ -7772,7 +7764,7 @@
       </c>
       <c r="D82" s="21"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>3</v>
       </c>
@@ -7784,7 +7776,7 @@
       </c>
       <c r="D83" s="21"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>3</v>
       </c>
@@ -7796,7 +7788,7 @@
       </c>
       <c r="D84" s="21"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>3</v>
       </c>
@@ -7808,7 +7800,7 @@
       </c>
       <c r="D85" s="21"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <v>3</v>
       </c>
@@ -7820,7 +7812,7 @@
       </c>
       <c r="D86" s="21"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>3</v>
       </c>
@@ -7832,7 +7824,7 @@
       </c>
       <c r="D87" s="21"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <v>3</v>
       </c>
@@ -7844,7 +7836,7 @@
       </c>
       <c r="D88" s="21"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>3</v>
       </c>
@@ -7856,7 +7848,7 @@
       </c>
       <c r="D89" s="21"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
         <v>3</v>
       </c>
@@ -7868,7 +7860,7 @@
       </c>
       <c r="D90" s="21"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>3</v>
       </c>
@@ -7880,7 +7872,7 @@
       </c>
       <c r="D91" s="21"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>3</v>
       </c>
@@ -7892,7 +7884,7 @@
       </c>
       <c r="D92" s="21"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>3</v>
       </c>
@@ -7904,7 +7896,7 @@
       </c>
       <c r="D93" s="21"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>4</v>
       </c>
@@ -7916,7 +7908,7 @@
       </c>
       <c r="D94" s="21"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>4</v>
       </c>
@@ -7928,7 +7920,7 @@
       </c>
       <c r="D95" s="21"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>4</v>
       </c>
@@ -7940,7 +7932,7 @@
       </c>
       <c r="D96" s="21"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>4</v>
       </c>
@@ -7952,7 +7944,7 @@
       </c>
       <c r="D97" s="21"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>4</v>
       </c>
@@ -7964,7 +7956,7 @@
       </c>
       <c r="D98" s="21"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>4</v>
       </c>
@@ -7976,7 +7968,7 @@
       </c>
       <c r="D99" s="21"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>4</v>
       </c>
@@ -7988,7 +7980,7 @@
       </c>
       <c r="D100" s="21"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>4</v>
       </c>
@@ -8000,7 +7992,7 @@
       </c>
       <c r="D101" s="21"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="19">
         <v>4</v>
       </c>
@@ -8012,7 +8004,7 @@
       </c>
       <c r="D102" s="21"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="19">
         <v>4</v>
       </c>
@@ -8024,7 +8016,7 @@
       </c>
       <c r="D103" s="21"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>4</v>
       </c>
@@ -8036,7 +8028,7 @@
       </c>
       <c r="D104" s="21"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
         <v>4</v>
       </c>
@@ -8048,7 +8040,7 @@
       </c>
       <c r="D105" s="21"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="19">
         <v>4</v>
       </c>
@@ -8060,7 +8052,7 @@
       </c>
       <c r="D106" s="21"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="19">
         <v>4</v>
       </c>
@@ -8072,7 +8064,7 @@
       </c>
       <c r="D107" s="21"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="19">
         <v>4</v>
       </c>
@@ -8084,7 +8076,7 @@
       </c>
       <c r="D108" s="21"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="19">
         <v>4</v>
       </c>
@@ -8096,7 +8088,7 @@
       </c>
       <c r="D109" s="21"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="19">
         <v>4</v>
       </c>
@@ -8108,7 +8100,7 @@
       </c>
       <c r="D110" s="21"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="19">
         <v>4</v>
       </c>
@@ -8120,7 +8112,7 @@
       </c>
       <c r="D111" s="21"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="19">
         <v>4</v>
       </c>
@@ -8132,7 +8124,7 @@
       </c>
       <c r="D112" s="21"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="19">
         <v>4</v>
       </c>
@@ -8144,7 +8136,7 @@
       </c>
       <c r="D113" s="21"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="19">
         <v>4</v>
       </c>
@@ -8156,7 +8148,7 @@
       </c>
       <c r="D114" s="21"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="19">
         <v>4</v>
       </c>
@@ -8168,7 +8160,7 @@
       </c>
       <c r="D115" s="21"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="19">
         <v>4</v>
       </c>
@@ -8180,7 +8172,7 @@
       </c>
       <c r="D116" s="21"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="19">
         <v>4</v>
       </c>
@@ -8192,7 +8184,7 @@
       </c>
       <c r="D117" s="21"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="19">
         <v>5</v>
       </c>
@@ -8204,7 +8196,7 @@
       </c>
       <c r="D118" s="21"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="19">
         <v>5</v>
       </c>
@@ -8216,7 +8208,7 @@
       </c>
       <c r="D119" s="21"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="19">
         <v>5</v>
       </c>
@@ -8228,7 +8220,7 @@
       </c>
       <c r="D120" s="21"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="19">
         <v>5</v>
       </c>
@@ -8240,7 +8232,7 @@
       </c>
       <c r="D121" s="21"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="19">
         <v>5</v>
       </c>
@@ -8252,7 +8244,7 @@
       </c>
       <c r="D122" s="21"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="19">
         <v>5</v>
       </c>
@@ -8264,7 +8256,7 @@
       </c>
       <c r="D123" s="21"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="19">
         <v>5</v>
       </c>
@@ -8276,7 +8268,7 @@
       </c>
       <c r="D124" s="21"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="19">
         <v>5</v>
       </c>
@@ -8288,7 +8280,7 @@
       </c>
       <c r="D125" s="21"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="19">
         <v>5</v>
       </c>
@@ -8300,7 +8292,7 @@
       </c>
       <c r="D126" s="21"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="19">
         <v>5</v>
       </c>
@@ -8312,7 +8304,7 @@
       </c>
       <c r="D127" s="21"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="19">
         <v>5</v>
       </c>
@@ -8324,7 +8316,7 @@
       </c>
       <c r="D128" s="21"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="19">
         <v>5</v>
       </c>
@@ -8336,7 +8328,7 @@
       </c>
       <c r="D129" s="21"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="19">
         <v>5</v>
       </c>
@@ -8348,7 +8340,7 @@
       </c>
       <c r="D130" s="21"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="19">
         <v>5</v>
       </c>
@@ -8360,7 +8352,7 @@
       </c>
       <c r="D131" s="21"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="19">
         <v>5</v>
       </c>
@@ -8372,7 +8364,7 @@
       </c>
       <c r="D132" s="21"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="19">
         <v>5</v>
       </c>
@@ -8384,7 +8376,7 @@
       </c>
       <c r="D133" s="21"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="19">
         <v>5</v>
       </c>
@@ -8396,7 +8388,7 @@
       </c>
       <c r="D134" s="21"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="19">
         <v>5</v>
       </c>
@@ -8408,7 +8400,7 @@
       </c>
       <c r="D135" s="21"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="19">
         <v>5</v>
       </c>
@@ -8420,7 +8412,7 @@
       </c>
       <c r="D136" s="21"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="19">
         <v>5</v>
       </c>
@@ -8432,7 +8424,7 @@
       </c>
       <c r="D137" s="21"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="19">
         <v>5</v>
       </c>
@@ -8444,7 +8436,7 @@
       </c>
       <c r="D138" s="21"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="19">
         <v>5</v>
       </c>
@@ -8456,7 +8448,7 @@
       </c>
       <c r="D139" s="21"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="19">
         <v>5</v>
       </c>
@@ -8468,7 +8460,7 @@
       </c>
       <c r="D140" s="21"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="19">
         <v>5</v>
       </c>
@@ -8480,7 +8472,7 @@
       </c>
       <c r="D141" s="21"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="19">
         <v>6</v>
       </c>
@@ -8492,7 +8484,7 @@
       </c>
       <c r="D142" s="21"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="19">
         <v>6</v>
       </c>
@@ -8504,7 +8496,7 @@
       </c>
       <c r="D143" s="21"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="19">
         <v>6</v>
       </c>
@@ -8516,7 +8508,7 @@
       </c>
       <c r="D144" s="21"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="19">
         <v>6</v>
       </c>
@@ -8528,7 +8520,7 @@
       </c>
       <c r="D145" s="21"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="19">
         <v>6</v>
       </c>
@@ -8540,7 +8532,7 @@
       </c>
       <c r="D146" s="21"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="19">
         <v>6</v>
       </c>
@@ -8552,7 +8544,7 @@
       </c>
       <c r="D147" s="21"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="19">
         <v>6</v>
       </c>
@@ -8564,7 +8556,7 @@
       </c>
       <c r="D148" s="21"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="19">
         <v>6</v>
       </c>
@@ -8576,7 +8568,7 @@
       </c>
       <c r="D149" s="21"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="19">
         <v>6</v>
       </c>
@@ -8588,7 +8580,7 @@
       </c>
       <c r="D150" s="21"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="19">
         <v>6</v>
       </c>
@@ -8600,7 +8592,7 @@
       </c>
       <c r="D151" s="21"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="19">
         <v>6</v>
       </c>
@@ -8612,7 +8604,7 @@
       </c>
       <c r="D152" s="21"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="19">
         <v>6</v>
       </c>
@@ -8624,7 +8616,7 @@
       </c>
       <c r="D153" s="21"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="19">
         <v>6</v>
       </c>
@@ -8636,7 +8628,7 @@
       </c>
       <c r="D154" s="21"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="19">
         <v>6</v>
       </c>
@@ -8648,7 +8640,7 @@
       </c>
       <c r="D155" s="21"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="19">
         <v>6</v>
       </c>
@@ -8660,7 +8652,7 @@
       </c>
       <c r="D156" s="21"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="19">
         <v>6</v>
       </c>
@@ -8672,7 +8664,7 @@
       </c>
       <c r="D157" s="21"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="19">
         <v>6</v>
       </c>
@@ -8684,7 +8676,7 @@
       </c>
       <c r="D158" s="21"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="19">
         <v>6</v>
       </c>
@@ -8696,7 +8688,7 @@
       </c>
       <c r="D159" s="21"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="19">
         <v>6</v>
       </c>
@@ -8708,7 +8700,7 @@
       </c>
       <c r="D160" s="21"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="19">
         <v>6</v>
       </c>
@@ -8720,7 +8712,7 @@
       </c>
       <c r="D161" s="21"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="19">
         <v>6</v>
       </c>
@@ -8732,7 +8724,7 @@
       </c>
       <c r="D162" s="21"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="19">
         <v>6</v>
       </c>
@@ -8744,7 +8736,7 @@
       </c>
       <c r="D163" s="21"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="19">
         <v>6</v>
       </c>
@@ -8756,7 +8748,7 @@
       </c>
       <c r="D164" s="21"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="19">
         <v>6</v>
       </c>
@@ -8768,7 +8760,7 @@
       </c>
       <c r="D165" s="21"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="19">
         <v>7</v>
       </c>
@@ -8780,7 +8772,7 @@
       </c>
       <c r="D166" s="21"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="19">
         <v>7</v>
       </c>
@@ -8792,7 +8784,7 @@
       </c>
       <c r="D167" s="21"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="19">
         <v>7</v>
       </c>
@@ -8804,7 +8796,7 @@
       </c>
       <c r="D168" s="21"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="19">
         <v>7</v>
       </c>
@@ -8816,7 +8808,7 @@
       </c>
       <c r="D169" s="21"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="19">
         <v>7</v>
       </c>
@@ -8828,7 +8820,7 @@
       </c>
       <c r="D170" s="21"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="19">
         <v>7</v>
       </c>
@@ -8840,7 +8832,7 @@
       </c>
       <c r="D171" s="21"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="19">
         <v>7</v>
       </c>
@@ -8852,7 +8844,7 @@
       </c>
       <c r="D172" s="21"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="19">
         <v>7</v>
       </c>
@@ -8864,7 +8856,7 @@
       </c>
       <c r="D173" s="21"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="19">
         <v>7</v>
       </c>
@@ -8876,7 +8868,7 @@
       </c>
       <c r="D174" s="21"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="19">
         <v>7</v>
       </c>
@@ -8888,7 +8880,7 @@
       </c>
       <c r="D175" s="21"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="19">
         <v>7</v>
       </c>
@@ -8900,7 +8892,7 @@
       </c>
       <c r="D176" s="21"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="19">
         <v>7</v>
       </c>
@@ -8912,7 +8904,7 @@
       </c>
       <c r="D177" s="21"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="19">
         <v>7</v>
       </c>
@@ -8924,7 +8916,7 @@
       </c>
       <c r="D178" s="21"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="19">
         <v>7</v>
       </c>
@@ -8936,7 +8928,7 @@
       </c>
       <c r="D179" s="21"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="19">
         <v>7</v>
       </c>
@@ -8948,7 +8940,7 @@
       </c>
       <c r="D180" s="21"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="19">
         <v>7</v>
       </c>
@@ -8960,7 +8952,7 @@
       </c>
       <c r="D181" s="21"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="19">
         <v>7</v>
       </c>
@@ -8972,7 +8964,7 @@
       </c>
       <c r="D182" s="21"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="19">
         <v>7</v>
       </c>
@@ -8984,7 +8976,7 @@
       </c>
       <c r="D183" s="21"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="19">
         <v>7</v>
       </c>
@@ -8996,7 +8988,7 @@
       </c>
       <c r="D184" s="21"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="19">
         <v>7</v>
       </c>
@@ -9008,7 +9000,7 @@
       </c>
       <c r="D185" s="21"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="19">
         <v>7</v>
       </c>
@@ -9020,7 +9012,7 @@
       </c>
       <c r="D186" s="21"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="19">
         <v>7</v>
       </c>
@@ -9032,7 +9024,7 @@
       </c>
       <c r="D187" s="21"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="19">
         <v>7</v>
       </c>
@@ -9044,7 +9036,7 @@
       </c>
       <c r="D188" s="21"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="19">
         <v>7</v>
       </c>
@@ -9056,7 +9048,7 @@
       </c>
       <c r="D189" s="21"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="19">
         <v>8</v>
       </c>
@@ -9068,7 +9060,7 @@
       </c>
       <c r="D190" s="21"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="19">
         <v>8</v>
       </c>
@@ -9080,7 +9072,7 @@
       </c>
       <c r="D191" s="21"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="19">
         <v>8</v>
       </c>
@@ -9092,7 +9084,7 @@
       </c>
       <c r="D192" s="21"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="19">
         <v>8</v>
       </c>
@@ -9104,7 +9096,7 @@
       </c>
       <c r="D193" s="21"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="19">
         <v>8</v>
       </c>
@@ -9116,7 +9108,7 @@
       </c>
       <c r="D194" s="21"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="19">
         <v>8</v>
       </c>
@@ -9128,7 +9120,7 @@
       </c>
       <c r="D195" s="21"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="19">
         <v>8</v>
       </c>
@@ -9140,7 +9132,7 @@
       </c>
       <c r="D196" s="21"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="19">
         <v>8</v>
       </c>
@@ -9152,7 +9144,7 @@
       </c>
       <c r="D197" s="21"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="19">
         <v>8</v>
       </c>
@@ -9164,7 +9156,7 @@
       </c>
       <c r="D198" s="21"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="19">
         <v>8</v>
       </c>
@@ -9176,7 +9168,7 @@
       </c>
       <c r="D199" s="21"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="19">
         <v>8</v>
       </c>
@@ -9188,7 +9180,7 @@
       </c>
       <c r="D200" s="21"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="19">
         <v>8</v>
       </c>
@@ -9200,7 +9192,7 @@
       </c>
       <c r="D201" s="21"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="19">
         <v>8</v>
       </c>
@@ -9212,7 +9204,7 @@
       </c>
       <c r="D202" s="21"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="19">
         <v>8</v>
       </c>
@@ -9224,7 +9216,7 @@
       </c>
       <c r="D203" s="21"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="19">
         <v>8</v>
       </c>
@@ -9236,7 +9228,7 @@
       </c>
       <c r="D204" s="21"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="19">
         <v>8</v>
       </c>
@@ -9248,7 +9240,7 @@
       </c>
       <c r="D205" s="21"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="19">
         <v>8</v>
       </c>
@@ -9260,7 +9252,7 @@
       </c>
       <c r="D206" s="21"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="19">
         <v>8</v>
       </c>
@@ -9272,7 +9264,7 @@
       </c>
       <c r="D207" s="21"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="19">
         <v>8</v>
       </c>
@@ -9284,7 +9276,7 @@
       </c>
       <c r="D208" s="21"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="19">
         <v>8</v>
       </c>
@@ -9296,7 +9288,7 @@
       </c>
       <c r="D209" s="21"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="19">
         <v>8</v>
       </c>
@@ -9308,7 +9300,7 @@
       </c>
       <c r="D210" s="21"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="19">
         <v>8</v>
       </c>
@@ -9320,7 +9312,7 @@
       </c>
       <c r="D211" s="21"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="19">
         <v>8</v>
       </c>
@@ -9332,7 +9324,7 @@
       </c>
       <c r="D212" s="21"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="19">
         <v>8</v>
       </c>
@@ -9344,7 +9336,7 @@
       </c>
       <c r="D213" s="21"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="19">
         <v>9</v>
       </c>
@@ -9356,7 +9348,7 @@
       </c>
       <c r="D214" s="21"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="19">
         <v>9</v>
       </c>
@@ -9368,7 +9360,7 @@
       </c>
       <c r="D215" s="21"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="19">
         <v>9</v>
       </c>
@@ -9380,7 +9372,7 @@
       </c>
       <c r="D216" s="21"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="19">
         <v>9</v>
       </c>
@@ -9392,7 +9384,7 @@
       </c>
       <c r="D217" s="21"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="19">
         <v>9</v>
       </c>
@@ -9404,7 +9396,7 @@
       </c>
       <c r="D218" s="21"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="19">
         <v>9</v>
       </c>
@@ -9416,7 +9408,7 @@
       </c>
       <c r="D219" s="21"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="19">
         <v>9</v>
       </c>
@@ -9428,7 +9420,7 @@
       </c>
       <c r="D220" s="21"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="19">
         <v>9</v>
       </c>
@@ -9440,7 +9432,7 @@
       </c>
       <c r="D221" s="21"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="19">
         <v>9</v>
       </c>
@@ -9452,7 +9444,7 @@
       </c>
       <c r="D222" s="21"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="19">
         <v>9</v>
       </c>
@@ -9464,7 +9456,7 @@
       </c>
       <c r="D223" s="21"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="19">
         <v>9</v>
       </c>
@@ -9476,7 +9468,7 @@
       </c>
       <c r="D224" s="21"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="19">
         <v>9</v>
       </c>
@@ -9488,7 +9480,7 @@
       </c>
       <c r="D225" s="21"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="19">
         <v>9</v>
       </c>
@@ -9500,7 +9492,7 @@
       </c>
       <c r="D226" s="21"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="19">
         <v>9</v>
       </c>
@@ -9512,7 +9504,7 @@
       </c>
       <c r="D227" s="21"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="19">
         <v>9</v>
       </c>
@@ -9524,7 +9516,7 @@
       </c>
       <c r="D228" s="21"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="19">
         <v>9</v>
       </c>
@@ -9536,7 +9528,7 @@
       </c>
       <c r="D229" s="21"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="19">
         <v>9</v>
       </c>
@@ -9548,7 +9540,7 @@
       </c>
       <c r="D230" s="21"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="19">
         <v>9</v>
       </c>
@@ -9560,7 +9552,7 @@
       </c>
       <c r="D231" s="21"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="19">
         <v>9</v>
       </c>
@@ -9572,7 +9564,7 @@
       </c>
       <c r="D232" s="21"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="19">
         <v>9</v>
       </c>
@@ -9584,7 +9576,7 @@
       </c>
       <c r="D233" s="21"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="19">
         <v>9</v>
       </c>
@@ -9596,7 +9588,7 @@
       </c>
       <c r="D234" s="21"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="19">
         <v>9</v>
       </c>
@@ -9608,7 +9600,7 @@
       </c>
       <c r="D235" s="21"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="19">
         <v>9</v>
       </c>
@@ -9620,7 +9612,7 @@
       </c>
       <c r="D236" s="21"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="19">
         <v>9</v>
       </c>
@@ -9632,7 +9624,7 @@
       </c>
       <c r="D237" s="21"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="19">
         <v>10</v>
       </c>
@@ -9644,7 +9636,7 @@
       </c>
       <c r="D238" s="21"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="19">
         <v>10</v>
       </c>
@@ -9656,7 +9648,7 @@
       </c>
       <c r="D239" s="21"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="19">
         <v>10</v>
       </c>
@@ -9668,7 +9660,7 @@
       </c>
       <c r="D240" s="21"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="19">
         <v>10</v>
       </c>
@@ -9680,7 +9672,7 @@
       </c>
       <c r="D241" s="21"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="19">
         <v>10</v>
       </c>
@@ -9692,7 +9684,7 @@
       </c>
       <c r="D242" s="21"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="19">
         <v>10</v>
       </c>
@@ -9704,7 +9696,7 @@
       </c>
       <c r="D243" s="21"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="19">
         <v>10</v>
       </c>
@@ -9716,7 +9708,7 @@
       </c>
       <c r="D244" s="21"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="19">
         <v>10</v>
       </c>
@@ -9728,7 +9720,7 @@
       </c>
       <c r="D245" s="21"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="19">
         <v>10</v>
       </c>
@@ -9740,7 +9732,7 @@
       </c>
       <c r="D246" s="21"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="19">
         <v>10</v>
       </c>
@@ -9752,7 +9744,7 @@
       </c>
       <c r="D247" s="21"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="19">
         <v>10</v>
       </c>
@@ -9764,7 +9756,7 @@
       </c>
       <c r="D248" s="21"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="19">
         <v>10</v>
       </c>
@@ -9776,7 +9768,7 @@
       </c>
       <c r="D249" s="21"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="19">
         <v>10</v>
       </c>
@@ -9788,7 +9780,7 @@
       </c>
       <c r="D250" s="21"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="19">
         <v>10</v>
       </c>
@@ -9800,7 +9792,7 @@
       </c>
       <c r="D251" s="21"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="19">
         <v>10</v>
       </c>
@@ -9812,7 +9804,7 @@
       </c>
       <c r="D252" s="21"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="19">
         <v>10</v>
       </c>
@@ -9824,7 +9816,7 @@
       </c>
       <c r="D253" s="21"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="19">
         <v>10</v>
       </c>
@@ -9836,7 +9828,7 @@
       </c>
       <c r="D254" s="21"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="19">
         <v>10</v>
       </c>
@@ -9848,7 +9840,7 @@
       </c>
       <c r="D255" s="21"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="19">
         <v>10</v>
       </c>
@@ -9860,7 +9852,7 @@
       </c>
       <c r="D256" s="21"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="19">
         <v>10</v>
       </c>
@@ -9872,7 +9864,7 @@
       </c>
       <c r="D257" s="21"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="19">
         <v>10</v>
       </c>
@@ -9884,7 +9876,7 @@
       </c>
       <c r="D258" s="21"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="19">
         <v>10</v>
       </c>
@@ -9896,7 +9888,7 @@
       </c>
       <c r="D259" s="21"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="19">
         <v>10</v>
       </c>
@@ -9908,7 +9900,7 @@
       </c>
       <c r="D260" s="21"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="19">
         <v>10</v>
       </c>
@@ -9920,7 +9912,7 @@
       </c>
       <c r="D261" s="21"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="19">
         <v>11</v>
       </c>
@@ -9932,7 +9924,7 @@
       </c>
       <c r="D262" s="21"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="19">
         <v>11</v>
       </c>
@@ -9944,7 +9936,7 @@
       </c>
       <c r="D263" s="21"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="19">
         <v>11</v>
       </c>
@@ -9956,7 +9948,7 @@
       </c>
       <c r="D264" s="21"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="19">
         <v>11</v>
       </c>
@@ -9968,7 +9960,7 @@
       </c>
       <c r="D265" s="21"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="19">
         <v>11</v>
       </c>
@@ -9980,7 +9972,7 @@
       </c>
       <c r="D266" s="21"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="19">
         <v>11</v>
       </c>
@@ -9992,7 +9984,7 @@
       </c>
       <c r="D267" s="21"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="19">
         <v>11</v>
       </c>
@@ -10004,7 +9996,7 @@
       </c>
       <c r="D268" s="21"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="19">
         <v>11</v>
       </c>
@@ -10016,7 +10008,7 @@
       </c>
       <c r="D269" s="21"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="19">
         <v>11</v>
       </c>
@@ -10028,7 +10020,7 @@
       </c>
       <c r="D270" s="21"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="19">
         <v>11</v>
       </c>
@@ -10040,7 +10032,7 @@
       </c>
       <c r="D271" s="21"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="19">
         <v>11</v>
       </c>
@@ -10052,7 +10044,7 @@
       </c>
       <c r="D272" s="21"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="19">
         <v>11</v>
       </c>
@@ -10064,7 +10056,7 @@
       </c>
       <c r="D273" s="21"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="19">
         <v>11</v>
       </c>
@@ -10076,7 +10068,7 @@
       </c>
       <c r="D274" s="21"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="19">
         <v>11</v>
       </c>
@@ -10088,7 +10080,7 @@
       </c>
       <c r="D275" s="21"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="19">
         <v>11</v>
       </c>
@@ -10100,7 +10092,7 @@
       </c>
       <c r="D276" s="21"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="19">
         <v>11</v>
       </c>
@@ -10112,7 +10104,7 @@
       </c>
       <c r="D277" s="21"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="19">
         <v>11</v>
       </c>
@@ -10124,7 +10116,7 @@
       </c>
       <c r="D278" s="21"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="19">
         <v>11</v>
       </c>
@@ -10136,7 +10128,7 @@
       </c>
       <c r="D279" s="21"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="19">
         <v>11</v>
       </c>
@@ -10148,7 +10140,7 @@
       </c>
       <c r="D280" s="21"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="19">
         <v>11</v>
       </c>
@@ -10160,7 +10152,7 @@
       </c>
       <c r="D281" s="21"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="19">
         <v>11</v>
       </c>
@@ -10172,7 +10164,7 @@
       </c>
       <c r="D282" s="21"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="19">
         <v>11</v>
       </c>
@@ -10184,7 +10176,7 @@
       </c>
       <c r="D283" s="21"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="19">
         <v>11</v>
       </c>
@@ -10196,7 +10188,7 @@
       </c>
       <c r="D284" s="21"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="19">
         <v>11</v>
       </c>
@@ -10208,7 +10200,7 @@
       </c>
       <c r="D285" s="21"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="19">
         <v>12</v>
       </c>
@@ -10220,7 +10212,7 @@
       </c>
       <c r="D286" s="21"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="19">
         <v>12</v>
       </c>
@@ -10232,7 +10224,7 @@
       </c>
       <c r="D287" s="21"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="19">
         <v>12</v>
       </c>
@@ -10244,7 +10236,7 @@
       </c>
       <c r="D288" s="21"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="19">
         <v>12</v>
       </c>
@@ -10256,7 +10248,7 @@
       </c>
       <c r="D289" s="21"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="19">
         <v>12</v>
       </c>
@@ -10268,7 +10260,7 @@
       </c>
       <c r="D290" s="21"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="19">
         <v>12</v>
       </c>
@@ -10280,7 +10272,7 @@
       </c>
       <c r="D291" s="21"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="19">
         <v>12</v>
       </c>
@@ -10292,7 +10284,7 @@
       </c>
       <c r="D292" s="21"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="19">
         <v>12</v>
       </c>
@@ -10304,7 +10296,7 @@
       </c>
       <c r="D293" s="21"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="19">
         <v>12</v>
       </c>
@@ -10316,7 +10308,7 @@
       </c>
       <c r="D294" s="21"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="19">
         <v>12</v>
       </c>
@@ -10328,7 +10320,7 @@
       </c>
       <c r="D295" s="21"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="19">
         <v>12</v>
       </c>
@@ -10340,7 +10332,7 @@
       </c>
       <c r="D296" s="21"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="19">
         <v>12</v>
       </c>
@@ -10352,7 +10344,7 @@
       </c>
       <c r="D297" s="21"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="19">
         <v>12</v>
       </c>
@@ -10364,7 +10356,7 @@
       </c>
       <c r="D298" s="21"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="19">
         <v>12</v>
       </c>
@@ -10376,7 +10368,7 @@
       </c>
       <c r="D299" s="21"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="19">
         <v>12</v>
       </c>
@@ -10388,7 +10380,7 @@
       </c>
       <c r="D300" s="21"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="19">
         <v>12</v>
       </c>
@@ -10400,7 +10392,7 @@
       </c>
       <c r="D301" s="21"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="19">
         <v>12</v>
       </c>
@@ -10412,7 +10404,7 @@
       </c>
       <c r="D302" s="21"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="19">
         <v>12</v>
       </c>
@@ -10424,7 +10416,7 @@
       </c>
       <c r="D303" s="21"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="19">
         <v>12</v>
       </c>
@@ -10436,7 +10428,7 @@
       </c>
       <c r="D304" s="21"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="19">
         <v>12</v>
       </c>
@@ -10448,7 +10440,7 @@
       </c>
       <c r="D305" s="21"/>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="19">
         <v>12</v>
       </c>
@@ -10460,7 +10452,7 @@
       </c>
       <c r="D306" s="21"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="19">
         <v>12</v>
       </c>
@@ -10472,7 +10464,7 @@
       </c>
       <c r="D307" s="21"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="19">
         <v>12</v>
       </c>
@@ -10484,7 +10476,7 @@
       </c>
       <c r="D308" s="21"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="19">
         <v>12</v>
       </c>
@@ -10506,22 +10498,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DB8147-C519-5348-8792-752E0D8AD16E}">
   <dimension ref="B2:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="E21" zoomScale="99" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
-    <col min="4" max="8" width="14.83203125" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="11" width="24.83203125" customWidth="1"/>
-    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="11" width="24.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="102"/>
       <c r="C2" s="108"/>
       <c r="D2" s="52"/>
@@ -10534,7 +10526,7 @@
       <c r="K2" s="52"/>
       <c r="L2" s="53"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="103"/>
       <c r="C3" s="12"/>
       <c r="D3" s="55"/>
@@ -10546,42 +10538,42 @@
       <c r="J3" s="54"/>
       <c r="L3" s="66"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="103"/>
       <c r="C4" s="12"/>
       <c r="H4" s="57"/>
       <c r="J4" s="54"/>
       <c r="L4" s="57"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="103"/>
       <c r="C5" s="12"/>
       <c r="H5" s="57"/>
       <c r="J5" s="54"/>
       <c r="L5" s="57"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="103"/>
       <c r="C6" s="12"/>
       <c r="H6" s="57"/>
       <c r="J6" s="54"/>
       <c r="L6" s="57"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="103"/>
       <c r="C7" s="12"/>
       <c r="H7" s="57"/>
       <c r="J7" s="54"/>
       <c r="L7" s="57"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="103"/>
       <c r="C8" s="12"/>
       <c r="H8" s="57"/>
       <c r="J8" s="54"/>
       <c r="L8" s="57"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="103"/>
       <c r="C9" s="12"/>
       <c r="D9" s="58"/>
@@ -10594,7 +10586,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="70"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="103"/>
       <c r="C10" s="12"/>
       <c r="D10" s="92"/>
@@ -10607,7 +10599,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="98"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="103"/>
       <c r="C11" s="12"/>
       <c r="D11" s="92"/>
@@ -10620,7 +10612,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="98"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="103"/>
       <c r="C12" s="12"/>
       <c r="D12" s="92"/>
@@ -10633,7 +10625,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="98"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="103"/>
       <c r="C13" s="12"/>
       <c r="D13" s="92"/>
@@ -10646,7 +10638,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="70"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="104"/>
       <c r="C14" s="12"/>
       <c r="D14" s="94"/>
@@ -10659,7 +10651,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="70"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="105"/>
       <c r="C15" s="12"/>
       <c r="D15" s="94"/>
@@ -10671,7 +10663,7 @@
       <c r="J15" s="67"/>
       <c r="L15" s="101"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="106"/>
       <c r="C16" s="12"/>
       <c r="D16" s="101"/>
@@ -10683,7 +10675,7 @@
       <c r="J16" s="67"/>
       <c r="L16" s="91"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="107"/>
       <c r="C17" s="109"/>
       <c r="D17" s="96"/>
@@ -10696,7 +10688,7 @@
       <c r="L17" s="99"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="105"/>
       <c r="C18" s="12"/>
       <c r="D18" s="94"/>
@@ -10707,7 +10699,7 @@
       <c r="J18" s="68"/>
       <c r="L18" s="99"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="94"/>
@@ -10718,7 +10710,7 @@
       <c r="J19" s="69"/>
       <c r="L19" s="70"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="103"/>
       <c r="C20" s="12"/>
       <c r="D20" s="94"/>
@@ -10730,7 +10722,7 @@
       <c r="K20" s="72"/>
       <c r="L20" s="100"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="94"/>
@@ -10740,44 +10732,44 @@
       <c r="H21" s="95"/>
       <c r="L21" s="90"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L22" s="90"/>
     </row>
-    <row r="24" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="117" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="118" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="116" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="116" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="116" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="116" t="s">
+        <v>192</v>
+      </c>
+      <c r="H24" s="116" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" s="117" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" s="118" t="s">
+        <v>175</v>
+      </c>
+      <c r="L24" s="121" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="C24" s="118" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="116" t="s">
-        <v>190</v>
-      </c>
-      <c r="E24" s="116" t="s">
-        <v>191</v>
-      </c>
-      <c r="F24" s="116" t="s">
-        <v>192</v>
-      </c>
-      <c r="G24" s="116" t="s">
-        <v>193</v>
-      </c>
-      <c r="H24" s="116" t="s">
-        <v>194</v>
-      </c>
-      <c r="J24" s="117" t="s">
-        <v>177</v>
-      </c>
-      <c r="K24" s="118" t="s">
-        <v>176</v>
-      </c>
-      <c r="L24" s="121" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="B25" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="C25" s="119"/>
       <c r="D25" s="111" t="s">
@@ -10795,17 +10787,17 @@
       <c r="H25" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="122" t="s">
-        <v>178</v>
-      </c>
-      <c r="K25" s="122"/>
+      <c r="J25" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="119"/>
       <c r="L25" s="116" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="104" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C26" s="119"/>
       <c r="D26" s="3" t="s">
@@ -10823,73 +10815,73 @@
       <c r="H26" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="122" t="s">
-        <v>180</v>
-      </c>
-      <c r="K26" s="122"/>
-      <c r="L26" s="123" t="s">
+      <c r="J26" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="119"/>
+      <c r="L26" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="104" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" s="119"/>
       <c r="D27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J27" s="122" t="s">
-        <v>179</v>
-      </c>
-      <c r="K27" s="122"/>
-      <c r="L27" s="123" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="119" t="s">
+        <v>178</v>
+      </c>
+      <c r="K27" s="119"/>
+      <c r="L27" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="104" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C28" s="119"/>
       <c r="D28" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H28" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="122" t="s">
-        <v>199</v>
-      </c>
-      <c r="K28" s="122"/>
-      <c r="L28" s="123" t="s">
+      <c r="J28" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" s="119"/>
+      <c r="L28" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="120" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C29" s="119"/>
       <c r="D29" s="114">
@@ -10907,54 +10899,54 @@
       <c r="H29" s="114">
         <v>0.05</v>
       </c>
-      <c r="J29" s="122" t="s">
+      <c r="J29" s="119" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="122" t="s">
         <v>200</v>
       </c>
-      <c r="K29" s="124" t="s">
-        <v>201</v>
-      </c>
-      <c r="L29" s="125">
+      <c r="L29" s="123">
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="104" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C30" s="119" t="s">
         <v>43</v>
       </c>
       <c r="D30" s="115">
-        <v>1300</v>
+        <v>1120</v>
       </c>
       <c r="E30" s="115">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="F30" s="115">
         <v>0</v>
       </c>
       <c r="G30" s="115">
-        <v>1300</v>
+        <v>1120</v>
       </c>
       <c r="H30" s="115">
-        <v>2200</v>
-      </c>
-      <c r="J30" s="122" t="s">
-        <v>189</v>
-      </c>
-      <c r="K30" s="122" t="s">
-        <v>202</v>
-      </c>
-      <c r="L30" s="126">
+        <v>2500</v>
+      </c>
+      <c r="J30" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" s="119" t="s">
+        <v>201</v>
+      </c>
+      <c r="L30" s="124">
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="104" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" s="119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="115">
         <v>0</v>
@@ -10971,17 +10963,17 @@
       <c r="H31" s="115">
         <v>0</v>
       </c>
-      <c r="J31" s="127" t="s">
-        <v>186</v>
-      </c>
-      <c r="K31" s="122"/>
-      <c r="L31" s="128">
+      <c r="J31" s="125" t="s">
+        <v>185</v>
+      </c>
+      <c r="K31" s="119"/>
+      <c r="L31" s="126">
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="104" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C32" s="119" t="s">
         <v>40</v>
@@ -11001,22 +10993,22 @@
       <c r="H32" s="115">
         <v>45000</v>
       </c>
-      <c r="J32" s="122" t="s">
-        <v>156</v>
-      </c>
-      <c r="K32" s="124" t="s">
+      <c r="J32" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="K32" s="122" t="s">
         <v>36</v>
       </c>
       <c r="L32" s="110">
         <v>45000000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="119" t="s">
         <v>184</v>
-      </c>
-      <c r="C33" s="119" t="s">
-        <v>185</v>
       </c>
       <c r="D33" s="115">
         <v>2</v>
@@ -11033,22 +11025,22 @@
       <c r="H33" s="115">
         <v>1</v>
       </c>
-      <c r="J33" s="122" t="s">
-        <v>203</v>
-      </c>
-      <c r="K33" s="124" t="s">
+      <c r="J33" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="K33" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" s="110">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="L33" s="110">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="120" t="s">
-        <v>207</v>
-      </c>
       <c r="C34" s="119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="115">
         <v>4</v>
@@ -11065,22 +11057,22 @@
       <c r="H34" s="115">
         <v>8</v>
       </c>
-      <c r="J34" s="122" t="s">
-        <v>204</v>
-      </c>
-      <c r="K34" s="124" t="s">
+      <c r="J34" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="K34" s="122" t="s">
         <v>40</v>
       </c>
       <c r="L34" s="110">
         <v>1500</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="120" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C35" s="119" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="115">
         <v>2</v>
@@ -11097,22 +11089,22 @@
       <c r="H35" s="115">
         <v>0</v>
       </c>
-      <c r="J35" s="122" t="s">
-        <v>130</v>
-      </c>
-      <c r="K35" s="122" t="s">
-        <v>52</v>
-      </c>
-      <c r="L35" s="125">
+      <c r="J35" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="K35" s="119" t="s">
+        <v>51</v>
+      </c>
+      <c r="L35" s="123">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="119" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C36" s="119" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="115">
         <v>0</v>
@@ -11129,19 +11121,19 @@
       <c r="H36" s="115">
         <v>10</v>
       </c>
-      <c r="J36" s="122" t="s">
+      <c r="J36" s="119" t="s">
+        <v>183</v>
+      </c>
+      <c r="K36" s="119" t="s">
         <v>184</v>
       </c>
-      <c r="K36" s="122" t="s">
-        <v>185</v>
-      </c>
-      <c r="L36" s="126">
+      <c r="L36" s="124">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="119" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C37" s="119" t="s">
         <v>40</v>
@@ -11161,37 +11153,37 @@
       <c r="H37" s="115">
         <v>6000</v>
       </c>
-      <c r="J37" s="127" t="s">
-        <v>207</v>
-      </c>
-      <c r="K37" s="122" t="s">
-        <v>56</v>
-      </c>
-      <c r="L37" s="126">
+      <c r="J37" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" s="119" t="s">
+        <v>55</v>
+      </c>
+      <c r="L37" s="124">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J38" s="124" t="s">
-        <v>206</v>
-      </c>
-      <c r="K38" s="122"/>
-      <c r="L38" s="128">
+    <row r="38" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="122" t="s">
+        <v>204</v>
+      </c>
+      <c r="K38" s="119"/>
+      <c r="L38" s="126">
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J39" s="122" t="s">
-        <v>188</v>
-      </c>
-      <c r="K39" s="122" t="s">
-        <v>71</v>
-      </c>
-      <c r="L39" s="126">
+    <row r="39" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="119" t="s">
+        <v>187</v>
+      </c>
+      <c r="K39" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="L39" s="124">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="51" t="s">
         <v>0</v>
       </c>
@@ -11214,7 +11206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B41" s="54" t="s">
         <v>10</v>
       </c>
@@ -11234,7 +11226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="54" t="s">
         <v>17</v>
       </c>
@@ -11254,7 +11246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="54" t="s">
         <v>20</v>
       </c>
@@ -11274,7 +11266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="54" t="s">
         <v>24</v>
       </c>
@@ -11294,7 +11286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="54" t="s">
         <v>27</v>
       </c>
@@ -11314,7 +11306,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="54" t="s">
         <v>30</v>
       </c>
@@ -11334,7 +11326,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="54" t="s">
         <v>35</v>
       </c>
@@ -11357,7 +11349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="54" t="s">
         <v>39</v>
       </c>
@@ -11380,7 +11372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="54" t="s">
         <v>42</v>
       </c>
@@ -11403,12 +11395,12 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
         <v>46</v>
-      </c>
-      <c r="C50" t="s">
-        <v>47</v>
       </c>
       <c r="D50" s="92">
         <v>0</v>
@@ -11426,9 +11418,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
         <v>40</v>
@@ -11449,12 +11441,12 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
         <v>53</v>
-      </c>
-      <c r="C52" t="s">
-        <v>54</v>
       </c>
       <c r="D52" s="94">
         <v>2</v>
@@ -11472,12 +11464,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" t="s">
         <v>57</v>
-      </c>
-      <c r="C53" t="s">
-        <v>58</v>
       </c>
       <c r="D53" s="94">
         <v>4</v>
@@ -11495,9 +11487,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D54" s="101">
         <v>0.05</v>
@@ -11515,13 +11507,13 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="D55" s="94">
         <v>0</v>
       </c>
@@ -11538,35 +11530,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="65" t="s">
+      <c r="D56" s="96">
+        <v>0</v>
+      </c>
+      <c r="E56" s="96">
+        <v>0</v>
+      </c>
+      <c r="F56" s="96">
+        <v>0</v>
+      </c>
+      <c r="G56" s="96">
+        <v>0</v>
+      </c>
+      <c r="H56" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="96">
-        <v>0</v>
-      </c>
-      <c r="E56" s="96">
-        <v>0</v>
-      </c>
-      <c r="F56" s="96">
-        <v>0</v>
-      </c>
-      <c r="G56" s="96">
-        <v>0</v>
-      </c>
-      <c r="H56" s="97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B57" s="62" t="s">
+      <c r="C57" t="s">
         <v>67</v>
-      </c>
-      <c r="C57" t="s">
-        <v>68</v>
       </c>
       <c r="D57" s="94">
         <v>2</v>
@@ -11584,12 +11576,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" t="s">
         <v>70</v>
-      </c>
-      <c r="C58" t="s">
-        <v>71</v>
       </c>
       <c r="D58" s="94">
         <v>0</v>
@@ -11607,7 +11599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="67" t="s">
         <v>37</v>
       </c>
@@ -11627,9 +11619,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
         <v>40</v>
@@ -11650,7 +11642,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="51" t="s">
         <v>0</v>
       </c>
@@ -11673,7 +11665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B64" s="54" t="s">
         <v>10</v>
       </c>
@@ -11693,7 +11685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="54" t="s">
         <v>17</v>
       </c>
@@ -11713,7 +11705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="54" t="s">
         <v>20</v>
       </c>
@@ -11733,7 +11725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="54" t="s">
         <v>24</v>
       </c>
@@ -11753,7 +11745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="54" t="s">
         <v>27</v>
       </c>
@@ -11773,7 +11765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="54" t="s">
         <v>30</v>
       </c>
@@ -11793,7 +11785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="54" t="s">
         <v>35</v>
       </c>
@@ -11816,7 +11808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="54" t="s">
         <v>39</v>
       </c>
@@ -11839,7 +11831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="54" t="s">
         <v>42</v>
       </c>
@@ -11862,12 +11854,12 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" t="s">
         <v>46</v>
-      </c>
-      <c r="C73" t="s">
-        <v>47</v>
       </c>
       <c r="D73" s="92">
         <v>0</v>
@@ -11885,9 +11877,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C74" t="s">
         <v>40</v>
@@ -11908,12 +11900,12 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" t="s">
         <v>53</v>
-      </c>
-      <c r="C75" t="s">
-        <v>54</v>
       </c>
       <c r="D75" s="94">
         <v>2</v>
@@ -11931,12 +11923,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" t="s">
         <v>57</v>
-      </c>
-      <c r="C76" t="s">
-        <v>58</v>
       </c>
       <c r="D76" s="94">
         <v>4</v>
@@ -11954,9 +11946,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D77" s="101">
         <v>0.05</v>
@@ -11974,13 +11966,13 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="D78" s="94">
         <v>0</v>
       </c>
@@ -11997,35 +11989,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C79" s="65" t="s">
+      <c r="D79" s="96">
+        <v>0</v>
+      </c>
+      <c r="E79" s="96">
+        <v>0</v>
+      </c>
+      <c r="F79" s="96">
+        <v>0</v>
+      </c>
+      <c r="G79" s="96">
+        <v>0</v>
+      </c>
+      <c r="H79" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D79" s="96">
-        <v>0</v>
-      </c>
-      <c r="E79" s="96">
-        <v>0</v>
-      </c>
-      <c r="F79" s="96">
-        <v>0</v>
-      </c>
-      <c r="G79" s="96">
-        <v>0</v>
-      </c>
-      <c r="H79" s="97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B80" s="62" t="s">
+      <c r="C80" t="s">
         <v>67</v>
-      </c>
-      <c r="C80" t="s">
-        <v>68</v>
       </c>
       <c r="D80" s="94">
         <v>2</v>
@@ -12043,12 +12035,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" t="s">
         <v>70</v>
-      </c>
-      <c r="C81" t="s">
-        <v>71</v>
       </c>
       <c r="D81" s="94">
         <v>0</v>
@@ -12066,7 +12058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="67" t="s">
         <v>37</v>
       </c>
@@ -12086,9 +12078,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C83" t="s">
         <v>40</v>
@@ -12109,7 +12101,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="51" t="s">
         <v>0</v>
       </c>
@@ -12132,7 +12124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B87" s="54" t="s">
         <v>10</v>
       </c>
@@ -12152,7 +12144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="54" t="s">
         <v>17</v>
       </c>
@@ -12172,7 +12164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="54" t="s">
         <v>20</v>
       </c>
@@ -12192,7 +12184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="54" t="s">
         <v>24</v>
       </c>
@@ -12212,7 +12204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="54" t="s">
         <v>27</v>
       </c>
@@ -12232,7 +12224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="54" t="s">
         <v>30</v>
       </c>
@@ -12252,7 +12244,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="54" t="s">
         <v>35</v>
       </c>
@@ -12275,7 +12267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="54" t="s">
         <v>39</v>
       </c>
@@ -12298,7 +12290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="54" t="s">
         <v>42</v>
       </c>
@@ -12321,12 +12313,12 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" t="s">
         <v>46</v>
-      </c>
-      <c r="C96" t="s">
-        <v>47</v>
       </c>
       <c r="D96" s="92">
         <v>0</v>
@@ -12344,9 +12336,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C97" t="s">
         <v>40</v>
@@ -12367,12 +12359,12 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" t="s">
         <v>53</v>
-      </c>
-      <c r="C98" t="s">
-        <v>54</v>
       </c>
       <c r="D98" s="94">
         <v>2</v>
@@ -12390,12 +12382,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" t="s">
         <v>57</v>
-      </c>
-      <c r="C99" t="s">
-        <v>58</v>
       </c>
       <c r="D99" s="94">
         <v>4</v>
@@ -12413,9 +12405,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D100" s="101">
         <v>0.05</v>
@@ -12433,13 +12425,13 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C101" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="D101" s="94">
         <v>0</v>
       </c>
@@ -12456,35 +12448,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C102" s="65" t="s">
+      <c r="D102" s="96">
+        <v>0</v>
+      </c>
+      <c r="E102" s="96">
+        <v>0</v>
+      </c>
+      <c r="F102" s="96">
+        <v>0</v>
+      </c>
+      <c r="G102" s="96">
+        <v>0</v>
+      </c>
+      <c r="H102" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D102" s="96">
-        <v>0</v>
-      </c>
-      <c r="E102" s="96">
-        <v>0</v>
-      </c>
-      <c r="F102" s="96">
-        <v>0</v>
-      </c>
-      <c r="G102" s="96">
-        <v>0</v>
-      </c>
-      <c r="H102" s="97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B103" s="62" t="s">
+      <c r="C103" t="s">
         <v>67</v>
-      </c>
-      <c r="C103" t="s">
-        <v>68</v>
       </c>
       <c r="D103" s="94">
         <v>2</v>
@@ -12502,12 +12494,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
+        <v>69</v>
+      </c>
+      <c r="C104" t="s">
         <v>70</v>
-      </c>
-      <c r="C104" t="s">
-        <v>71</v>
       </c>
       <c r="D104" s="94">
         <v>0</v>
@@ -12525,7 +12517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="67" t="s">
         <v>37</v>
       </c>
@@ -12545,9 +12537,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C106" t="s">
         <v>40</v>
@@ -12568,112 +12560,112 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E110" s="52"/>
       <c r="F110" s="52"/>
       <c r="G110" s="52"/>
       <c r="H110" s="53"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E111" s="55"/>
       <c r="F111" s="55"/>
       <c r="G111" s="55"/>
       <c r="H111" s="56"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H112" s="57"/>
     </row>
-    <row r="113" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H113" s="57"/>
     </row>
-    <row r="114" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H114" s="57"/>
     </row>
-    <row r="115" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H115" s="57"/>
     </row>
-    <row r="116" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H116" s="57"/>
     </row>
-    <row r="117" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E117" s="58"/>
       <c r="F117" s="58"/>
       <c r="G117" s="58"/>
       <c r="H117" s="59"/>
     </row>
-    <row r="118" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E118" s="92"/>
       <c r="F118" s="92"/>
       <c r="G118" s="92"/>
       <c r="H118" s="93"/>
     </row>
-    <row r="119" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E119" s="92"/>
       <c r="F119" s="92"/>
       <c r="G119" s="92"/>
       <c r="H119" s="93"/>
     </row>
-    <row r="120" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E120" s="92"/>
       <c r="F120" s="92"/>
       <c r="G120" s="92"/>
       <c r="H120" s="93"/>
     </row>
-    <row r="121" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E121" s="92"/>
       <c r="F121" s="92"/>
       <c r="G121" s="92"/>
       <c r="H121" s="93"/>
     </row>
-    <row r="122" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E122" s="94"/>
       <c r="F122" s="94"/>
       <c r="G122" s="94"/>
       <c r="H122" s="95"/>
     </row>
-    <row r="123" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E123" s="94"/>
       <c r="F123" s="94"/>
       <c r="G123" s="94"/>
       <c r="H123" s="95"/>
     </row>
-    <row r="124" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E124" s="101"/>
       <c r="F124" s="101"/>
       <c r="G124" s="101"/>
       <c r="H124" s="101"/>
     </row>
-    <row r="125" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E125" s="94"/>
       <c r="F125" s="94"/>
       <c r="G125" s="94"/>
       <c r="H125" s="95"/>
     </row>
-    <row r="126" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E126" s="96"/>
       <c r="F126" s="96"/>
       <c r="G126" s="96"/>
       <c r="H126" s="97"/>
     </row>
-    <row r="127" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E127" s="94"/>
       <c r="F127" s="94"/>
       <c r="G127" s="94"/>
       <c r="H127" s="95"/>
     </row>
-    <row r="128" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E128" s="94"/>
       <c r="F128" s="94"/>
       <c r="G128" s="94"/>
       <c r="H128" s="95"/>
     </row>
-    <row r="129" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E129" s="94"/>
       <c r="F129" s="94"/>
       <c r="G129" s="94"/>
       <c r="H129" s="95"/>
     </row>
-    <row r="130" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E130" s="94"/>
       <c r="F130" s="94"/>
       <c r="G130" s="94"/>

--- a/data/input_data.xlsx
+++ b/data/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevWork\EEM-2\EEM-2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mustafacressive.com/Personal/KPWS/EEMv2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD6BBAB-FEEC-41B2-B8CD-67BEB18D4D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97009F02-5A2D-DD49-8911-EA894F65D938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="src" sheetId="10" r:id="rId1"/>
@@ -809,7 +809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -912,6 +912,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -924,7 +1004,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1174,19 +1254,7 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1200,9 +1268,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1222,6 +1287,57 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Bad" xfId="7" builtinId="27"/>
@@ -1231,10 +1347,56 @@
     <cellStyle name="Comma 4" xfId="6" xr:uid="{D5A4242B-509E-4D2E-81AD-417CF0F2EB3A}"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="5" xr:uid="{0F634CA9-310C-492D-92C5-B0307AB554B9}"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1" tint="0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1272,32 +1434,6 @@
         <scheme val="minor"/>
       </font>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1353,29 +1489,29 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9EAA21EB-E27B-9C46-8C7B-3660DD908D03}" name="Attribute" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{913A1F11-746C-8D42-8994-DFB62036DFD7}" name="Unit" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{26EBABE7-C7E6-9B4A-A556-8A8346231D26}" name="Source Type 1" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{CD320B3E-E051-8D4C-B138-1C468F56B8D9}" name="Source Type 2" dataDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{BE9352AE-6AC9-A242-B347-679B5261A0E8}" name="Source Type 3" dataDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{56674598-5A56-9D44-A0E7-E2770772FBF4}" name="Source Type 4" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{4FD08785-2A70-3946-9986-711F60CCECB9}" name="Source Type 5" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{9EAA21EB-E27B-9C46-8C7B-3660DD908D03}" name="Attribute" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{913A1F11-746C-8D42-8994-DFB62036DFD7}" name="Unit" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{26EBABE7-C7E6-9B4A-A556-8A8346231D26}" name="Source Type 1" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{CD320B3E-E051-8D4C-B138-1C468F56B8D9}" name="Source Type 2" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{BE9352AE-6AC9-A242-B347-679B5261A0E8}" name="Source Type 3" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{56674598-5A56-9D44-A0E7-E2770772FBF4}" name="Source Type 4" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{4FD08785-2A70-3946-9986-711F60CCECB9}" name="Source Type 5" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{93AF1ACF-555D-5B40-90B6-A3FA3B1D0812}" name="Table2" displayName="Table2" ref="J24:L39" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{93AF1ACF-555D-5B40-90B6-A3FA3B1D0812}" name="Table2" displayName="Table2" ref="J24:L39" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="J24:L39" xr:uid="{93AF1ACF-555D-5B40-90B6-A3FA3B1D0812}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{62ADC2DD-B3A8-494D-AD58-FF99479B05ED}" name="Attribute" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{DD63DB1D-4D9D-FF4C-BFFD-10374C54C754}" name="Unit" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{419035B5-AE1F-F645-97FE-F75F929AF296}" name="Source Type 6" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{62ADC2DD-B3A8-494D-AD58-FF99479B05ED}" name="Attribute" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{DD63DB1D-4D9D-FF4C-BFFD-10374C54C754}" name="Unit" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{419035B5-AE1F-F645-97FE-F75F929AF296}" name="Source Type 6" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1646,20 +1782,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C560C09F-AE50-47AF-9672-D0EBBBFD54D2}">
   <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="99" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="99" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="28" customWidth="1"/>
-    <col min="4" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="4" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
@@ -1692,7 +1828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="54" t="s">
         <v>10</v>
       </c>
@@ -1719,7 +1855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
@@ -1745,7 +1881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="54" t="s">
         <v>20</v>
       </c>
@@ -1771,7 +1907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="54" t="s">
         <v>24</v>
       </c>
@@ -1797,7 +1933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="54" t="s">
         <v>27</v>
       </c>
@@ -1823,7 +1959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="54" t="s">
         <v>30</v>
       </c>
@@ -1849,7 +1985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="54" t="s">
         <v>35</v>
       </c>
@@ -1882,7 +2018,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="54" t="s">
         <v>39</v>
       </c>
@@ -1915,7 +2051,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="54" t="s">
         <v>42</v>
       </c>
@@ -1948,7 +2084,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="54" t="s">
         <v>45</v>
       </c>
@@ -1981,7 +2117,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="54" t="s">
         <v>49</v>
       </c>
@@ -2014,7 +2150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="60" t="s">
         <v>52</v>
       </c>
@@ -2047,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="62" t="s">
         <v>56</v>
       </c>
@@ -2077,7 +2213,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="63" t="s">
         <v>58</v>
       </c>
@@ -2107,7 +2243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="62" t="s">
         <v>61</v>
       </c>
@@ -2141,7 +2277,7 @@
       </c>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="64" t="s">
         <v>64</v>
       </c>
@@ -2175,7 +2311,7 @@
       </c>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="62" t="s">
         <v>66</v>
       </c>
@@ -2207,7 +2343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>69</v>
       </c>
@@ -2239,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="67" t="s">
         <v>37</v>
       </c>
@@ -2268,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>72</v>
       </c>
@@ -2300,7 +2436,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="J23" t="s">
         <v>69</v>
       </c>
@@ -2325,15 +2461,15 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="10" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="5" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>74</v>
       </c>
@@ -2345,7 +2481,7 @@
       <c r="E2" s="73"/>
       <c r="F2" s="74"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
         <v>76</v>
       </c>
@@ -2367,7 +2503,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="86">
         <v>1</v>
       </c>
@@ -2393,7 +2529,7 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="86">
         <v>2</v>
       </c>
@@ -2418,7 +2554,7 @@
       <c r="J5" s="17"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="86">
         <v>3</v>
       </c>
@@ -2443,7 +2579,7 @@
       <c r="J6" s="17"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="86">
         <v>4</v>
       </c>
@@ -2458,7 +2594,7 @@
       <c r="G7" s="17"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="86">
         <v>5</v>
       </c>
@@ -2473,7 +2609,7 @@
       <c r="G8" s="17"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="86">
         <v>6</v>
       </c>
@@ -2488,7 +2624,7 @@
       <c r="G9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="86">
         <v>7</v>
       </c>
@@ -2503,7 +2639,7 @@
       <c r="G10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="86">
         <v>8</v>
       </c>
@@ -2520,7 +2656,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="86">
         <v>9</v>
       </c>
@@ -2537,7 +2673,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="86">
         <v>10</v>
       </c>
@@ -2554,7 +2690,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="86">
         <v>11</v>
       </c>
@@ -2567,7 +2703,7 @@
       <c r="D14" s="54"/>
       <c r="F14" s="57"/>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="86">
         <v>12</v>
       </c>
@@ -2580,7 +2716,7 @@
       <c r="D15" s="54"/>
       <c r="F15" s="57"/>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="79"/>
       <c r="B16" s="88"/>
       <c r="C16" s="89"/>
@@ -2592,11 +2728,11 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D19" s="17"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -2606,7 +2742,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="28"/>
@@ -2616,7 +2752,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="28"/>
@@ -2626,7 +2762,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="28"/>
@@ -2636,7 +2772,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="28"/>
@@ -2646,7 +2782,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="28"/>
@@ -2656,7 +2792,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="28"/>
@@ -2666,7 +2802,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="28"/>
@@ -2676,7 +2812,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="28"/>
@@ -2686,7 +2822,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="28"/>
@@ -2696,7 +2832,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="28"/>
@@ -2706,7 +2842,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
     </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="28"/>
@@ -2716,7 +2852,7 @@
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
     </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="28"/>
@@ -2740,16 +2876,16 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>86</v>
       </c>
@@ -2763,7 +2899,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>90</v>
       </c>
@@ -2773,7 +2909,7 @@
       </c>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>92</v>
       </c>
@@ -2782,7 +2918,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>93</v>
       </c>
@@ -2796,7 +2932,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>96</v>
       </c>
@@ -2808,7 +2944,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>97</v>
       </c>
@@ -2819,7 +2955,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>98</v>
       </c>
@@ -2829,7 +2965,7 @@
       </c>
       <c r="D8" s="34"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>99</v>
       </c>
@@ -2839,7 +2975,7 @@
       </c>
       <c r="D9" s="35"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>100</v>
       </c>
@@ -2854,7 +2990,7 @@
       </c>
       <c r="F10" s="35"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>101</v>
       </c>
@@ -2866,7 +3002,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>102</v>
       </c>
@@ -2877,7 +3013,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
         <v>103</v>
       </c>
@@ -2887,7 +3023,7 @@
       </c>
       <c r="D13" s="34"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
         <v>105</v>
       </c>
@@ -2896,7 +3032,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>106</v>
       </c>
@@ -2910,7 +3046,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>107</v>
       </c>
@@ -2919,7 +3055,7 @@
       </c>
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>108</v>
       </c>
@@ -2930,7 +3066,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>109</v>
       </c>
@@ -2942,7 +3078,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>110</v>
       </c>
@@ -2951,7 +3087,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>111</v>
       </c>
@@ -2963,7 +3099,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>112</v>
       </c>
@@ -2972,7 +3108,7 @@
       </c>
       <c r="C21" s="31"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>113</v>
       </c>
@@ -2983,7 +3119,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
         <v>114</v>
       </c>
@@ -2993,7 +3129,7 @@
       </c>
       <c r="D23" s="34"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>115</v>
       </c>
@@ -3002,7 +3138,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>117</v>
       </c>
@@ -3016,7 +3152,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>118</v>
       </c>
@@ -3025,7 +3161,7 @@
       </c>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>119</v>
       </c>
@@ -3036,7 +3172,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
         <v>120</v>
       </c>
@@ -3046,7 +3182,7 @@
       </c>
       <c r="D28" s="34"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
         <v>122</v>
       </c>
@@ -3055,7 +3191,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>123</v>
       </c>
@@ -3069,7 +3205,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>125</v>
       </c>
@@ -3078,7 +3214,7 @@
       </c>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>126</v>
       </c>
@@ -3102,29 +3238,29 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>127</v>
       </c>
@@ -3189,7 +3325,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>360000000</v>
       </c>
@@ -3252,7 +3388,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>148</v>
       </c>
@@ -3276,7 +3412,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -3287,7 +3423,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -3299,7 +3435,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -3311,7 +3447,7 @@
         <v>7.6666666666666675E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -3323,7 +3459,7 @@
         <v>7.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -3335,7 +3471,7 @@
         <v>9.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -3347,7 +3483,7 @@
         <v>0.10666666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -3359,7 +3495,7 @@
         <v>9.9999999999999992E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -3371,7 +3507,7 @@
         <v>9.8333333333333328E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -3383,7 +3519,7 @@
         <v>8.9166666666666672E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -3395,7 +3531,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -3407,7 +3543,7 @@
         <v>6.8333333333333329E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -3419,7 +3555,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -3431,7 +3567,7 @@
         <v>7.166666666666667E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>150</v>
       </c>
@@ -3442,7 +3578,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>1</v>
       </c>
@@ -3453,7 +3589,7 @@
         <v>7.0064119192243659</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>1</v>
       </c>
@@ -3464,7 +3600,7 @@
         <v>7.214523164349842</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>1</v>
       </c>
@@ -3475,7 +3611,7 @@
         <v>7.353263994433493</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>1</v>
       </c>
@@ -3486,7 +3622,7 @@
         <v>7.214523164349842</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>1</v>
       </c>
@@ -3497,7 +3633,7 @@
         <v>6.4514485988897627</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>1</v>
       </c>
@@ -3508,7 +3644,7 @@
         <v>5.5496332033460325</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>1</v>
       </c>
@@ -3519,7 +3655,7 @@
         <v>5.2027811281369045</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>1</v>
       </c>
@@ -3530,7 +3666,7 @@
         <v>4.9946698830114284</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>1</v>
       </c>
@@ -3541,7 +3677,7 @@
         <v>4.7865586378859524</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>1</v>
       </c>
@@ -3552,7 +3688,7 @@
         <v>4.6478178078023022</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>1</v>
       </c>
@@ -3563,7 +3699,7 @@
         <v>4.5090769777186512</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>1</v>
       </c>
@@ -3574,7 +3710,7 @@
         <v>4.5090769777186512</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <v>1</v>
       </c>
@@ -3585,7 +3721,7 @@
         <v>4.7171882228441282</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>1</v>
       </c>
@@ -3596,7 +3732,7 @@
         <v>5.3415219582205555</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>1</v>
       </c>
@@ -3607,7 +3743,7 @@
         <v>5.6190036183878576</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>1</v>
       </c>
@@ -3618,7 +3754,7 @@
         <v>5.6190036183878576</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>1</v>
       </c>
@@ -3629,7 +3765,7 @@
         <v>5.4802627883042074</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>1</v>
       </c>
@@ -3640,7 +3776,7 @@
         <v>5.5496332033460325</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
         <v>1</v>
       </c>
@@ -3651,7 +3787,7 @@
         <v>5.6190036183878576</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>1</v>
       </c>
@@ -3662,7 +3798,7 @@
         <v>5.8271148635133336</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>1</v>
       </c>
@@ -3673,7 +3809,7 @@
         <v>6.1739669387224607</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
         <v>1</v>
       </c>
@@ -3684,7 +3820,7 @@
         <v>6.5208190139315869</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
         <v>1</v>
       </c>
@@ -3695,7 +3831,7 @@
         <v>6.7289302590570639</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
         <v>1</v>
       </c>
@@ -3706,7 +3842,7 @@
         <v>6.867671089140714</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
         <v>2</v>
       </c>
@@ -3717,7 +3853,7 @@
         <v>7.0163219785160527</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>2</v>
       </c>
@@ -3728,7 +3864,7 @@
         <v>7.1352426900163248</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
         <v>2</v>
       </c>
@@ -3739,7 +3875,7 @@
         <v>6.9568616227659161</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>2</v>
       </c>
@@ -3750,7 +3886,7 @@
         <v>6.5406391325149658</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
         <v>2</v>
       </c>
@@ -3761,7 +3897,7 @@
         <v>5.4703527290125162</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <v>2</v>
       </c>
@@ -3772,7 +3908,7 @@
         <v>4.6973681042607476</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
         <v>2</v>
       </c>
@@ -3783,7 +3919,7 @@
         <v>4.3406059697599311</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>2</v>
       </c>
@@ -3794,7 +3930,7 @@
         <v>4.1622249025095224</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
         <v>2</v>
       </c>
@@ -3805,7 +3941,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
         <v>2</v>
       </c>
@@ -3816,7 +3952,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
         <v>2</v>
       </c>
@@ -3827,7 +3963,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
         <v>2</v>
       </c>
@@ -3838,7 +3974,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
         <v>2</v>
       </c>
@@ -3849,7 +3985,7 @@
         <v>4.1622249025095224</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
         <v>2</v>
       </c>
@@ -3860,7 +3996,7 @@
         <v>4.6973681042607476</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
         <v>2</v>
       </c>
@@ -3871,7 +4007,7 @@
         <v>5.0541302387615632</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
         <v>2</v>
       </c>
@@ -3882,7 +4018,7 @@
         <v>5.1730509502618363</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="19">
         <v>2</v>
       </c>
@@ -3893,7 +4029,7 @@
         <v>5.2325113060119719</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="19">
         <v>2</v>
       </c>
@@ -3904,7 +4040,7 @@
         <v>5.5298130847626519</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="19">
         <v>2</v>
       </c>
@@ -3915,7 +4051,7 @@
         <v>5.8271148635133327</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
         <v>2</v>
       </c>
@@ -3926,7 +4062,7 @@
         <v>6.0649562865138771</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
         <v>2</v>
       </c>
@@ -3937,7 +4073,7 @@
         <v>6.3622580652645571</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
         <v>2</v>
       </c>
@@ -3948,7 +4084,7 @@
         <v>6.6000994882651014</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="19">
         <v>2</v>
       </c>
@@ -3959,7 +4095,7 @@
         <v>6.7784805555155092</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
         <v>2</v>
       </c>
@@ -3970,7 +4106,7 @@
         <v>6.7784805555155092</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="19">
         <v>3</v>
       </c>
@@ -3981,7 +4117,7 @@
         <v>6.7912677287951082</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
         <v>3</v>
       </c>
@@ -3992,7 +4128,7 @@
         <v>6.671068299966878</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="19">
         <v>3</v>
       </c>
@@ -4003,7 +4139,7 @@
         <v>6.4907691567245287</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="19">
         <v>3</v>
       </c>
@@ -4014,7 +4150,7 @@
         <v>6.1301708702398336</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
         <v>3</v>
       </c>
@@ -4025,7 +4161,7 @@
         <v>5.2887748684422089</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
         <v>3</v>
       </c>
@@ -4036,7 +4172,7 @@
         <v>4.6276780098869326</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="19">
         <v>3</v>
       </c>
@@ -4047,7 +4183,7 @@
         <v>4.2069800089881202</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
         <v>3</v>
       </c>
@@ -4058,7 +4194,7 @@
         <v>3.9665811513316567</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
         <v>3</v>
       </c>
@@ -4069,7 +4205,7 @@
         <v>3.7862820080893083</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
         <v>3</v>
       </c>
@@ -4080,7 +4216,7 @@
         <v>3.7862820080893083</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="19">
         <v>3</v>
       </c>
@@ -4091,7 +4227,7 @@
         <v>3.8463817225034247</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
         <v>3</v>
       </c>
@@ -4102,7 +4238,7 @@
         <v>3.9665811513316567</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
         <v>3</v>
       </c>
@@ -4113,7 +4249,7 @@
         <v>4.2069800089881202</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
         <v>3</v>
       </c>
@@ -4124,7 +4260,7 @@
         <v>4.6276780098869326</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
         <v>3</v>
       </c>
@@ -4135,7 +4271,7 @@
         <v>5.2887748684422089</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
         <v>3</v>
       </c>
@@ -4146,7 +4282,7 @@
         <v>5.7695725837551368</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="19">
         <v>3</v>
       </c>
@@ -4157,7 +4293,7 @@
         <v>6.1902705846539483</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="19">
         <v>3</v>
       </c>
@@ -4168,7 +4304,7 @@
         <v>6.2503702990680647</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="19">
         <v>3</v>
       </c>
@@ -4179,7 +4315,7 @@
         <v>6.430669442310414</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="19">
         <v>3</v>
       </c>
@@ -4190,7 +4326,7 @@
         <v>6.6109685855527616</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="19">
         <v>3</v>
       </c>
@@ -4201,7 +4337,7 @@
         <v>6.8513674432092246</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="19">
         <v>3</v>
       </c>
@@ -4212,7 +4348,7 @@
         <v>7.151866015279805</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="19">
         <v>3</v>
       </c>
@@ -4223,7 +4359,7 @@
         <v>7.392264872936269</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="19">
         <v>3</v>
       </c>
@@ -4234,7 +4370,7 @@
         <v>7.392264872936269</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="19">
         <v>4</v>
       </c>
@@ -4245,7 +4381,7 @@
         <v>12.420607645583972</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="19">
         <v>4</v>
       </c>
@@ -4256,7 +4392,7 @@
         <v>11.89207115002721</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="19">
         <v>4</v>
       </c>
@@ -4267,7 +4403,7 @@
         <v>11.011176990765936</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="19">
         <v>4</v>
       </c>
@@ -4278,7 +4414,7 @@
         <v>9.3374780881695134</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="19">
         <v>4</v>
       </c>
@@ -4289,7 +4425,7 @@
         <v>7.5756897696469636</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="19">
         <v>4</v>
       </c>
@@ -4300,7 +4436,7 @@
         <v>6.6067061944595613</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="19">
         <v>4</v>
       </c>
@@ -4311,7 +4447,7 @@
         <v>6.3424379466811773</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="19">
         <v>4</v>
       </c>
@@ -4322,7 +4458,7 @@
         <v>6.3424379466811773</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="19">
         <v>4</v>
       </c>
@@ -4333,7 +4469,7 @@
         <v>6.4305273626073056</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="19">
         <v>4</v>
       </c>
@@ -4344,7 +4480,7 @@
         <v>6.6067061944595613</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="19">
         <v>4</v>
       </c>
@@ -4355,7 +4491,7 @@
         <v>6.8709744422379435</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="19">
         <v>4</v>
       </c>
@@ -4366,7 +4502,7 @@
         <v>7.2233321059424531</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="19">
         <v>4</v>
       </c>
@@ -4377,7 +4513,7 @@
         <v>7.6637791855730901</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="19">
         <v>4</v>
       </c>
@@ -4388,7 +4524,7 @@
         <v>8.2804050970559828</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="19">
         <v>4</v>
       </c>
@@ -4399,7 +4535,7 @@
         <v>9.1612992563172586</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="19">
         <v>4</v>
       </c>
@@ -4410,7 +4546,7 @@
         <v>9.8660145837262778</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="19">
         <v>4</v>
       </c>
@@ -4421,7 +4557,7 @@
         <v>10.570729911135297</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="19">
         <v>4</v>
       </c>
@@ -4432,7 +4568,7 @@
         <v>11.363534654470445</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="19">
         <v>4</v>
       </c>
@@ -4443,7 +4579,7 @@
         <v>11.89207115002721</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="19">
         <v>4</v>
       </c>
@@ -4454,7 +4590,7 @@
         <v>12.244428813731718</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="19">
         <v>4</v>
       </c>
@@ -4465,7 +4601,7 @@
         <v>12.420607645583972</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="19">
         <v>4</v>
       </c>
@@ -4476,7 +4612,7 @@
         <v>12.508697061510102</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="19">
         <v>4</v>
       </c>
@@ -4487,7 +4623,7 @@
         <v>12.420607645583972</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="19">
         <v>4</v>
       </c>
@@ -4498,7 +4634,7 @@
         <v>12.156339397805592</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="19">
         <v>5</v>
       </c>
@@ -4509,7 +4645,7 @@
         <v>11.873489788855293</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="19">
         <v>5</v>
       </c>
@@ -4520,7 +4656,7 @@
         <v>11.706257538308035</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="19">
         <v>5</v>
       </c>
@@ -4531,7 +4667,7 @@
         <v>11.037328536119004</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="19">
         <v>5</v>
       </c>
@@ -4542,7 +4678,7 @@
         <v>9.9503189075618295</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="19">
         <v>5</v>
       </c>
@@ -4553,7 +4689,7 @@
         <v>9.2813899053727997</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="19">
         <v>5</v>
       </c>
@@ -4564,7 +4700,7 @@
         <v>8.946925404278284</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="19">
         <v>5</v>
       </c>
@@ -4575,7 +4711,7 @@
         <v>8.7796931537310261</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="19">
         <v>5</v>
       </c>
@@ -4586,7 +4722,7 @@
         <v>8.7796931537310261</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="19">
         <v>5</v>
       </c>
@@ -4597,7 +4733,7 @@
         <v>8.863309279004655</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="19">
         <v>5</v>
       </c>
@@ -4608,7 +4744,7 @@
         <v>9.1141576548255419</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="19">
         <v>5</v>
       </c>
@@ -4619,7 +4755,7 @@
         <v>9.4486221559200558</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="19">
         <v>5</v>
       </c>
@@ -4630,7 +4766,7 @@
         <v>9.6994705317409426</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="19">
         <v>5</v>
       </c>
@@ -4641,7 +4777,7 @@
         <v>9.7830866570145716</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="19">
         <v>5</v>
       </c>
@@ -4652,7 +4788,7 @@
         <v>10.033935032835458</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="19">
         <v>5</v>
       </c>
@@ -4663,7 +4799,7 @@
         <v>10.535631784477232</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="19">
         <v>5</v>
       </c>
@@ -4674,7 +4810,7 @@
         <v>11.120944661392633</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="19">
         <v>5</v>
       </c>
@@ -4685,7 +4821,7 @@
         <v>11.706257538308035</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="19">
         <v>5</v>
       </c>
@@ -4696,7 +4832,7 @@
         <v>12.12433816467618</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="19">
         <v>5</v>
       </c>
@@ -4707,7 +4843,7 @@
         <v>12.291570415223436</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="19">
         <v>5</v>
       </c>
@@ -4718,7 +4854,7 @@
         <v>12.458802665770694</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="19">
         <v>5</v>
       </c>
@@ -4729,7 +4865,7 @@
         <v>12.542418791044323</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="19">
         <v>5</v>
       </c>
@@ -4740,7 +4876,7 @@
         <v>12.375186540497065</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="19">
         <v>5</v>
       </c>
@@ -4751,7 +4887,7 @@
         <v>12.291570415223436</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="19">
         <v>5</v>
       </c>
@@ -4762,7 +4898,7 @@
         <v>12.375186540497065</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="19">
         <v>6</v>
       </c>
@@ -4773,7 +4909,7 @@
         <v>14.750132249750415</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="19">
         <v>6</v>
       </c>
@@ -4784,7 +4920,7 @@
         <v>14.508326803033196</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="19">
         <v>6</v>
       </c>
@@ -4795,7 +4931,7 @@
         <v>14.024715909598756</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="19">
         <v>6</v>
       </c>
@@ -4806,7 +4942,7 @@
         <v>13.420202292805707</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="19">
         <v>6</v>
       </c>
@@ -4817,7 +4953,7 @@
         <v>12.936591399371267</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="19">
         <v>6</v>
       </c>
@@ -4828,7 +4964,7 @@
         <v>12.452980505936829</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="19">
         <v>6</v>
       </c>
@@ -4839,7 +4975,7 @@
         <v>12.452980505936829</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="19">
         <v>6</v>
       </c>
@@ -4850,7 +4986,7 @@
         <v>12.573883229295438</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="19">
         <v>6</v>
       </c>
@@ -4861,7 +4997,7 @@
         <v>12.936591399371267</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="19">
         <v>6</v>
       </c>
@@ -4872,7 +5008,7 @@
         <v>13.299299569447097</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="19">
         <v>6</v>
       </c>
@@ -4883,7 +5019,7 @@
         <v>13.662007739522924</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="19">
         <v>6</v>
       </c>
@@ -4894,7 +5030,7 @@
         <v>14.024715909598756</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="19">
         <v>6</v>
       </c>
@@ -4905,7 +5041,7 @@
         <v>14.145618632957365</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="19">
         <v>6</v>
       </c>
@@ -4916,7 +5052,7 @@
         <v>14.750132249750415</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="19">
         <v>6</v>
       </c>
@@ -4927,7 +5063,7 @@
         <v>15.112840419826245</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="19">
         <v>6</v>
       </c>
@@ -4938,7 +5074,7 @@
         <v>15.233743143184856</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="19">
         <v>6</v>
       </c>
@@ -4949,7 +5085,7 @@
         <v>15.475548589902077</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="19">
         <v>6</v>
       </c>
@@ -4960,7 +5096,7 @@
         <v>15.717354036619296</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="19">
         <v>6</v>
       </c>
@@ -4971,7 +5107,7 @@
         <v>15.838256759977906</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="19">
         <v>6</v>
       </c>
@@ -4982,7 +5118,7 @@
         <v>15.838256759977906</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="19">
         <v>6</v>
       </c>
@@ -4993,7 +5129,7 @@
         <v>15.959159483336515</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="19">
         <v>6</v>
       </c>
@@ -5004,7 +5140,7 @@
         <v>16.080062206695125</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="19">
         <v>6</v>
       </c>
@@ -5015,7 +5151,7 @@
         <v>16.080062206695125</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="19">
         <v>6</v>
       </c>
@@ -5026,7 +5162,7 @@
         <v>15.959159483336515</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="19">
         <v>7</v>
       </c>
@@ -5037,7 +5173,7 @@
         <v>14.754230647152404</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="19">
         <v>7</v>
       </c>
@@ -5048,7 +5184,7 @@
         <v>14.633294330372467</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="19">
         <v>7</v>
       </c>
@@ -5059,7 +5195,7 @@
         <v>14.391421696812589</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="19">
         <v>7</v>
       </c>
@@ -5070,7 +5206,7 @@
         <v>13.907676429692838</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="19">
         <v>7</v>
       </c>
@@ -5081,7 +5217,7 @@
         <v>13.302994845793153</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="19">
         <v>7</v>
       </c>
@@ -5092,7 +5228,7 @@
         <v>12.819249578673402</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="19">
         <v>7</v>
       </c>
@@ -5103,7 +5239,7 @@
         <v>12.577376945113524</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="19">
         <v>7</v>
       </c>
@@ -5114,7 +5250,7 @@
         <v>12.577376945113524</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="19">
         <v>7</v>
       </c>
@@ -5125,7 +5261,7 @@
         <v>12.94018589545334</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="19">
         <v>7</v>
       </c>
@@ -5136,7 +5272,7 @@
         <v>13.302994845793153</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="19">
         <v>7</v>
       </c>
@@ -5147,7 +5283,7 @@
         <v>13.7867401129129</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="19">
         <v>7</v>
       </c>
@@ -5158,7 +5294,7 @@
         <v>14.270485380032653</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="19">
         <v>7</v>
       </c>
@@ -5169,7 +5305,7 @@
         <v>14.754230647152404</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="19">
         <v>7</v>
       </c>
@@ -5180,7 +5316,7 @@
         <v>15.117039597492216</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="19">
         <v>7</v>
       </c>
@@ -5191,7 +5327,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="19">
         <v>7</v>
       </c>
@@ -5202,7 +5338,7 @@
         <v>14.996103280712278</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="19">
         <v>7</v>
       </c>
@@ -5213,7 +5349,7 @@
         <v>14.875166963932342</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="19">
         <v>7</v>
       </c>
@@ -5224,7 +5360,7 @@
         <v>14.754230647152404</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="19">
         <v>7</v>
       </c>
@@ -5235,7 +5371,7 @@
         <v>14.875166963932342</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="19">
         <v>7</v>
       </c>
@@ -5246,7 +5382,7 @@
         <v>14.996103280712278</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="19">
         <v>7</v>
       </c>
@@ -5257,7 +5393,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="19">
         <v>7</v>
       </c>
@@ -5268,7 +5404,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="19">
         <v>7</v>
       </c>
@@ -5279,7 +5415,7 @@
         <v>15.358912231052093</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="19">
         <v>7</v>
       </c>
@@ -5290,7 +5426,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="19">
         <v>8</v>
       </c>
@@ -5301,7 +5437,7 @@
         <v>15.99427999252725</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="19">
         <v>8</v>
       </c>
@@ -5312,7 +5448,7 @@
         <v>15.857576744727872</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="19">
         <v>8</v>
       </c>
@@ -5323,7 +5459,7 @@
         <v>15.310763753530361</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="19">
         <v>8</v>
       </c>
@@ -5334,7 +5470,7 @@
         <v>14.627247514533469</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="19">
         <v>8</v>
       </c>
@@ -5345,7 +5481,7 @@
         <v>13.670324779937822</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="19">
         <v>8</v>
       </c>
@@ -5356,7 +5492,7 @@
         <v>12.986808540940929</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="19">
         <v>8</v>
       </c>
@@ -5367,7 +5503,7 @@
         <v>12.576698797542795</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="19">
         <v>8</v>
       </c>
@@ -5378,7 +5514,7 @@
         <v>12.576698797542795</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="19">
         <v>8</v>
       </c>
@@ -5389,7 +5525,7 @@
         <v>12.986808540940929</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="19">
         <v>8</v>
       </c>
@@ -5400,7 +5536,7 @@
         <v>13.260215036539686</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="19">
         <v>8</v>
       </c>
@@ -5411,7 +5547,7 @@
         <v>13.533621532138444</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="19">
         <v>8</v>
       </c>
@@ -5422,7 +5558,7 @@
         <v>14.217137771135336</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="19">
         <v>8</v>
       </c>
@@ -5433,7 +5569,7 @@
         <v>14.627247514533469</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="19">
         <v>8</v>
       </c>
@@ -5444,7 +5580,7 @@
         <v>15.037357257931603</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="19">
         <v>8</v>
       </c>
@@ -5455,7 +5591,7 @@
         <v>15.174060505730983</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="19">
         <v>8</v>
       </c>
@@ -5466,7 +5602,7 @@
         <v>15.174060505730983</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="19">
         <v>8</v>
       </c>
@@ -5477,7 +5613,7 @@
         <v>15.174060505730983</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="19">
         <v>8</v>
       </c>
@@ -5488,7 +5624,7 @@
         <v>15.310763753530361</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="19">
         <v>8</v>
       </c>
@@ -5499,7 +5635,7 @@
         <v>15.447467001329738</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="19">
         <v>8</v>
       </c>
@@ -5510,7 +5646,7 @@
         <v>15.584170249129116</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="19">
         <v>8</v>
       </c>
@@ -5521,7 +5657,7 @@
         <v>15.857576744727872</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="19">
         <v>8</v>
       </c>
@@ -5532,7 +5668,7 @@
         <v>15.99427999252725</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="19">
         <v>8</v>
       </c>
@@ -5543,7 +5679,7 @@
         <v>15.857576744727872</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="19">
         <v>8</v>
       </c>
@@ -5554,7 +5690,7 @@
         <v>15.584170249129116</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="19">
         <v>9</v>
       </c>
@@ -5565,7 +5701,7 @@
         <v>10.413723481572847</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="19">
         <v>9</v>
       </c>
@@ -5576,7 +5712,7 @@
         <v>10.234176524994005</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="19">
         <v>9</v>
       </c>
@@ -5587,7 +5723,7 @@
         <v>9.9648560901257426</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="19">
         <v>9</v>
       </c>
@@ -5598,7 +5734,7 @@
         <v>9.0671213072315311</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="19">
         <v>9</v>
       </c>
@@ -5609,7 +5745,7 @@
         <v>8.1693865243373196</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="19">
         <v>9</v>
       </c>
@@ -5620,7 +5756,7 @@
         <v>7.6307456546007923</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="19">
         <v>9</v>
       </c>
@@ -5631,7 +5767,7 @@
         <v>7.3614252197325287</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="19">
         <v>9</v>
       </c>
@@ -5642,7 +5778,7 @@
         <v>7.271651741443109</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="19">
         <v>9</v>
       </c>
@@ -5653,7 +5789,7 @@
         <v>7.271651741443109</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="19">
         <v>9</v>
       </c>
@@ -5664,7 +5800,7 @@
         <v>7.5409721763113717</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="19">
         <v>9</v>
       </c>
@@ -5675,7 +5811,7 @@
         <v>7.8102926111796354</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="19">
         <v>9</v>
       </c>
@@ -5686,7 +5822,7 @@
         <v>8.1693865243373196</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="19">
         <v>9</v>
       </c>
@@ -5697,7 +5833,7 @@
         <v>8.6182539157844253</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="19">
         <v>9</v>
       </c>
@@ -5708,7 +5844,7 @@
         <v>8.9773478289421096</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="19">
         <v>9</v>
       </c>
@@ -5719,7 +5855,7 @@
         <v>9.2466682638103723</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="19">
         <v>9</v>
       </c>
@@ -5730,7 +5866,7 @@
         <v>9.3364417420997956</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="19">
         <v>9</v>
       </c>
@@ -5741,7 +5877,7 @@
         <v>9.6955356552574798</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="19">
         <v>9</v>
       </c>
@@ -5752,7 +5888,7 @@
         <v>9.9648560901257426</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="19">
         <v>9</v>
       </c>
@@ -5763,7 +5899,7 @@
         <v>10.054629568415162</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="19">
         <v>9</v>
       </c>
@@ -5774,7 +5910,7 @@
         <v>10.234176524994005</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="19">
         <v>9</v>
       </c>
@@ -5785,7 +5921,7 @@
         <v>10.413723481572847</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="19">
         <v>9</v>
       </c>
@@ -5796,7 +5932,7 @@
         <v>10.503496959862268</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="19">
         <v>9</v>
       </c>
@@ -5807,7 +5943,7 @@
         <v>10.503496959862268</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="19">
         <v>9</v>
       </c>
@@ -5818,7 +5954,7 @@
         <v>10.503496959862268</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="19">
         <v>10</v>
       </c>
@@ -5829,7 +5965,7 @@
         <v>7.6863386701395395</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="19">
         <v>10</v>
       </c>
@@ -5840,7 +5976,7 @@
         <v>7.4688007832487973</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="19">
         <v>10</v>
       </c>
@@ -5851,7 +5987,7 @@
         <v>7.1062376384308941</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="19">
         <v>10</v>
       </c>
@@ -5862,7 +5998,7 @@
         <v>6.59864923568583</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="19">
         <v>10</v>
       </c>
@@ -5873,7 +6009,7 @@
         <v>5.5834724301957026</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="19">
         <v>10</v>
       </c>
@@ -5884,7 +6020,7 @@
         <v>4.5682956247055753</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="19">
         <v>10</v>
       </c>
@@ -5895,7 +6031,7 @@
         <v>4.0607072219605111</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="19">
         <v>10</v>
       </c>
@@ -5906,7 +6042,7 @@
         <v>3.9156819640333502</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="19">
         <v>10</v>
       </c>
@@ -5917,7 +6053,7 @@
         <v>3.9881945929969311</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="19">
         <v>10</v>
       </c>
@@ -5928,7 +6064,7 @@
         <v>3.9881945929969311</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="19">
         <v>10</v>
       </c>
@@ -5939,7 +6075,7 @@
         <v>4.1332198509240916</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="19">
         <v>10</v>
       </c>
@@ -5950,7 +6086,7 @@
         <v>4.2782451088512525</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="19">
         <v>10</v>
       </c>
@@ -5961,7 +6097,7 @@
         <v>4.5682956247055753</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="19">
         <v>10</v>
       </c>
@@ -5972,7 +6108,7 @@
         <v>5.3659345433049612</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="19">
         <v>10</v>
       </c>
@@ -5983,7 +6119,7 @@
         <v>5.8010103170864449</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="19">
         <v>10</v>
       </c>
@@ -5994,7 +6130,7 @@
         <v>6.0910608329407667</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="19">
         <v>10</v>
       </c>
@@ -6005,7 +6141,7 @@
         <v>6.1635734619043472</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="19">
         <v>10</v>
       </c>
@@ -6016,7 +6152,7 @@
         <v>6.4536239777586699</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="19">
         <v>10</v>
       </c>
@@ -6027,7 +6163,7 @@
         <v>6.8161871225765713</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="19">
         <v>10</v>
       </c>
@@ -6038,7 +6174,7 @@
         <v>7.251262896358055</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="19">
         <v>10</v>
       </c>
@@ -6049,7 +6185,7 @@
         <v>7.6138260411759591</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="19">
         <v>10</v>
       </c>
@@ -6060,7 +6196,7 @@
         <v>7.8313639280667005</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="19">
         <v>10</v>
       </c>
@@ -6071,7 +6207,7 @@
         <v>7.9038765570302809</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="19">
         <v>10</v>
       </c>
@@ -6082,7 +6218,7 @@
         <v>7.8313639280667005</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="19">
         <v>11</v>
       </c>
@@ -6093,7 +6229,7 @@
         <v>6.9330774804658635</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="19">
         <v>11</v>
       </c>
@@ -6104,7 +6240,7 @@
         <v>6.9984838717910138</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="19">
         <v>11</v>
       </c>
@@ -6115,7 +6251,7 @@
         <v>6.9984838717910138</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="19">
         <v>11</v>
       </c>
@@ -6126,7 +6262,7 @@
         <v>6.8022646978155654</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="19">
         <v>11</v>
       </c>
@@ -6137,7 +6273,7 @@
         <v>6.2136071758892166</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="19">
         <v>11</v>
       </c>
@@ -6148,7 +6284,7 @@
         <v>5.101698523361673</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="19">
         <v>11</v>
       </c>
@@ -6159,7 +6295,7 @@
         <v>4.4476346101101765</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="19">
         <v>11</v>
       </c>
@@ -6170,7 +6306,7 @@
         <v>4.0551962621592788</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="19">
         <v>11</v>
       </c>
@@ -6181,7 +6317,7 @@
         <v>3.8589770881838299</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="19">
         <v>11</v>
       </c>
@@ -6192,7 +6328,7 @@
         <v>3.79357069685868</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="19">
         <v>11</v>
       </c>
@@ -6203,7 +6339,7 @@
         <v>3.79357069685868</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="19">
         <v>11</v>
       </c>
@@ -6214,7 +6350,7 @@
         <v>3.79357069685868</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="19">
         <v>11</v>
       </c>
@@ -6225,7 +6361,7 @@
         <v>3.9897898708341288</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="19">
         <v>11</v>
       </c>
@@ -6236,7 +6372,7 @@
         <v>4.5784473927604754</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="19">
         <v>11</v>
       </c>
@@ -6247,7 +6383,7 @@
         <v>4.7746665667359247</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="19">
         <v>11</v>
       </c>
@@ -6258,7 +6394,7 @@
         <v>4.8400729580610751</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="19">
         <v>11</v>
       </c>
@@ -6269,7 +6405,7 @@
         <v>4.8400729580610751</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="19">
         <v>11</v>
       </c>
@@ -6280,7 +6416,7 @@
         <v>4.8400729580610751</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="19">
         <v>11</v>
       </c>
@@ -6291,7 +6427,7 @@
         <v>4.9708857407113731</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="19">
         <v>11</v>
       </c>
@@ -6302,7 +6438,7 @@
         <v>5.2979176973371223</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="19">
         <v>11</v>
       </c>
@@ -6313,7 +6449,7 @@
         <v>5.69035604528802</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="19">
         <v>11</v>
       </c>
@@ -6324,7 +6460,7 @@
         <v>6.0827943932389186</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="19">
         <v>11</v>
       </c>
@@ -6335,7 +6471,7 @@
         <v>6.4752327411898163</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="19">
         <v>11</v>
       </c>
@@ -6346,7 +6482,7 @@
         <v>6.7368583064904151</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="19">
         <v>12</v>
       </c>
@@ -6357,7 +6493,7 @@
         <v>7.5486995823254119</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="19">
         <v>12</v>
       </c>
@@ -6368,7 +6504,7 @@
         <v>7.6952762732443523</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="19">
         <v>12</v>
       </c>
@@ -6379,7 +6515,7 @@
         <v>7.6952762732443523</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="19">
         <v>12</v>
       </c>
@@ -6390,7 +6526,7 @@
         <v>7.5486995823254119</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="19">
         <v>12</v>
       </c>
@@ -6401,7 +6537,7 @@
         <v>7.0356811641091213</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="19">
         <v>12</v>
       </c>
@@ -6412,7 +6548,7 @@
         <v>5.9363559822170719</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="19">
         <v>12</v>
       </c>
@@ -6423,7 +6559,7 @@
         <v>5.4233375640007813</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="19">
         <v>12</v>
       </c>
@@ -6434,7 +6570,7 @@
         <v>5.0568958367034309</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="19">
         <v>12</v>
       </c>
@@ -6445,7 +6581,7 @@
         <v>4.8370308003250218</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="19">
         <v>12</v>
       </c>
@@ -6456,7 +6592,7 @@
         <v>4.763742454865552</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="19">
         <v>12</v>
       </c>
@@ -6467,7 +6603,7 @@
         <v>4.6904541094060814</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="19">
         <v>12</v>
       </c>
@@ -6478,7 +6614,7 @@
         <v>4.763742454865552</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="19">
         <v>12</v>
       </c>
@@ -6489,7 +6625,7 @@
         <v>5.0568958367034309</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="19">
         <v>12</v>
       </c>
@@ -6500,7 +6636,7 @@
         <v>5.6432026003791913</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="19">
         <v>12</v>
       </c>
@@ -6511,7 +6647,7 @@
         <v>5.9363559822170719</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="19">
         <v>12</v>
       </c>
@@ -6522,7 +6658,7 @@
         <v>6.0096443276765408</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="19">
         <v>12</v>
       </c>
@@ -6533,7 +6669,7 @@
         <v>6.0829326731360105</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="19">
         <v>12</v>
       </c>
@@ -6544,7 +6680,7 @@
         <v>6.156221018595482</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="19">
         <v>12</v>
       </c>
@@ -6555,7 +6691,7 @@
         <v>6.3760860549738911</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="19">
         <v>12</v>
       </c>
@@ -6566,7 +6702,7 @@
         <v>6.6692394368117718</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="19">
         <v>12</v>
       </c>
@@ -6577,7 +6713,7 @@
         <v>6.9623928186496506</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="19">
         <v>12</v>
       </c>
@@ -6588,7 +6724,7 @@
         <v>7.2555462004875313</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="19">
         <v>12</v>
       </c>
@@ -6599,7 +6735,7 @@
         <v>7.4754112368659413</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="19">
         <v>12</v>
       </c>
@@ -6623,21 +6759,21 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="21" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="21" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>155</v>
       </c>
@@ -6672,7 +6808,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>150000000</v>
       </c>
@@ -6708,7 +6844,7 @@
         <v>80000000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -6728,7 +6864,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -6748,7 +6884,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6768,7 +6904,7 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6796,7 +6932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6826,7 +6962,7 @@
       </c>
       <c r="K8" s="29"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -6851,7 +6987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -6879,7 +7015,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -6904,7 +7040,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7</v>
       </c>
@@ -6924,7 +7060,7 @@
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
       </c>
@@ -6944,7 +7080,7 @@
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
@@ -6963,7 +7099,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -6982,7 +7118,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>11</v>
       </c>
@@ -7001,7 +7137,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>12</v>
       </c>
@@ -7020,7 +7156,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>150</v>
       </c>
@@ -7032,7 +7168,7 @@
       </c>
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>1</v>
       </c>
@@ -7044,7 +7180,7 @@
       </c>
       <c r="D22" s="21"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>1</v>
       </c>
@@ -7056,7 +7192,7 @@
       </c>
       <c r="D23" s="21"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>1</v>
       </c>
@@ -7068,7 +7204,7 @@
       </c>
       <c r="D24" s="21"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>1</v>
       </c>
@@ -7080,7 +7216,7 @@
       </c>
       <c r="D25" s="21"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>1</v>
       </c>
@@ -7092,7 +7228,7 @@
       </c>
       <c r="D26" s="21"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>1</v>
       </c>
@@ -7104,7 +7240,7 @@
       </c>
       <c r="D27" s="21"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>1</v>
       </c>
@@ -7116,7 +7252,7 @@
       </c>
       <c r="D28" s="21"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>1</v>
       </c>
@@ -7128,7 +7264,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>1</v>
       </c>
@@ -7140,7 +7276,7 @@
       </c>
       <c r="D30" s="21"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>1</v>
       </c>
@@ -7152,7 +7288,7 @@
       </c>
       <c r="D31" s="21"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>1</v>
       </c>
@@ -7164,7 +7300,7 @@
       </c>
       <c r="D32" s="21"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <v>1</v>
       </c>
@@ -7176,7 +7312,7 @@
       </c>
       <c r="D33" s="21"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>1</v>
       </c>
@@ -7188,7 +7324,7 @@
       </c>
       <c r="D34" s="21"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>1</v>
       </c>
@@ -7200,7 +7336,7 @@
       </c>
       <c r="D35" s="21"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>1</v>
       </c>
@@ -7212,7 +7348,7 @@
       </c>
       <c r="D36" s="21"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>1</v>
       </c>
@@ -7224,7 +7360,7 @@
       </c>
       <c r="D37" s="21"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>1</v>
       </c>
@@ -7236,7 +7372,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
         <v>1</v>
       </c>
@@ -7248,7 +7384,7 @@
       </c>
       <c r="D39" s="21"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>1</v>
       </c>
@@ -7260,7 +7396,7 @@
       </c>
       <c r="D40" s="21"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>1</v>
       </c>
@@ -7272,7 +7408,7 @@
       </c>
       <c r="D41" s="21"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
         <v>1</v>
       </c>
@@ -7284,7 +7420,7 @@
       </c>
       <c r="D42" s="21"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
         <v>1</v>
       </c>
@@ -7296,7 +7432,7 @@
       </c>
       <c r="D43" s="21"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
         <v>1</v>
       </c>
@@ -7308,7 +7444,7 @@
       </c>
       <c r="D44" s="21"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
         <v>1</v>
       </c>
@@ -7320,7 +7456,7 @@
       </c>
       <c r="D45" s="21"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>2</v>
       </c>
@@ -7332,7 +7468,7 @@
       </c>
       <c r="D46" s="21"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
         <v>2</v>
       </c>
@@ -7344,7 +7480,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>2</v>
       </c>
@@ -7356,7 +7492,7 @@
       </c>
       <c r="D48" s="21"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
         <v>2</v>
       </c>
@@ -7368,7 +7504,7 @@
       </c>
       <c r="D49" s="21"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <v>2</v>
       </c>
@@ -7380,7 +7516,7 @@
       </c>
       <c r="D50" s="21"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
         <v>2</v>
       </c>
@@ -7392,7 +7528,7 @@
       </c>
       <c r="D51" s="21"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>2</v>
       </c>
@@ -7404,7 +7540,7 @@
       </c>
       <c r="D52" s="21"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
         <v>2</v>
       </c>
@@ -7416,7 +7552,7 @@
       </c>
       <c r="D53" s="21"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
         <v>2</v>
       </c>
@@ -7428,7 +7564,7 @@
       </c>
       <c r="D54" s="21"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
         <v>2</v>
       </c>
@@ -7440,7 +7576,7 @@
       </c>
       <c r="D55" s="21"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
         <v>2</v>
       </c>
@@ -7452,7 +7588,7 @@
       </c>
       <c r="D56" s="21"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
         <v>2</v>
       </c>
@@ -7464,7 +7600,7 @@
       </c>
       <c r="D57" s="21"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
         <v>2</v>
       </c>
@@ -7476,7 +7612,7 @@
       </c>
       <c r="D58" s="21"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
         <v>2</v>
       </c>
@@ -7488,7 +7624,7 @@
       </c>
       <c r="D59" s="21"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
         <v>2</v>
       </c>
@@ -7500,7 +7636,7 @@
       </c>
       <c r="D60" s="21"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="19">
         <v>2</v>
       </c>
@@ -7512,7 +7648,7 @@
       </c>
       <c r="D61" s="21"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="19">
         <v>2</v>
       </c>
@@ -7524,7 +7660,7 @@
       </c>
       <c r="D62" s="21"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="19">
         <v>2</v>
       </c>
@@ -7536,7 +7672,7 @@
       </c>
       <c r="D63" s="21"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
         <v>2</v>
       </c>
@@ -7548,7 +7684,7 @@
       </c>
       <c r="D64" s="21"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
         <v>2</v>
       </c>
@@ -7560,7 +7696,7 @@
       </c>
       <c r="D65" s="21"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
         <v>2</v>
       </c>
@@ -7572,7 +7708,7 @@
       </c>
       <c r="D66" s="21"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="19">
         <v>2</v>
       </c>
@@ -7584,7 +7720,7 @@
       </c>
       <c r="D67" s="21"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
         <v>2</v>
       </c>
@@ -7596,7 +7732,7 @@
       </c>
       <c r="D68" s="21"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="19">
         <v>2</v>
       </c>
@@ -7608,7 +7744,7 @@
       </c>
       <c r="D69" s="21"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
         <v>3</v>
       </c>
@@ -7620,7 +7756,7 @@
       </c>
       <c r="D70" s="21"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="19">
         <v>3</v>
       </c>
@@ -7632,7 +7768,7 @@
       </c>
       <c r="D71" s="21"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="19">
         <v>3</v>
       </c>
@@ -7644,7 +7780,7 @@
       </c>
       <c r="D72" s="21"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
         <v>3</v>
       </c>
@@ -7656,7 +7792,7 @@
       </c>
       <c r="D73" s="21"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
         <v>3</v>
       </c>
@@ -7668,7 +7804,7 @@
       </c>
       <c r="D74" s="21"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="19">
         <v>3</v>
       </c>
@@ -7680,7 +7816,7 @@
       </c>
       <c r="D75" s="21"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
         <v>3</v>
       </c>
@@ -7692,7 +7828,7 @@
       </c>
       <c r="D76" s="21"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
         <v>3</v>
       </c>
@@ -7704,7 +7840,7 @@
       </c>
       <c r="D77" s="21"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
         <v>3</v>
       </c>
@@ -7716,7 +7852,7 @@
       </c>
       <c r="D78" s="21"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="19">
         <v>3</v>
       </c>
@@ -7728,7 +7864,7 @@
       </c>
       <c r="D79" s="21"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
         <v>3</v>
       </c>
@@ -7740,7 +7876,7 @@
       </c>
       <c r="D80" s="21"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
         <v>3</v>
       </c>
@@ -7752,7 +7888,7 @@
       </c>
       <c r="D81" s="21"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
         <v>3</v>
       </c>
@@ -7764,7 +7900,7 @@
       </c>
       <c r="D82" s="21"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
         <v>3</v>
       </c>
@@ -7776,7 +7912,7 @@
       </c>
       <c r="D83" s="21"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
         <v>3</v>
       </c>
@@ -7788,7 +7924,7 @@
       </c>
       <c r="D84" s="21"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="19">
         <v>3</v>
       </c>
@@ -7800,7 +7936,7 @@
       </c>
       <c r="D85" s="21"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="19">
         <v>3</v>
       </c>
@@ -7812,7 +7948,7 @@
       </c>
       <c r="D86" s="21"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="19">
         <v>3</v>
       </c>
@@ -7824,7 +7960,7 @@
       </c>
       <c r="D87" s="21"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="19">
         <v>3</v>
       </c>
@@ -7836,7 +7972,7 @@
       </c>
       <c r="D88" s="21"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="19">
         <v>3</v>
       </c>
@@ -7848,7 +7984,7 @@
       </c>
       <c r="D89" s="21"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="19">
         <v>3</v>
       </c>
@@ -7860,7 +7996,7 @@
       </c>
       <c r="D90" s="21"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="19">
         <v>3</v>
       </c>
@@ -7872,7 +8008,7 @@
       </c>
       <c r="D91" s="21"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="19">
         <v>3</v>
       </c>
@@ -7884,7 +8020,7 @@
       </c>
       <c r="D92" s="21"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="19">
         <v>3</v>
       </c>
@@ -7896,7 +8032,7 @@
       </c>
       <c r="D93" s="21"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="19">
         <v>4</v>
       </c>
@@ -7908,7 +8044,7 @@
       </c>
       <c r="D94" s="21"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="19">
         <v>4</v>
       </c>
@@ -7920,7 +8056,7 @@
       </c>
       <c r="D95" s="21"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="19">
         <v>4</v>
       </c>
@@ -7932,7 +8068,7 @@
       </c>
       <c r="D96" s="21"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="19">
         <v>4</v>
       </c>
@@ -7944,7 +8080,7 @@
       </c>
       <c r="D97" s="21"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="19">
         <v>4</v>
       </c>
@@ -7956,7 +8092,7 @@
       </c>
       <c r="D98" s="21"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="19">
         <v>4</v>
       </c>
@@ -7968,7 +8104,7 @@
       </c>
       <c r="D99" s="21"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="19">
         <v>4</v>
       </c>
@@ -7980,7 +8116,7 @@
       </c>
       <c r="D100" s="21"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="19">
         <v>4</v>
       </c>
@@ -7992,7 +8128,7 @@
       </c>
       <c r="D101" s="21"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="19">
         <v>4</v>
       </c>
@@ -8004,7 +8140,7 @@
       </c>
       <c r="D102" s="21"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="19">
         <v>4</v>
       </c>
@@ -8016,7 +8152,7 @@
       </c>
       <c r="D103" s="21"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="19">
         <v>4</v>
       </c>
@@ -8028,7 +8164,7 @@
       </c>
       <c r="D104" s="21"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="19">
         <v>4</v>
       </c>
@@ -8040,7 +8176,7 @@
       </c>
       <c r="D105" s="21"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="19">
         <v>4</v>
       </c>
@@ -8052,7 +8188,7 @@
       </c>
       <c r="D106" s="21"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="19">
         <v>4</v>
       </c>
@@ -8064,7 +8200,7 @@
       </c>
       <c r="D107" s="21"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="19">
         <v>4</v>
       </c>
@@ -8076,7 +8212,7 @@
       </c>
       <c r="D108" s="21"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="19">
         <v>4</v>
       </c>
@@ -8088,7 +8224,7 @@
       </c>
       <c r="D109" s="21"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="19">
         <v>4</v>
       </c>
@@ -8100,7 +8236,7 @@
       </c>
       <c r="D110" s="21"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="19">
         <v>4</v>
       </c>
@@ -8112,7 +8248,7 @@
       </c>
       <c r="D111" s="21"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="19">
         <v>4</v>
       </c>
@@ -8124,7 +8260,7 @@
       </c>
       <c r="D112" s="21"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="19">
         <v>4</v>
       </c>
@@ -8136,7 +8272,7 @@
       </c>
       <c r="D113" s="21"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="19">
         <v>4</v>
       </c>
@@ -8148,7 +8284,7 @@
       </c>
       <c r="D114" s="21"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="19">
         <v>4</v>
       </c>
@@ -8160,7 +8296,7 @@
       </c>
       <c r="D115" s="21"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="19">
         <v>4</v>
       </c>
@@ -8172,7 +8308,7 @@
       </c>
       <c r="D116" s="21"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="19">
         <v>4</v>
       </c>
@@ -8184,7 +8320,7 @@
       </c>
       <c r="D117" s="21"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="19">
         <v>5</v>
       </c>
@@ -8196,7 +8332,7 @@
       </c>
       <c r="D118" s="21"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="19">
         <v>5</v>
       </c>
@@ -8208,7 +8344,7 @@
       </c>
       <c r="D119" s="21"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="19">
         <v>5</v>
       </c>
@@ -8220,7 +8356,7 @@
       </c>
       <c r="D120" s="21"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="19">
         <v>5</v>
       </c>
@@ -8232,7 +8368,7 @@
       </c>
       <c r="D121" s="21"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="19">
         <v>5</v>
       </c>
@@ -8244,7 +8380,7 @@
       </c>
       <c r="D122" s="21"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="19">
         <v>5</v>
       </c>
@@ -8256,7 +8392,7 @@
       </c>
       <c r="D123" s="21"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="19">
         <v>5</v>
       </c>
@@ -8268,7 +8404,7 @@
       </c>
       <c r="D124" s="21"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="19">
         <v>5</v>
       </c>
@@ -8280,7 +8416,7 @@
       </c>
       <c r="D125" s="21"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="19">
         <v>5</v>
       </c>
@@ -8292,7 +8428,7 @@
       </c>
       <c r="D126" s="21"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="19">
         <v>5</v>
       </c>
@@ -8304,7 +8440,7 @@
       </c>
       <c r="D127" s="21"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="19">
         <v>5</v>
       </c>
@@ -8316,7 +8452,7 @@
       </c>
       <c r="D128" s="21"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="19">
         <v>5</v>
       </c>
@@ -8328,7 +8464,7 @@
       </c>
       <c r="D129" s="21"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="19">
         <v>5</v>
       </c>
@@ -8340,7 +8476,7 @@
       </c>
       <c r="D130" s="21"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="19">
         <v>5</v>
       </c>
@@ -8352,7 +8488,7 @@
       </c>
       <c r="D131" s="21"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="19">
         <v>5</v>
       </c>
@@ -8364,7 +8500,7 @@
       </c>
       <c r="D132" s="21"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="19">
         <v>5</v>
       </c>
@@ -8376,7 +8512,7 @@
       </c>
       <c r="D133" s="21"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="19">
         <v>5</v>
       </c>
@@ -8388,7 +8524,7 @@
       </c>
       <c r="D134" s="21"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="19">
         <v>5</v>
       </c>
@@ -8400,7 +8536,7 @@
       </c>
       <c r="D135" s="21"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="19">
         <v>5</v>
       </c>
@@ -8412,7 +8548,7 @@
       </c>
       <c r="D136" s="21"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="19">
         <v>5</v>
       </c>
@@ -8424,7 +8560,7 @@
       </c>
       <c r="D137" s="21"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="19">
         <v>5</v>
       </c>
@@ -8436,7 +8572,7 @@
       </c>
       <c r="D138" s="21"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="19">
         <v>5</v>
       </c>
@@ -8448,7 +8584,7 @@
       </c>
       <c r="D139" s="21"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="19">
         <v>5</v>
       </c>
@@ -8460,7 +8596,7 @@
       </c>
       <c r="D140" s="21"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="19">
         <v>5</v>
       </c>
@@ -8472,7 +8608,7 @@
       </c>
       <c r="D141" s="21"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="19">
         <v>6</v>
       </c>
@@ -8484,7 +8620,7 @@
       </c>
       <c r="D142" s="21"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="19">
         <v>6</v>
       </c>
@@ -8496,7 +8632,7 @@
       </c>
       <c r="D143" s="21"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="19">
         <v>6</v>
       </c>
@@ -8508,7 +8644,7 @@
       </c>
       <c r="D144" s="21"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="19">
         <v>6</v>
       </c>
@@ -8520,7 +8656,7 @@
       </c>
       <c r="D145" s="21"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="19">
         <v>6</v>
       </c>
@@ -8532,7 +8668,7 @@
       </c>
       <c r="D146" s="21"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="19">
         <v>6</v>
       </c>
@@ -8544,7 +8680,7 @@
       </c>
       <c r="D147" s="21"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="19">
         <v>6</v>
       </c>
@@ -8556,7 +8692,7 @@
       </c>
       <c r="D148" s="21"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="19">
         <v>6</v>
       </c>
@@ -8568,7 +8704,7 @@
       </c>
       <c r="D149" s="21"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="19">
         <v>6</v>
       </c>
@@ -8580,7 +8716,7 @@
       </c>
       <c r="D150" s="21"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="19">
         <v>6</v>
       </c>
@@ -8592,7 +8728,7 @@
       </c>
       <c r="D151" s="21"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="19">
         <v>6</v>
       </c>
@@ -8604,7 +8740,7 @@
       </c>
       <c r="D152" s="21"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="19">
         <v>6</v>
       </c>
@@ -8616,7 +8752,7 @@
       </c>
       <c r="D153" s="21"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="19">
         <v>6</v>
       </c>
@@ -8628,7 +8764,7 @@
       </c>
       <c r="D154" s="21"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="19">
         <v>6</v>
       </c>
@@ -8640,7 +8776,7 @@
       </c>
       <c r="D155" s="21"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="19">
         <v>6</v>
       </c>
@@ -8652,7 +8788,7 @@
       </c>
       <c r="D156" s="21"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="19">
         <v>6</v>
       </c>
@@ -8664,7 +8800,7 @@
       </c>
       <c r="D157" s="21"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="19">
         <v>6</v>
       </c>
@@ -8676,7 +8812,7 @@
       </c>
       <c r="D158" s="21"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="19">
         <v>6</v>
       </c>
@@ -8688,7 +8824,7 @@
       </c>
       <c r="D159" s="21"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="19">
         <v>6</v>
       </c>
@@ -8700,7 +8836,7 @@
       </c>
       <c r="D160" s="21"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="19">
         <v>6</v>
       </c>
@@ -8712,7 +8848,7 @@
       </c>
       <c r="D161" s="21"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="19">
         <v>6</v>
       </c>
@@ -8724,7 +8860,7 @@
       </c>
       <c r="D162" s="21"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="19">
         <v>6</v>
       </c>
@@ -8736,7 +8872,7 @@
       </c>
       <c r="D163" s="21"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="19">
         <v>6</v>
       </c>
@@ -8748,7 +8884,7 @@
       </c>
       <c r="D164" s="21"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="19">
         <v>6</v>
       </c>
@@ -8760,7 +8896,7 @@
       </c>
       <c r="D165" s="21"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="19">
         <v>7</v>
       </c>
@@ -8772,7 +8908,7 @@
       </c>
       <c r="D166" s="21"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="19">
         <v>7</v>
       </c>
@@ -8784,7 +8920,7 @@
       </c>
       <c r="D167" s="21"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="19">
         <v>7</v>
       </c>
@@ -8796,7 +8932,7 @@
       </c>
       <c r="D168" s="21"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="19">
         <v>7</v>
       </c>
@@ -8808,7 +8944,7 @@
       </c>
       <c r="D169" s="21"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="19">
         <v>7</v>
       </c>
@@ -8820,7 +8956,7 @@
       </c>
       <c r="D170" s="21"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="19">
         <v>7</v>
       </c>
@@ -8832,7 +8968,7 @@
       </c>
       <c r="D171" s="21"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="19">
         <v>7</v>
       </c>
@@ -8844,7 +8980,7 @@
       </c>
       <c r="D172" s="21"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="19">
         <v>7</v>
       </c>
@@ -8856,7 +8992,7 @@
       </c>
       <c r="D173" s="21"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="19">
         <v>7</v>
       </c>
@@ -8868,7 +9004,7 @@
       </c>
       <c r="D174" s="21"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="19">
         <v>7</v>
       </c>
@@ -8880,7 +9016,7 @@
       </c>
       <c r="D175" s="21"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="19">
         <v>7</v>
       </c>
@@ -8892,7 +9028,7 @@
       </c>
       <c r="D176" s="21"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="19">
         <v>7</v>
       </c>
@@ -8904,7 +9040,7 @@
       </c>
       <c r="D177" s="21"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="19">
         <v>7</v>
       </c>
@@ -8916,7 +9052,7 @@
       </c>
       <c r="D178" s="21"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="19">
         <v>7</v>
       </c>
@@ -8928,7 +9064,7 @@
       </c>
       <c r="D179" s="21"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="19">
         <v>7</v>
       </c>
@@ -8940,7 +9076,7 @@
       </c>
       <c r="D180" s="21"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="19">
         <v>7</v>
       </c>
@@ -8952,7 +9088,7 @@
       </c>
       <c r="D181" s="21"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="19">
         <v>7</v>
       </c>
@@ -8964,7 +9100,7 @@
       </c>
       <c r="D182" s="21"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="19">
         <v>7</v>
       </c>
@@ -8976,7 +9112,7 @@
       </c>
       <c r="D183" s="21"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="19">
         <v>7</v>
       </c>
@@ -8988,7 +9124,7 @@
       </c>
       <c r="D184" s="21"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="19">
         <v>7</v>
       </c>
@@ -9000,7 +9136,7 @@
       </c>
       <c r="D185" s="21"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="19">
         <v>7</v>
       </c>
@@ -9012,7 +9148,7 @@
       </c>
       <c r="D186" s="21"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="19">
         <v>7</v>
       </c>
@@ -9024,7 +9160,7 @@
       </c>
       <c r="D187" s="21"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="19">
         <v>7</v>
       </c>
@@ -9036,7 +9172,7 @@
       </c>
       <c r="D188" s="21"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="19">
         <v>7</v>
       </c>
@@ -9048,7 +9184,7 @@
       </c>
       <c r="D189" s="21"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="19">
         <v>8</v>
       </c>
@@ -9060,7 +9196,7 @@
       </c>
       <c r="D190" s="21"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="19">
         <v>8</v>
       </c>
@@ -9072,7 +9208,7 @@
       </c>
       <c r="D191" s="21"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="19">
         <v>8</v>
       </c>
@@ -9084,7 +9220,7 @@
       </c>
       <c r="D192" s="21"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="19">
         <v>8</v>
       </c>
@@ -9096,7 +9232,7 @@
       </c>
       <c r="D193" s="21"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="19">
         <v>8</v>
       </c>
@@ -9108,7 +9244,7 @@
       </c>
       <c r="D194" s="21"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="19">
         <v>8</v>
       </c>
@@ -9120,7 +9256,7 @@
       </c>
       <c r="D195" s="21"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="19">
         <v>8</v>
       </c>
@@ -9132,7 +9268,7 @@
       </c>
       <c r="D196" s="21"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="19">
         <v>8</v>
       </c>
@@ -9144,7 +9280,7 @@
       </c>
       <c r="D197" s="21"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="19">
         <v>8</v>
       </c>
@@ -9156,7 +9292,7 @@
       </c>
       <c r="D198" s="21"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="19">
         <v>8</v>
       </c>
@@ -9168,7 +9304,7 @@
       </c>
       <c r="D199" s="21"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="19">
         <v>8</v>
       </c>
@@ -9180,7 +9316,7 @@
       </c>
       <c r="D200" s="21"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="19">
         <v>8</v>
       </c>
@@ -9192,7 +9328,7 @@
       </c>
       <c r="D201" s="21"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="19">
         <v>8</v>
       </c>
@@ -9204,7 +9340,7 @@
       </c>
       <c r="D202" s="21"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="19">
         <v>8</v>
       </c>
@@ -9216,7 +9352,7 @@
       </c>
       <c r="D203" s="21"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="19">
         <v>8</v>
       </c>
@@ -9228,7 +9364,7 @@
       </c>
       <c r="D204" s="21"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="19">
         <v>8</v>
       </c>
@@ -9240,7 +9376,7 @@
       </c>
       <c r="D205" s="21"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="19">
         <v>8</v>
       </c>
@@ -9252,7 +9388,7 @@
       </c>
       <c r="D206" s="21"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="19">
         <v>8</v>
       </c>
@@ -9264,7 +9400,7 @@
       </c>
       <c r="D207" s="21"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="19">
         <v>8</v>
       </c>
@@ -9276,7 +9412,7 @@
       </c>
       <c r="D208" s="21"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="19">
         <v>8</v>
       </c>
@@ -9288,7 +9424,7 @@
       </c>
       <c r="D209" s="21"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="19">
         <v>8</v>
       </c>
@@ -9300,7 +9436,7 @@
       </c>
       <c r="D210" s="21"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="19">
         <v>8</v>
       </c>
@@ -9312,7 +9448,7 @@
       </c>
       <c r="D211" s="21"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="19">
         <v>8</v>
       </c>
@@ -9324,7 +9460,7 @@
       </c>
       <c r="D212" s="21"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="19">
         <v>8</v>
       </c>
@@ -9336,7 +9472,7 @@
       </c>
       <c r="D213" s="21"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="19">
         <v>9</v>
       </c>
@@ -9348,7 +9484,7 @@
       </c>
       <c r="D214" s="21"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="19">
         <v>9</v>
       </c>
@@ -9360,7 +9496,7 @@
       </c>
       <c r="D215" s="21"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="19">
         <v>9</v>
       </c>
@@ -9372,7 +9508,7 @@
       </c>
       <c r="D216" s="21"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="19">
         <v>9</v>
       </c>
@@ -9384,7 +9520,7 @@
       </c>
       <c r="D217" s="21"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="19">
         <v>9</v>
       </c>
@@ -9396,7 +9532,7 @@
       </c>
       <c r="D218" s="21"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="19">
         <v>9</v>
       </c>
@@ -9408,7 +9544,7 @@
       </c>
       <c r="D219" s="21"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="19">
         <v>9</v>
       </c>
@@ -9420,7 +9556,7 @@
       </c>
       <c r="D220" s="21"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="19">
         <v>9</v>
       </c>
@@ -9432,7 +9568,7 @@
       </c>
       <c r="D221" s="21"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="19">
         <v>9</v>
       </c>
@@ -9444,7 +9580,7 @@
       </c>
       <c r="D222" s="21"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="19">
         <v>9</v>
       </c>
@@ -9456,7 +9592,7 @@
       </c>
       <c r="D223" s="21"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="19">
         <v>9</v>
       </c>
@@ -9468,7 +9604,7 @@
       </c>
       <c r="D224" s="21"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="19">
         <v>9</v>
       </c>
@@ -9480,7 +9616,7 @@
       </c>
       <c r="D225" s="21"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="19">
         <v>9</v>
       </c>
@@ -9492,7 +9628,7 @@
       </c>
       <c r="D226" s="21"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="19">
         <v>9</v>
       </c>
@@ -9504,7 +9640,7 @@
       </c>
       <c r="D227" s="21"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="19">
         <v>9</v>
       </c>
@@ -9516,7 +9652,7 @@
       </c>
       <c r="D228" s="21"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="19">
         <v>9</v>
       </c>
@@ -9528,7 +9664,7 @@
       </c>
       <c r="D229" s="21"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="19">
         <v>9</v>
       </c>
@@ -9540,7 +9676,7 @@
       </c>
       <c r="D230" s="21"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="19">
         <v>9</v>
       </c>
@@ -9552,7 +9688,7 @@
       </c>
       <c r="D231" s="21"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="19">
         <v>9</v>
       </c>
@@ -9564,7 +9700,7 @@
       </c>
       <c r="D232" s="21"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="19">
         <v>9</v>
       </c>
@@ -9576,7 +9712,7 @@
       </c>
       <c r="D233" s="21"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="19">
         <v>9</v>
       </c>
@@ -9588,7 +9724,7 @@
       </c>
       <c r="D234" s="21"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="19">
         <v>9</v>
       </c>
@@ -9600,7 +9736,7 @@
       </c>
       <c r="D235" s="21"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="19">
         <v>9</v>
       </c>
@@ -9612,7 +9748,7 @@
       </c>
       <c r="D236" s="21"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="19">
         <v>9</v>
       </c>
@@ -9624,7 +9760,7 @@
       </c>
       <c r="D237" s="21"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="19">
         <v>10</v>
       </c>
@@ -9636,7 +9772,7 @@
       </c>
       <c r="D238" s="21"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="19">
         <v>10</v>
       </c>
@@ -9648,7 +9784,7 @@
       </c>
       <c r="D239" s="21"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="19">
         <v>10</v>
       </c>
@@ -9660,7 +9796,7 @@
       </c>
       <c r="D240" s="21"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="19">
         <v>10</v>
       </c>
@@ -9672,7 +9808,7 @@
       </c>
       <c r="D241" s="21"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="19">
         <v>10</v>
       </c>
@@ -9684,7 +9820,7 @@
       </c>
       <c r="D242" s="21"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="19">
         <v>10</v>
       </c>
@@ -9696,7 +9832,7 @@
       </c>
       <c r="D243" s="21"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="19">
         <v>10</v>
       </c>
@@ -9708,7 +9844,7 @@
       </c>
       <c r="D244" s="21"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="19">
         <v>10</v>
       </c>
@@ -9720,7 +9856,7 @@
       </c>
       <c r="D245" s="21"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="19">
         <v>10</v>
       </c>
@@ -9732,7 +9868,7 @@
       </c>
       <c r="D246" s="21"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="19">
         <v>10</v>
       </c>
@@ -9744,7 +9880,7 @@
       </c>
       <c r="D247" s="21"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="19">
         <v>10</v>
       </c>
@@ -9756,7 +9892,7 @@
       </c>
       <c r="D248" s="21"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="19">
         <v>10</v>
       </c>
@@ -9768,7 +9904,7 @@
       </c>
       <c r="D249" s="21"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="19">
         <v>10</v>
       </c>
@@ -9780,7 +9916,7 @@
       </c>
       <c r="D250" s="21"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="19">
         <v>10</v>
       </c>
@@ -9792,7 +9928,7 @@
       </c>
       <c r="D251" s="21"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="19">
         <v>10</v>
       </c>
@@ -9804,7 +9940,7 @@
       </c>
       <c r="D252" s="21"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="19">
         <v>10</v>
       </c>
@@ -9816,7 +9952,7 @@
       </c>
       <c r="D253" s="21"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="19">
         <v>10</v>
       </c>
@@ -9828,7 +9964,7 @@
       </c>
       <c r="D254" s="21"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="19">
         <v>10</v>
       </c>
@@ -9840,7 +9976,7 @@
       </c>
       <c r="D255" s="21"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="19">
         <v>10</v>
       </c>
@@ -9852,7 +9988,7 @@
       </c>
       <c r="D256" s="21"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="19">
         <v>10</v>
       </c>
@@ -9864,7 +10000,7 @@
       </c>
       <c r="D257" s="21"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="19">
         <v>10</v>
       </c>
@@ -9876,7 +10012,7 @@
       </c>
       <c r="D258" s="21"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="19">
         <v>10</v>
       </c>
@@ -9888,7 +10024,7 @@
       </c>
       <c r="D259" s="21"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="19">
         <v>10</v>
       </c>
@@ -9900,7 +10036,7 @@
       </c>
       <c r="D260" s="21"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="19">
         <v>10</v>
       </c>
@@ -9912,7 +10048,7 @@
       </c>
       <c r="D261" s="21"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="19">
         <v>11</v>
       </c>
@@ -9924,7 +10060,7 @@
       </c>
       <c r="D262" s="21"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="19">
         <v>11</v>
       </c>
@@ -9936,7 +10072,7 @@
       </c>
       <c r="D263" s="21"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="19">
         <v>11</v>
       </c>
@@ -9948,7 +10084,7 @@
       </c>
       <c r="D264" s="21"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="19">
         <v>11</v>
       </c>
@@ -9960,7 +10096,7 @@
       </c>
       <c r="D265" s="21"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="19">
         <v>11</v>
       </c>
@@ -9972,7 +10108,7 @@
       </c>
       <c r="D266" s="21"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="19">
         <v>11</v>
       </c>
@@ -9984,7 +10120,7 @@
       </c>
       <c r="D267" s="21"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="19">
         <v>11</v>
       </c>
@@ -9996,7 +10132,7 @@
       </c>
       <c r="D268" s="21"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="19">
         <v>11</v>
       </c>
@@ -10008,7 +10144,7 @@
       </c>
       <c r="D269" s="21"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="19">
         <v>11</v>
       </c>
@@ -10020,7 +10156,7 @@
       </c>
       <c r="D270" s="21"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="19">
         <v>11</v>
       </c>
@@ -10032,7 +10168,7 @@
       </c>
       <c r="D271" s="21"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="19">
         <v>11</v>
       </c>
@@ -10044,7 +10180,7 @@
       </c>
       <c r="D272" s="21"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="19">
         <v>11</v>
       </c>
@@ -10056,7 +10192,7 @@
       </c>
       <c r="D273" s="21"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="19">
         <v>11</v>
       </c>
@@ -10068,7 +10204,7 @@
       </c>
       <c r="D274" s="21"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="19">
         <v>11</v>
       </c>
@@ -10080,7 +10216,7 @@
       </c>
       <c r="D275" s="21"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="19">
         <v>11</v>
       </c>
@@ -10092,7 +10228,7 @@
       </c>
       <c r="D276" s="21"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="19">
         <v>11</v>
       </c>
@@ -10104,7 +10240,7 @@
       </c>
       <c r="D277" s="21"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="19">
         <v>11</v>
       </c>
@@ -10116,7 +10252,7 @@
       </c>
       <c r="D278" s="21"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="19">
         <v>11</v>
       </c>
@@ -10128,7 +10264,7 @@
       </c>
       <c r="D279" s="21"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="19">
         <v>11</v>
       </c>
@@ -10140,7 +10276,7 @@
       </c>
       <c r="D280" s="21"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="19">
         <v>11</v>
       </c>
@@ -10152,7 +10288,7 @@
       </c>
       <c r="D281" s="21"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="19">
         <v>11</v>
       </c>
@@ -10164,7 +10300,7 @@
       </c>
       <c r="D282" s="21"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="19">
         <v>11</v>
       </c>
@@ -10176,7 +10312,7 @@
       </c>
       <c r="D283" s="21"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="19">
         <v>11</v>
       </c>
@@ -10188,7 +10324,7 @@
       </c>
       <c r="D284" s="21"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="19">
         <v>11</v>
       </c>
@@ -10200,7 +10336,7 @@
       </c>
       <c r="D285" s="21"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="19">
         <v>12</v>
       </c>
@@ -10212,7 +10348,7 @@
       </c>
       <c r="D286" s="21"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="19">
         <v>12</v>
       </c>
@@ -10224,7 +10360,7 @@
       </c>
       <c r="D287" s="21"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="19">
         <v>12</v>
       </c>
@@ -10236,7 +10372,7 @@
       </c>
       <c r="D288" s="21"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="19">
         <v>12</v>
       </c>
@@ -10248,7 +10384,7 @@
       </c>
       <c r="D289" s="21"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="19">
         <v>12</v>
       </c>
@@ -10260,7 +10396,7 @@
       </c>
       <c r="D290" s="21"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="19">
         <v>12</v>
       </c>
@@ -10272,7 +10408,7 @@
       </c>
       <c r="D291" s="21"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="19">
         <v>12</v>
       </c>
@@ -10284,7 +10420,7 @@
       </c>
       <c r="D292" s="21"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="19">
         <v>12</v>
       </c>
@@ -10296,7 +10432,7 @@
       </c>
       <c r="D293" s="21"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="19">
         <v>12</v>
       </c>
@@ -10308,7 +10444,7 @@
       </c>
       <c r="D294" s="21"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="19">
         <v>12</v>
       </c>
@@ -10320,7 +10456,7 @@
       </c>
       <c r="D295" s="21"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="19">
         <v>12</v>
       </c>
@@ -10332,7 +10468,7 @@
       </c>
       <c r="D296" s="21"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="19">
         <v>12</v>
       </c>
@@ -10344,7 +10480,7 @@
       </c>
       <c r="D297" s="21"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="19">
         <v>12</v>
       </c>
@@ -10356,7 +10492,7 @@
       </c>
       <c r="D298" s="21"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="19">
         <v>12</v>
       </c>
@@ -10368,7 +10504,7 @@
       </c>
       <c r="D299" s="21"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="19">
         <v>12</v>
       </c>
@@ -10380,7 +10516,7 @@
       </c>
       <c r="D300" s="21"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="19">
         <v>12</v>
       </c>
@@ -10392,7 +10528,7 @@
       </c>
       <c r="D301" s="21"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="19">
         <v>12</v>
       </c>
@@ -10404,7 +10540,7 @@
       </c>
       <c r="D302" s="21"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="19">
         <v>12</v>
       </c>
@@ -10416,7 +10552,7 @@
       </c>
       <c r="D303" s="21"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="19">
         <v>12</v>
       </c>
@@ -10428,7 +10564,7 @@
       </c>
       <c r="D304" s="21"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="19">
         <v>12</v>
       </c>
@@ -10440,7 +10576,7 @@
       </c>
       <c r="D305" s="21"/>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="19">
         <v>12</v>
       </c>
@@ -10452,7 +10588,7 @@
       </c>
       <c r="D306" s="21"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="19">
         <v>12</v>
       </c>
@@ -10464,7 +10600,7 @@
       </c>
       <c r="D307" s="21"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="19">
         <v>12</v>
       </c>
@@ -10476,7 +10612,7 @@
       </c>
       <c r="D308" s="21"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="19">
         <v>12</v>
       </c>
@@ -10498,22 +10634,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DB8147-C519-5348-8792-752E0D8AD16E}">
   <dimension ref="B2:N130"/>
   <sheetViews>
-    <sheetView topLeftCell="E21" zoomScale="99" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="11" width="24.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="11" width="24.83203125" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="102"/>
       <c r="C2" s="108"/>
       <c r="D2" s="52"/>
@@ -10526,7 +10662,7 @@
       <c r="K2" s="52"/>
       <c r="L2" s="53"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="103"/>
       <c r="C3" s="12"/>
       <c r="D3" s="55"/>
@@ -10538,42 +10674,42 @@
       <c r="J3" s="54"/>
       <c r="L3" s="66"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="103"/>
       <c r="C4" s="12"/>
       <c r="H4" s="57"/>
       <c r="J4" s="54"/>
       <c r="L4" s="57"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="103"/>
       <c r="C5" s="12"/>
       <c r="H5" s="57"/>
       <c r="J5" s="54"/>
       <c r="L5" s="57"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="103"/>
       <c r="C6" s="12"/>
       <c r="H6" s="57"/>
       <c r="J6" s="54"/>
       <c r="L6" s="57"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="103"/>
       <c r="C7" s="12"/>
       <c r="H7" s="57"/>
       <c r="J7" s="54"/>
       <c r="L7" s="57"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="103"/>
       <c r="C8" s="12"/>
       <c r="H8" s="57"/>
       <c r="J8" s="54"/>
       <c r="L8" s="57"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="103"/>
       <c r="C9" s="12"/>
       <c r="D9" s="58"/>
@@ -10586,7 +10722,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="70"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="103"/>
       <c r="C10" s="12"/>
       <c r="D10" s="92"/>
@@ -10599,7 +10735,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="98"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="103"/>
       <c r="C11" s="12"/>
       <c r="D11" s="92"/>
@@ -10612,7 +10748,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="98"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="103"/>
       <c r="C12" s="12"/>
       <c r="D12" s="92"/>
@@ -10625,7 +10761,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="98"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="103"/>
       <c r="C13" s="12"/>
       <c r="D13" s="92"/>
@@ -10638,7 +10774,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="70"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="104"/>
       <c r="C14" s="12"/>
       <c r="D14" s="94"/>
@@ -10651,7 +10787,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="70"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="105"/>
       <c r="C15" s="12"/>
       <c r="D15" s="94"/>
@@ -10663,7 +10799,7 @@
       <c r="J15" s="67"/>
       <c r="L15" s="101"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="106"/>
       <c r="C16" s="12"/>
       <c r="D16" s="101"/>
@@ -10675,7 +10811,7 @@
       <c r="J16" s="67"/>
       <c r="L16" s="91"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="107"/>
       <c r="C17" s="109"/>
       <c r="D17" s="96"/>
@@ -10688,7 +10824,7 @@
       <c r="L17" s="99"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="105"/>
       <c r="C18" s="12"/>
       <c r="D18" s="94"/>
@@ -10699,7 +10835,7 @@
       <c r="J18" s="68"/>
       <c r="L18" s="99"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="94"/>
@@ -10710,7 +10846,7 @@
       <c r="J19" s="69"/>
       <c r="L19" s="70"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="103"/>
       <c r="C20" s="12"/>
       <c r="D20" s="94"/>
@@ -10722,7 +10858,7 @@
       <c r="K20" s="72"/>
       <c r="L20" s="100"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="94"/>
@@ -10732,458 +10868,458 @@
       <c r="H21" s="95"/>
       <c r="L21" s="90"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L22" s="90"/>
     </row>
-    <row r="24" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="117" t="s">
+    <row r="24" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="118" t="s">
+      <c r="C24" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="116" t="s">
+      <c r="D24" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="E24" s="116" t="s">
+      <c r="E24" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="F24" s="116" t="s">
+      <c r="F24" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="G24" s="116" t="s">
+      <c r="G24" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="H24" s="116" t="s">
+      <c r="H24" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="J24" s="117" t="s">
+      <c r="J24" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="K24" s="118" t="s">
+      <c r="K24" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="L24" s="121" t="s">
+      <c r="L24" s="116" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="104" t="s">
+    <row r="25" spans="2:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="B25" s="122" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="111" t="s">
+      <c r="C25" s="123"/>
+      <c r="D25" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="111" t="s">
+      <c r="E25" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="111" t="s">
+      <c r="F25" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="111" t="s">
+      <c r="G25" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="112" t="s">
+      <c r="H25" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="119" t="s">
+      <c r="J25" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="K25" s="119"/>
-      <c r="L25" s="116" t="s">
+      <c r="K25" s="115"/>
+      <c r="L25" s="112" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="104" t="s">
+    <row r="26" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="127"/>
+      <c r="D26" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="113" t="s">
+      <c r="H26" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="119" t="s">
+      <c r="J26" s="115" t="s">
         <v>179</v>
       </c>
-      <c r="K26" s="119"/>
+      <c r="K26" s="115"/>
       <c r="L26" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="104" t="s">
+    <row r="27" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="126" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="127"/>
+      <c r="D27" s="128" t="s">
         <v>194</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="128" t="s">
         <v>195</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="128" t="s">
         <v>194</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="129" t="s">
         <v>195</v>
       </c>
-      <c r="J27" s="119" t="s">
+      <c r="J27" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="K27" s="119"/>
+      <c r="K27" s="115"/>
       <c r="L27" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="104" t="s">
+    <row r="28" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="126" t="s">
         <v>198</v>
       </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="127"/>
+      <c r="D28" s="128" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="128" t="s">
         <v>196</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="128" t="s">
         <v>196</v>
       </c>
-      <c r="H28" s="113" t="s">
+      <c r="H28" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="119" t="s">
+      <c r="J28" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="K28" s="119"/>
+      <c r="K28" s="115"/>
       <c r="L28" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="120" t="s">
+    <row r="29" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="130" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="114">
+      <c r="C29" s="127"/>
+      <c r="D29" s="131">
         <v>0.05</v>
       </c>
-      <c r="E29" s="114">
+      <c r="E29" s="131">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F29" s="114">
+      <c r="F29" s="131">
         <v>0.05</v>
       </c>
-      <c r="G29" s="114">
+      <c r="G29" s="131">
         <v>0.05</v>
       </c>
-      <c r="H29" s="114">
+      <c r="H29" s="132">
         <v>0.05</v>
       </c>
-      <c r="J29" s="119" t="s">
+      <c r="J29" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="K29" s="122" t="s">
+      <c r="K29" s="117" t="s">
         <v>200</v>
       </c>
-      <c r="L29" s="123">
+      <c r="L29" s="118">
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="104" t="s">
+    <row r="30" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="119" t="s">
+      <c r="C30" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="115">
+      <c r="D30" s="133">
         <v>1120</v>
       </c>
-      <c r="E30" s="115">
+      <c r="E30" s="133">
         <v>2500</v>
       </c>
-      <c r="F30" s="115">
-        <v>0</v>
-      </c>
-      <c r="G30" s="115">
+      <c r="F30" s="133">
+        <v>0</v>
+      </c>
+      <c r="G30" s="133">
         <v>1120</v>
       </c>
-      <c r="H30" s="115">
+      <c r="H30" s="134">
         <v>2500</v>
       </c>
-      <c r="J30" s="119" t="s">
+      <c r="J30" s="115" t="s">
         <v>188</v>
       </c>
-      <c r="K30" s="119" t="s">
+      <c r="K30" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="L30" s="124">
+      <c r="L30" s="119">
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="104" t="s">
+    <row r="31" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="126" t="s">
         <v>181</v>
       </c>
-      <c r="C31" s="119" t="s">
+      <c r="C31" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="115">
-        <v>0</v>
-      </c>
-      <c r="E31" s="115">
-        <v>0</v>
-      </c>
-      <c r="F31" s="115">
+      <c r="D31" s="133">
+        <v>0</v>
+      </c>
+      <c r="E31" s="133">
+        <v>0</v>
+      </c>
+      <c r="F31" s="133">
         <v>32000000</v>
       </c>
-      <c r="G31" s="115">
-        <v>0</v>
-      </c>
-      <c r="H31" s="115">
-        <v>0</v>
-      </c>
-      <c r="J31" s="125" t="s">
+      <c r="G31" s="133">
+        <v>0</v>
+      </c>
+      <c r="H31" s="134">
+        <v>0</v>
+      </c>
+      <c r="J31" s="120" t="s">
         <v>185</v>
       </c>
-      <c r="K31" s="119"/>
-      <c r="L31" s="126">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="104" t="s">
+      <c r="K31" s="115"/>
+      <c r="L31" s="111">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="126" t="s">
         <v>182</v>
       </c>
-      <c r="C32" s="119" t="s">
+      <c r="C32" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="115">
+      <c r="D32" s="133">
         <v>35000</v>
       </c>
-      <c r="E32" s="115">
+      <c r="E32" s="133">
         <v>60000</v>
       </c>
-      <c r="F32" s="115">
-        <v>0</v>
-      </c>
-      <c r="G32" s="115">
+      <c r="F32" s="133">
+        <v>0</v>
+      </c>
+      <c r="G32" s="133">
         <v>35000</v>
       </c>
-      <c r="H32" s="115">
+      <c r="H32" s="134">
         <v>45000</v>
       </c>
-      <c r="J32" s="119" t="s">
+      <c r="J32" s="115" t="s">
         <v>155</v>
       </c>
-      <c r="K32" s="122" t="s">
+      <c r="K32" s="117" t="s">
         <v>36</v>
       </c>
       <c r="L32" s="110">
         <v>45000000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="104" t="s">
+    <row r="33" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="C33" s="119" t="s">
+      <c r="C33" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="D33" s="115">
+      <c r="D33" s="133">
         <v>2</v>
       </c>
-      <c r="E33" s="115">
+      <c r="E33" s="133">
         <v>1</v>
       </c>
-      <c r="F33" s="115">
+      <c r="F33" s="133">
         <v>1</v>
       </c>
-      <c r="G33" s="115">
+      <c r="G33" s="133">
         <v>2</v>
       </c>
-      <c r="H33" s="115">
+      <c r="H33" s="134">
         <v>1</v>
       </c>
-      <c r="J33" s="119" t="s">
+      <c r="J33" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="K33" s="122" t="s">
+      <c r="K33" s="117" t="s">
         <v>46</v>
       </c>
       <c r="L33" s="110">
         <v>1800000</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="120" t="s">
+    <row r="34" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="C34" s="119" t="s">
+      <c r="C34" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="115">
+      <c r="D34" s="133">
         <v>4</v>
       </c>
-      <c r="E34" s="115">
+      <c r="E34" s="133">
         <v>4</v>
       </c>
-      <c r="F34" s="115">
+      <c r="F34" s="133">
         <v>4</v>
       </c>
-      <c r="G34" s="115">
+      <c r="G34" s="133">
         <v>4</v>
       </c>
-      <c r="H34" s="115">
+      <c r="H34" s="134">
         <v>8</v>
       </c>
-      <c r="J34" s="119" t="s">
+      <c r="J34" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="K34" s="122" t="s">
+      <c r="K34" s="117" t="s">
         <v>40</v>
       </c>
       <c r="L34" s="110">
         <v>1500</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="120" t="s">
+    <row r="35" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="C35" s="119" t="s">
+      <c r="C35" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="115">
+      <c r="D35" s="133">
         <v>2</v>
       </c>
-      <c r="E35" s="115">
-        <v>0</v>
-      </c>
-      <c r="F35" s="115">
-        <v>0</v>
-      </c>
-      <c r="G35" s="115">
+      <c r="E35" s="133">
+        <v>0</v>
+      </c>
+      <c r="F35" s="133">
+        <v>0</v>
+      </c>
+      <c r="G35" s="133">
         <v>2</v>
       </c>
-      <c r="H35" s="115">
-        <v>0</v>
-      </c>
-      <c r="J35" s="119" t="s">
+      <c r="H35" s="134">
+        <v>0</v>
+      </c>
+      <c r="J35" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="K35" s="119" t="s">
+      <c r="K35" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="L35" s="123">
+      <c r="L35" s="118">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="119" t="s">
+    <row r="36" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="C36" s="119" t="s">
+      <c r="C36" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="115">
-        <v>0</v>
-      </c>
-      <c r="E36" s="115">
+      <c r="D36" s="133">
+        <v>0</v>
+      </c>
+      <c r="E36" s="133">
         <v>25</v>
       </c>
-      <c r="F36" s="115">
+      <c r="F36" s="133">
         <v>100</v>
       </c>
-      <c r="G36" s="115">
-        <v>0</v>
-      </c>
-      <c r="H36" s="115">
+      <c r="G36" s="133">
+        <v>0</v>
+      </c>
+      <c r="H36" s="134">
         <v>10</v>
       </c>
-      <c r="J36" s="119" t="s">
+      <c r="J36" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="K36" s="119" t="s">
+      <c r="K36" s="115" t="s">
         <v>184</v>
       </c>
-      <c r="L36" s="124">
+      <c r="L36" s="119">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="119" t="s">
+    <row r="37" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="119" t="s">
+      <c r="C37" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="115">
-        <v>0</v>
-      </c>
-      <c r="E37" s="115">
-        <v>0</v>
-      </c>
-      <c r="F37" s="115">
-        <v>0</v>
-      </c>
-      <c r="G37" s="115">
-        <v>0</v>
-      </c>
-      <c r="H37" s="115">
+      <c r="D37" s="137">
+        <v>0</v>
+      </c>
+      <c r="E37" s="137">
+        <v>0</v>
+      </c>
+      <c r="F37" s="137">
+        <v>0</v>
+      </c>
+      <c r="G37" s="137">
+        <v>0</v>
+      </c>
+      <c r="H37" s="138">
         <v>6000</v>
       </c>
-      <c r="J37" s="125" t="s">
+      <c r="J37" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="K37" s="119" t="s">
+      <c r="K37" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="L37" s="124">
+      <c r="L37" s="119">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J38" s="122" t="s">
+    <row r="38" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J38" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="K38" s="119"/>
-      <c r="L38" s="126">
+      <c r="K38" s="115"/>
+      <c r="L38" s="121">
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J39" s="119" t="s">
+    <row r="39" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J39" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="K39" s="119" t="s">
+      <c r="K39" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="L39" s="124">
+      <c r="L39" s="119">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" s="51" t="s">
         <v>0</v>
       </c>
@@ -11206,7 +11342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B41" s="54" t="s">
         <v>10</v>
       </c>
@@ -11226,7 +11362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="54" t="s">
         <v>17</v>
       </c>
@@ -11246,7 +11382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="54" t="s">
         <v>20</v>
       </c>
@@ -11266,7 +11402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="54" t="s">
         <v>24</v>
       </c>
@@ -11286,7 +11422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="54" t="s">
         <v>27</v>
       </c>
@@ -11306,7 +11442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="54" t="s">
         <v>30</v>
       </c>
@@ -11326,7 +11462,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="54" t="s">
         <v>35</v>
       </c>
@@ -11349,7 +11485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="54" t="s">
         <v>39</v>
       </c>
@@ -11372,7 +11508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="54" t="s">
         <v>42</v>
       </c>
@@ -11395,7 +11531,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="54" t="s">
         <v>45</v>
       </c>
@@ -11418,7 +11554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="54" t="s">
         <v>49</v>
       </c>
@@ -11441,7 +11577,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="60" t="s">
         <v>52</v>
       </c>
@@ -11464,7 +11600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="62" t="s">
         <v>56</v>
       </c>
@@ -11487,7 +11623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="63" t="s">
         <v>58</v>
       </c>
@@ -11507,7 +11643,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" s="62" t="s">
         <v>61</v>
       </c>
@@ -11530,7 +11666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B56" s="64" t="s">
         <v>64</v>
       </c>
@@ -11553,7 +11689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" s="62" t="s">
         <v>66</v>
       </c>
@@ -11576,7 +11712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>69</v>
       </c>
@@ -11599,7 +11735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="67" t="s">
         <v>37</v>
       </c>
@@ -11619,7 +11755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>72</v>
       </c>
@@ -11642,7 +11778,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="51" t="s">
         <v>0</v>
       </c>
@@ -11665,7 +11801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B64" s="54" t="s">
         <v>10</v>
       </c>
@@ -11685,7 +11821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="54" t="s">
         <v>17</v>
       </c>
@@ -11705,7 +11841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="54" t="s">
         <v>20</v>
       </c>
@@ -11725,7 +11861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="54" t="s">
         <v>24</v>
       </c>
@@ -11745,7 +11881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="54" t="s">
         <v>27</v>
       </c>
@@ -11765,7 +11901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="54" t="s">
         <v>30</v>
       </c>
@@ -11785,7 +11921,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="54" t="s">
         <v>35</v>
       </c>
@@ -11808,7 +11944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="54" t="s">
         <v>39</v>
       </c>
@@ -11831,7 +11967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="54" t="s">
         <v>42</v>
       </c>
@@ -11854,7 +11990,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="54" t="s">
         <v>45</v>
       </c>
@@ -11877,7 +12013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="54" t="s">
         <v>49</v>
       </c>
@@ -11900,7 +12036,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" s="60" t="s">
         <v>52</v>
       </c>
@@ -11923,7 +12059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B76" s="62" t="s">
         <v>56</v>
       </c>
@@ -11946,7 +12082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B77" s="63" t="s">
         <v>58</v>
       </c>
@@ -11966,7 +12102,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B78" s="62" t="s">
         <v>61</v>
       </c>
@@ -11989,7 +12125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B79" s="64" t="s">
         <v>64</v>
       </c>
@@ -12012,7 +12148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B80" s="62" t="s">
         <v>66</v>
       </c>
@@ -12035,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>69</v>
       </c>
@@ -12058,7 +12194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="67" t="s">
         <v>37</v>
       </c>
@@ -12078,7 +12214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>72</v>
       </c>
@@ -12101,7 +12237,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="51" t="s">
         <v>0</v>
       </c>
@@ -12124,7 +12260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B87" s="54" t="s">
         <v>10</v>
       </c>
@@ -12144,7 +12280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B88" s="54" t="s">
         <v>17</v>
       </c>
@@ -12164,7 +12300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" s="54" t="s">
         <v>20</v>
       </c>
@@ -12184,7 +12320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90" s="54" t="s">
         <v>24</v>
       </c>
@@ -12204,7 +12340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B91" s="54" t="s">
         <v>27</v>
       </c>
@@ -12224,7 +12360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B92" s="54" t="s">
         <v>30</v>
       </c>
@@ -12244,7 +12380,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B93" s="54" t="s">
         <v>35</v>
       </c>
@@ -12267,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B94" s="54" t="s">
         <v>39</v>
       </c>
@@ -12290,7 +12426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" s="54" t="s">
         <v>42</v>
       </c>
@@ -12313,7 +12449,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B96" s="54" t="s">
         <v>45</v>
       </c>
@@ -12336,7 +12472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B97" s="54" t="s">
         <v>49</v>
       </c>
@@ -12359,7 +12495,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B98" s="60" t="s">
         <v>52</v>
       </c>
@@ -12382,7 +12518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B99" s="62" t="s">
         <v>56</v>
       </c>
@@ -12405,7 +12541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B100" s="63" t="s">
         <v>58</v>
       </c>
@@ -12425,7 +12561,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B101" s="62" t="s">
         <v>61</v>
       </c>
@@ -12448,7 +12584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B102" s="64" t="s">
         <v>64</v>
       </c>
@@ -12471,7 +12607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B103" s="62" t="s">
         <v>66</v>
       </c>
@@ -12494,7 +12630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>69</v>
       </c>
@@ -12517,7 +12653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B105" s="67" t="s">
         <v>37</v>
       </c>
@@ -12537,7 +12673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>72</v>
       </c>
@@ -12560,112 +12696,112 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E110" s="52"/>
       <c r="F110" s="52"/>
       <c r="G110" s="52"/>
       <c r="H110" s="53"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E111" s="55"/>
       <c r="F111" s="55"/>
       <c r="G111" s="55"/>
       <c r="H111" s="56"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H112" s="57"/>
     </row>
-    <row r="113" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H113" s="57"/>
     </row>
-    <row r="114" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H114" s="57"/>
     </row>
-    <row r="115" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H115" s="57"/>
     </row>
-    <row r="116" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H116" s="57"/>
     </row>
-    <row r="117" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E117" s="58"/>
       <c r="F117" s="58"/>
       <c r="G117" s="58"/>
       <c r="H117" s="59"/>
     </row>
-    <row r="118" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E118" s="92"/>
       <c r="F118" s="92"/>
       <c r="G118" s="92"/>
       <c r="H118" s="93"/>
     </row>
-    <row r="119" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E119" s="92"/>
       <c r="F119" s="92"/>
       <c r="G119" s="92"/>
       <c r="H119" s="93"/>
     </row>
-    <row r="120" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E120" s="92"/>
       <c r="F120" s="92"/>
       <c r="G120" s="92"/>
       <c r="H120" s="93"/>
     </row>
-    <row r="121" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E121" s="92"/>
       <c r="F121" s="92"/>
       <c r="G121" s="92"/>
       <c r="H121" s="93"/>
     </row>
-    <row r="122" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E122" s="94"/>
       <c r="F122" s="94"/>
       <c r="G122" s="94"/>
       <c r="H122" s="95"/>
     </row>
-    <row r="123" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E123" s="94"/>
       <c r="F123" s="94"/>
       <c r="G123" s="94"/>
       <c r="H123" s="95"/>
     </row>
-    <row r="124" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E124" s="101"/>
       <c r="F124" s="101"/>
       <c r="G124" s="101"/>
       <c r="H124" s="101"/>
     </row>
-    <row r="125" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E125" s="94"/>
       <c r="F125" s="94"/>
       <c r="G125" s="94"/>
       <c r="H125" s="95"/>
     </row>
-    <row r="126" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E126" s="96"/>
       <c r="F126" s="96"/>
       <c r="G126" s="96"/>
       <c r="H126" s="97"/>
     </row>
-    <row r="127" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E127" s="94"/>
       <c r="F127" s="94"/>
       <c r="G127" s="94"/>
       <c r="H127" s="95"/>
     </row>
-    <row r="128" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E128" s="94"/>
       <c r="F128" s="94"/>
       <c r="G128" s="94"/>
       <c r="H128" s="95"/>
     </row>
-    <row r="129" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E129" s="94"/>
       <c r="F129" s="94"/>
       <c r="G129" s="94"/>
       <c r="H129" s="95"/>
     </row>
-    <row r="130" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E130" s="94"/>
       <c r="F130" s="94"/>
       <c r="G130" s="94"/>
@@ -12681,6 +12817,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="78d2dcdf-d17c-4586-ad68-d792bc06c6b5" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7049AB24443724EAB1CFD3B2AF1ADB5" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c30c205005472c154e057e99ca4cd82">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ad74739f-b6c5-48e8-a4a2-e396fec78e6b" xmlns:ns3="78d2dcdf-d17c-4586-ad68-d792bc06c6b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7233ea2167b9792fbdd1e6ef7896b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="ad74739f-b6c5-48e8-a4a2-e396fec78e6b"/>
@@ -12935,18 +13083,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="78d2dcdf-d17c-4586-ad68-d792bc06c6b5" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12957,6 +13093,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77CC7F60-97FA-47D2-813C-DE1DF9F0EBEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ad74739f-b6c5-48e8-a4a2-e396fec78e6b"/>
+    <ds:schemaRef ds:uri="78d2dcdf-d17c-4586-ad68-d792bc06c6b5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABB7A950-A73B-49B6-A697-FA122F26FFD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12975,17 +13122,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77CC7F60-97FA-47D2-813C-DE1DF9F0EBEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ad74739f-b6c5-48e8-a4a2-e396fec78e6b"/>
-    <ds:schemaRef ds:uri="78d2dcdf-d17c-4586-ad68-d792bc06c6b5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A7ADAC-11AC-4699-B4EA-2CE8EDD8A75B}">
   <ds:schemaRefs>

--- a/data/input_data.xlsx
+++ b/data/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mustafacressive.com/Personal/KPWS/EEMv2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevWork\EEM-2\EEM-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97009F02-5A2D-DD49-8911-EA894F65D938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD394DBB-2E02-4657-BFDD-C019D2BD80BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="src" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="217">
   <si>
     <t>ATTRIBUTE</t>
   </si>
@@ -166,9 +166,6 @@
     <t>PKR per MWh</t>
   </si>
   <si>
-    <t>Rs./MW</t>
-  </si>
-  <si>
     <t>min_annual_off_take</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
     <t>opex_baseline_var</t>
   </si>
   <si>
-    <t>Rs. Per MWh</t>
-  </si>
-  <si>
     <t>tariff_baseline_var</t>
   </si>
   <si>
@@ -262,9 +256,6 @@
     <t>fuel_cost</t>
   </si>
   <si>
-    <t>Rs./liter</t>
-  </si>
-  <si>
     <t>Load Projection</t>
   </si>
   <si>
@@ -298,9 +289,6 @@
     <t>loss_during_failure</t>
   </si>
   <si>
-    <t>PKR/hr</t>
-  </si>
-  <si>
     <t>Fuel Tariffs</t>
   </si>
   <si>
@@ -661,7 +649,49 @@
     <t>Est. downtime per failure</t>
   </si>
   <si>
-    <t>Rs./ MW/ year</t>
+    <t>$ per MWh</t>
+  </si>
+  <si>
+    <t>$/MW</t>
+  </si>
+  <si>
+    <t>$/ MW/ year</t>
+  </si>
+  <si>
+    <t>$ Per MWh</t>
+  </si>
+  <si>
+    <t>$ per MW per year</t>
+  </si>
+  <si>
+    <t>$ per MW</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t>solar only</t>
+  </si>
+  <si>
+    <t>bess</t>
+  </si>
+  <si>
+    <t>calc of solar + bess</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>$/failure</t>
+  </si>
+  <si>
+    <t>$/liter</t>
+  </si>
+  <si>
+    <t>Solar and BESS PPA</t>
   </si>
 </sst>
 </file>
@@ -677,7 +707,7 @@
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,6 +802,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1004,7 +1041,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1302,25 +1339,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1338,6 +1366,15 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Bad" xfId="7" builtinId="27"/>
@@ -1347,10 +1384,48 @@
     <cellStyle name="Comma 4" xfId="6" xr:uid="{D5A4242B-509E-4D2E-81AD-417CF0F2EB3A}"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="5" xr:uid="{0F634CA9-310C-492D-92C5-B0307AB554B9}"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1396,44 +1471,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1489,29 +1526,29 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9EAA21EB-E27B-9C46-8C7B-3660DD908D03}" name="Attribute" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{913A1F11-746C-8D42-8994-DFB62036DFD7}" name="Unit" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{26EBABE7-C7E6-9B4A-A556-8A8346231D26}" name="Source Type 1" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{CD320B3E-E051-8D4C-B138-1C468F56B8D9}" name="Source Type 2" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{BE9352AE-6AC9-A242-B347-679B5261A0E8}" name="Source Type 3" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{56674598-5A56-9D44-A0E7-E2770772FBF4}" name="Source Type 4" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{4FD08785-2A70-3946-9986-711F60CCECB9}" name="Source Type 5" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{9EAA21EB-E27B-9C46-8C7B-3660DD908D03}" name="Attribute" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{913A1F11-746C-8D42-8994-DFB62036DFD7}" name="Unit" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{26EBABE7-C7E6-9B4A-A556-8A8346231D26}" name="Source Type 1" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{CD320B3E-E051-8D4C-B138-1C468F56B8D9}" name="Source Type 2" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{BE9352AE-6AC9-A242-B347-679B5261A0E8}" name="Source Type 3" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{56674598-5A56-9D44-A0E7-E2770772FBF4}" name="Source Type 4" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{4FD08785-2A70-3946-9986-711F60CCECB9}" name="Source Type 5" dataDxfId="6" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{93AF1ACF-555D-5B40-90B6-A3FA3B1D0812}" name="Table2" displayName="Table2" ref="J24:L39" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{93AF1ACF-555D-5B40-90B6-A3FA3B1D0812}" name="Table2" displayName="Table2" ref="J24:L39" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="J24:L39" xr:uid="{93AF1ACF-555D-5B40-90B6-A3FA3B1D0812}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{62ADC2DD-B3A8-494D-AD58-FF99479B05ED}" name="Attribute" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{DD63DB1D-4D9D-FF4C-BFFD-10374C54C754}" name="Unit" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{419035B5-AE1F-F645-97FE-F75F929AF296}" name="Source Type 6" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{62ADC2DD-B3A8-494D-AD58-FF99479B05ED}" name="Attribute" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{DD63DB1D-4D9D-FF4C-BFFD-10374C54C754}" name="Unit" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{419035B5-AE1F-F645-97FE-F75F929AF296}" name="Source Type 6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1780,22 +1817,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C560C09F-AE50-47AF-9672-D0EBBBFD54D2}">
-  <dimension ref="B2:N23"/>
+  <dimension ref="B2:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="99" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="82" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="28" customWidth="1"/>
-    <col min="4" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="4" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
@@ -1827,8 +1866,11 @@
       <c r="L2" s="53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="R2" s="53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="54" t="s">
         <v>10</v>
       </c>
@@ -1845,7 +1887,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="I3" s="55"/>
       <c r="J3" s="54" t="s">
@@ -1854,8 +1896,11 @@
       <c r="L3" s="66" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="R3" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
@@ -1871,7 +1916,7 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="54" t="s">
@@ -1880,8 +1925,11 @@
       <c r="L4" s="57" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="R4" s="57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="54" t="s">
         <v>20</v>
       </c>
@@ -1906,8 +1954,11 @@
       <c r="L5" s="57" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="R5" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="54" t="s">
         <v>24</v>
       </c>
@@ -1932,8 +1983,11 @@
       <c r="L6" s="57" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="R6" s="57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="54" t="s">
         <v>27</v>
       </c>
@@ -1958,8 +2012,11 @@
       <c r="L7" s="57" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="R7" s="57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="54" t="s">
         <v>30</v>
       </c>
@@ -1975,8 +2032,8 @@
       <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="57" t="s">
-        <v>33</v>
+      <c r="H8" t="s">
+        <v>31</v>
       </c>
       <c r="J8" s="54" t="s">
         <v>30</v>
@@ -1984,13 +2041,16 @@
       <c r="L8" s="57" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="R8" s="57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="54" t="s">
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="D9" s="58">
         <v>0</v>
@@ -2017,13 +2077,16 @@
       <c r="L9" s="70">
         <v>268</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="R9" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="54" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="D10" s="92">
         <v>0</v>
@@ -2045,21 +2108,24 @@
         <v>35</v>
       </c>
       <c r="K10" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="98">
+        <v>0</v>
+      </c>
+      <c r="R10" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="98">
-        <v>45000000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="54" t="s">
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
       <c r="D11" s="92">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="92">
         <v>2500</v>
@@ -2068,29 +2134,33 @@
         <v>0</v>
       </c>
       <c r="G11" s="92">
-        <v>1120</v>
-      </c>
-      <c r="H11" s="93">
-        <v>2500</v>
+        <v>1000</v>
+      </c>
+      <c r="H11" s="92">
+        <v>1000</v>
       </c>
       <c r="I11" s="58"/>
       <c r="J11" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="L11" s="98">
+        <f>1800000/290</f>
+        <v>6206.8965517241377</v>
+      </c>
+      <c r="R11" s="93">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="C12" t="s">
         <v>206</v>
       </c>
-      <c r="L11" s="98">
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
       <c r="D12" s="92">
         <v>0</v>
       </c>
@@ -2098,7 +2168,8 @@
         <v>0</v>
       </c>
       <c r="F12" s="92">
-        <v>32000000</v>
+        <f>20000000/290</f>
+        <v>68965.517241379304</v>
       </c>
       <c r="G12" s="92">
         <v>0</v>
@@ -2108,54 +2179,65 @@
       </c>
       <c r="I12" s="58"/>
       <c r="J12" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="L12" s="98">
+        <f>1500/290</f>
+        <v>5.1724137931034484</v>
+      </c>
+      <c r="R12" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="98">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="54" t="s">
-        <v>49</v>
-      </c>
       <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="92">
-        <v>35000</v>
-      </c>
-      <c r="E13" s="92">
-        <v>60000</v>
-      </c>
-      <c r="F13" s="92">
-        <v>0</v>
-      </c>
-      <c r="G13" s="92">
-        <v>35000</v>
-      </c>
-      <c r="H13" s="93">
-        <v>45000</v>
+        <v>202</v>
+      </c>
+      <c r="D13" s="1">
+        <f>20000/290</f>
+        <v>68.965517241379317</v>
+      </c>
+      <c r="E13" s="1">
+        <f>55000/290</f>
+        <v>189.65517241379311</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <f>11000/290</f>
+        <v>37.931034482758619</v>
+      </c>
+      <c r="H13" s="136">
+        <v>130</v>
       </c>
       <c r="I13" s="58"/>
       <c r="J13" s="67" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L13" s="70">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="R13" s="136">
+        <f>36250/290</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="94">
         <v>2</v>
@@ -2174,21 +2256,24 @@
       </c>
       <c r="I14" s="61"/>
       <c r="J14" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="70">
+        <v>0</v>
+      </c>
+      <c r="R14" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="C15" t="s">
         <v>55</v>
-      </c>
-      <c r="L14" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="B15" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
       </c>
       <c r="D15" s="94">
         <v>4</v>
@@ -2203,52 +2288,58 @@
         <v>4</v>
       </c>
       <c r="H15" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I15" s="61"/>
       <c r="J15" s="67" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L15" s="101">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="101">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E16" s="101">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="101">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G16" s="101">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H16" s="101">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I16" s="61"/>
       <c r="J16" s="67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L16" s="91">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="R16" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17" s="94">
         <v>0</v>
@@ -2267,22 +2358,25 @@
       </c>
       <c r="I17" s="61"/>
       <c r="J17" s="67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L17" s="91">
         <v>100</v>
       </c>
       <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="R17" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18" s="96">
         <v>0</v>
@@ -2301,22 +2395,25 @@
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L18" s="99">
         <v>2</v>
       </c>
       <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="R18" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="62" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="94">
         <v>2</v>
@@ -2334,21 +2431,24 @@
         <v>0</v>
       </c>
       <c r="J19" s="68" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L19" s="99">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="R19" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" s="94">
         <v>0</v>
@@ -2363,19 +2463,22 @@
         <v>0</v>
       </c>
       <c r="H20" s="95">
+        <v>100</v>
+      </c>
+      <c r="J20" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" s="70">
+        <v>0</v>
+      </c>
+      <c r="R20" s="95">
         <v>10</v>
       </c>
-      <c r="J20" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="67" t="s">
         <v>37</v>
       </c>
@@ -2392,24 +2495,27 @@
         <v>0</v>
       </c>
       <c r="H21" s="95">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J21" s="71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K21" s="72" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" s="100">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="R21" s="95">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="D22" s="94">
         <v>0</v>
@@ -2424,24 +2530,29 @@
         <v>0</v>
       </c>
       <c r="H22" s="95">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K22" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="L22" s="90">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+        <f>290/290</f>
+        <v>1</v>
+      </c>
+      <c r="R22" s="95">
+        <f>6000/290</f>
+        <v>20.689655172413794</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L23" s="90">
         <v>40</v>
@@ -2461,41 +2572,41 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
-    <col min="5" max="10" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B2" s="81"/>
       <c r="C2" s="82"/>
       <c r="D2" s="51" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E2" s="73"/>
       <c r="F2" s="74"/>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="E3" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="F3" s="57"/>
       <c r="G3" s="11"/>
@@ -2503,7 +2614,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="86">
         <v>1</v>
       </c>
@@ -2514,10 +2625,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E4" s="77">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="78"/>
       <c r="G4" s="17"/>
@@ -2529,7 +2640,7 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="86">
         <v>2</v>
       </c>
@@ -2539,14 +2650,14 @@
       <c r="C5" s="87">
         <v>7</v>
       </c>
-      <c r="D5" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="16">
+      <c r="D5" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="139">
         <v>50000000</v>
       </c>
-      <c r="F5" s="78" t="s">
-        <v>83</v>
+      <c r="F5" s="140" t="s">
+        <v>80</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -2554,7 +2665,7 @@
       <c r="J5" s="17"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="86">
         <v>3</v>
       </c>
@@ -2565,13 +2676,14 @@
         <v>7.5</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6" s="16">
-        <v>34000000</v>
+        <f>24000000/290</f>
+        <v>82758.620689655174</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -2579,7 +2691,7 @@
       <c r="J6" s="17"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="86">
         <v>4</v>
       </c>
@@ -2594,7 +2706,7 @@
       <c r="G7" s="17"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="86">
         <v>5</v>
       </c>
@@ -2609,7 +2721,7 @@
       <c r="G8" s="17"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="86">
         <v>6</v>
       </c>
@@ -2624,7 +2736,7 @@
       <c r="G9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="86">
         <v>7</v>
       </c>
@@ -2639,7 +2751,7 @@
       <c r="G10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="86">
         <v>8</v>
       </c>
@@ -2656,7 +2768,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="86">
         <v>9</v>
       </c>
@@ -2673,7 +2785,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="86">
         <v>10</v>
       </c>
@@ -2690,7 +2802,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="86">
         <v>11</v>
       </c>
@@ -2703,7 +2815,7 @@
       <c r="D14" s="54"/>
       <c r="F14" s="57"/>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="86">
         <v>12</v>
       </c>
@@ -2716,7 +2828,7 @@
       <c r="D15" s="54"/>
       <c r="F15" s="57"/>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="79"/>
       <c r="B16" s="88"/>
       <c r="C16" s="89"/>
@@ -2728,11 +2840,11 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D19" s="17"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -2742,7 +2854,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="28"/>
@@ -2752,7 +2864,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="28"/>
@@ -2762,7 +2874,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="28"/>
@@ -2772,7 +2884,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="28"/>
@@ -2782,7 +2894,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="28"/>
@@ -2792,7 +2904,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="28"/>
@@ -2802,7 +2914,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="28"/>
@@ -2812,7 +2924,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="28"/>
@@ -2822,7 +2934,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="28"/>
@@ -2832,7 +2944,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="28"/>
@@ -2842,7 +2954,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
     </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="28"/>
@@ -2852,7 +2964,7 @@
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
     </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="28"/>
@@ -2872,357 +2984,357 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D27CD2-E810-4FE6-87F8-09242D0DB167}">
   <dimension ref="A2:F32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
-        <v>90</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B5" s="37">
         <v>37750</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B6" s="38">
         <v>0.1</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B7" s="38">
         <v>200</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D8" s="34"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D9" s="35"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B10" s="39">
         <v>47000</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F10" s="35"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B11" s="38">
         <v>0.1</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B12" s="38">
         <v>200</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="31" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D13" s="34"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B15" s="40">
         <v>64000</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B16" s="38">
         <v>0.05</v>
       </c>
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B17" s="38">
         <v>220</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B20" s="41">
         <f>B15</f>
         <v>64000</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B21" s="42">
         <v>0.05</v>
       </c>
       <c r="C21" s="31"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B22" s="42">
         <v>0</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="44" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D23" s="34"/>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B24" s="45"/>
       <c r="C24" s="44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B25" s="46">
         <v>38280</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B26" s="38">
         <v>0.05</v>
       </c>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B27" s="38">
         <v>400</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="33" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D28" s="34"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B29" s="47"/>
       <c r="C29" s="33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B30" s="46">
         <v>76620</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B31" s="38">
         <v>0.05</v>
       </c>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B32" s="15">
         <v>500</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3238,94 +3350,94 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" t="s">
         <v>141</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="S1" t="s">
-        <v>145</v>
-      </c>
-      <c r="T1" t="s">
-        <v>146</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>360000000</v>
       </c>
@@ -3388,12 +3500,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="3"/>
@@ -3412,18 +3524,18 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -3435,7 +3547,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -3447,7 +3559,7 @@
         <v>7.6666666666666675E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -3459,7 +3571,7 @@
         <v>7.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -3471,7 +3583,7 @@
         <v>9.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -3483,7 +3595,7 @@
         <v>0.10666666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -3495,7 +3607,7 @@
         <v>9.9999999999999992E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -3507,7 +3619,7 @@
         <v>9.8333333333333328E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -3519,7 +3631,7 @@
         <v>8.9166666666666672E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -3531,7 +3643,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -3543,7 +3655,7 @@
         <v>6.8333333333333329E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -3555,7 +3667,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -3567,18 +3679,18 @@
         <v>7.166666666666667E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>1</v>
       </c>
@@ -3589,7 +3701,7 @@
         <v>7.0064119192243659</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>1</v>
       </c>
@@ -3600,7 +3712,7 @@
         <v>7.214523164349842</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>1</v>
       </c>
@@ -3611,7 +3723,7 @@
         <v>7.353263994433493</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>1</v>
       </c>
@@ -3622,7 +3734,7 @@
         <v>7.214523164349842</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>1</v>
       </c>
@@ -3633,7 +3745,7 @@
         <v>6.4514485988897627</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>1</v>
       </c>
@@ -3644,7 +3756,7 @@
         <v>5.5496332033460325</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>1</v>
       </c>
@@ -3655,7 +3767,7 @@
         <v>5.2027811281369045</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>1</v>
       </c>
@@ -3666,7 +3778,7 @@
         <v>4.9946698830114284</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>1</v>
       </c>
@@ -3677,7 +3789,7 @@
         <v>4.7865586378859524</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>1</v>
       </c>
@@ -3688,7 +3800,7 @@
         <v>4.6478178078023022</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>1</v>
       </c>
@@ -3699,7 +3811,7 @@
         <v>4.5090769777186512</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>1</v>
       </c>
@@ -3710,7 +3822,7 @@
         <v>4.5090769777186512</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>1</v>
       </c>
@@ -3721,7 +3833,7 @@
         <v>4.7171882228441282</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>1</v>
       </c>
@@ -3732,7 +3844,7 @@
         <v>5.3415219582205555</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>1</v>
       </c>
@@ -3743,7 +3855,7 @@
         <v>5.6190036183878576</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>1</v>
       </c>
@@ -3754,7 +3866,7 @@
         <v>5.6190036183878576</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>1</v>
       </c>
@@ -3765,7 +3877,7 @@
         <v>5.4802627883042074</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>1</v>
       </c>
@@ -3776,7 +3888,7 @@
         <v>5.5496332033460325</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>1</v>
       </c>
@@ -3787,7 +3899,7 @@
         <v>5.6190036183878576</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>1</v>
       </c>
@@ -3798,7 +3910,7 @@
         <v>5.8271148635133336</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>1</v>
       </c>
@@ -3809,7 +3921,7 @@
         <v>6.1739669387224607</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>1</v>
       </c>
@@ -3820,7 +3932,7 @@
         <v>6.5208190139315869</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>1</v>
       </c>
@@ -3831,7 +3943,7 @@
         <v>6.7289302590570639</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>1</v>
       </c>
@@ -3842,7 +3954,7 @@
         <v>6.867671089140714</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>2</v>
       </c>
@@ -3853,7 +3965,7 @@
         <v>7.0163219785160527</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>2</v>
       </c>
@@ -3864,7 +3976,7 @@
         <v>7.1352426900163248</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>2</v>
       </c>
@@ -3875,7 +3987,7 @@
         <v>6.9568616227659161</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>2</v>
       </c>
@@ -3886,7 +3998,7 @@
         <v>6.5406391325149658</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>2</v>
       </c>
@@ -3897,7 +4009,7 @@
         <v>5.4703527290125162</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>2</v>
       </c>
@@ -3908,7 +4020,7 @@
         <v>4.6973681042607476</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>2</v>
       </c>
@@ -3919,7 +4031,7 @@
         <v>4.3406059697599311</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>2</v>
       </c>
@@ -3930,7 +4042,7 @@
         <v>4.1622249025095224</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>2</v>
       </c>
@@ -3941,7 +4053,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>2</v>
       </c>
@@ -3952,7 +4064,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>2</v>
       </c>
@@ -3963,7 +4075,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>2</v>
       </c>
@@ -3974,7 +4086,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>2</v>
       </c>
@@ -3985,7 +4097,7 @@
         <v>4.1622249025095224</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>2</v>
       </c>
@@ -3996,7 +4108,7 @@
         <v>4.6973681042607476</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>2</v>
       </c>
@@ -4007,7 +4119,7 @@
         <v>5.0541302387615632</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>2</v>
       </c>
@@ -4018,7 +4130,7 @@
         <v>5.1730509502618363</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>2</v>
       </c>
@@ -4029,7 +4141,7 @@
         <v>5.2325113060119719</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>2</v>
       </c>
@@ -4040,7 +4152,7 @@
         <v>5.5298130847626519</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>2</v>
       </c>
@@ -4051,7 +4163,7 @@
         <v>5.8271148635133327</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>2</v>
       </c>
@@ -4062,7 +4174,7 @@
         <v>6.0649562865138771</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>2</v>
       </c>
@@ -4073,7 +4185,7 @@
         <v>6.3622580652645571</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>2</v>
       </c>
@@ -4084,7 +4196,7 @@
         <v>6.6000994882651014</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>2</v>
       </c>
@@ -4095,7 +4207,7 @@
         <v>6.7784805555155092</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>2</v>
       </c>
@@ -4106,7 +4218,7 @@
         <v>6.7784805555155092</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>3</v>
       </c>
@@ -4117,7 +4229,7 @@
         <v>6.7912677287951082</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>3</v>
       </c>
@@ -4128,7 +4240,7 @@
         <v>6.671068299966878</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>3</v>
       </c>
@@ -4139,7 +4251,7 @@
         <v>6.4907691567245287</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>3</v>
       </c>
@@ -4150,7 +4262,7 @@
         <v>6.1301708702398336</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>3</v>
       </c>
@@ -4161,7 +4273,7 @@
         <v>5.2887748684422089</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>3</v>
       </c>
@@ -4172,7 +4284,7 @@
         <v>4.6276780098869326</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>3</v>
       </c>
@@ -4183,7 +4295,7 @@
         <v>4.2069800089881202</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>3</v>
       </c>
@@ -4194,7 +4306,7 @@
         <v>3.9665811513316567</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>3</v>
       </c>
@@ -4205,7 +4317,7 @@
         <v>3.7862820080893083</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>3</v>
       </c>
@@ -4216,7 +4328,7 @@
         <v>3.7862820080893083</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>3</v>
       </c>
@@ -4227,7 +4339,7 @@
         <v>3.8463817225034247</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>3</v>
       </c>
@@ -4238,7 +4350,7 @@
         <v>3.9665811513316567</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>3</v>
       </c>
@@ -4249,7 +4361,7 @@
         <v>4.2069800089881202</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>3</v>
       </c>
@@ -4260,7 +4372,7 @@
         <v>4.6276780098869326</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>3</v>
       </c>
@@ -4271,7 +4383,7 @@
         <v>5.2887748684422089</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>3</v>
       </c>
@@ -4282,7 +4394,7 @@
         <v>5.7695725837551368</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>3</v>
       </c>
@@ -4293,7 +4405,7 @@
         <v>6.1902705846539483</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <v>3</v>
       </c>
@@ -4304,7 +4416,7 @@
         <v>6.2503702990680647</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>3</v>
       </c>
@@ -4315,7 +4427,7 @@
         <v>6.430669442310414</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <v>3</v>
       </c>
@@ -4326,7 +4438,7 @@
         <v>6.6109685855527616</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>3</v>
       </c>
@@ -4337,7 +4449,7 @@
         <v>6.8513674432092246</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
         <v>3</v>
       </c>
@@ -4348,7 +4460,7 @@
         <v>7.151866015279805</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>3</v>
       </c>
@@ -4359,7 +4471,7 @@
         <v>7.392264872936269</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>3</v>
       </c>
@@ -4370,7 +4482,7 @@
         <v>7.392264872936269</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>4</v>
       </c>
@@ -4381,7 +4493,7 @@
         <v>12.420607645583972</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>4</v>
       </c>
@@ -4392,7 +4504,7 @@
         <v>11.89207115002721</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>4</v>
       </c>
@@ -4403,7 +4515,7 @@
         <v>11.011176990765936</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>4</v>
       </c>
@@ -4414,7 +4526,7 @@
         <v>9.3374780881695134</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>4</v>
       </c>
@@ -4425,7 +4537,7 @@
         <v>7.5756897696469636</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>4</v>
       </c>
@@ -4436,7 +4548,7 @@
         <v>6.6067061944595613</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>4</v>
       </c>
@@ -4447,7 +4559,7 @@
         <v>6.3424379466811773</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>4</v>
       </c>
@@ -4458,7 +4570,7 @@
         <v>6.3424379466811773</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>4</v>
       </c>
@@ -4469,7 +4581,7 @@
         <v>6.4305273626073056</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="19">
         <v>4</v>
       </c>
@@ -4480,7 +4592,7 @@
         <v>6.6067061944595613</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="19">
         <v>4</v>
       </c>
@@ -4491,7 +4603,7 @@
         <v>6.8709744422379435</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>4</v>
       </c>
@@ -4502,7 +4614,7 @@
         <v>7.2233321059424531</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
         <v>4</v>
       </c>
@@ -4513,7 +4625,7 @@
         <v>7.6637791855730901</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="19">
         <v>4</v>
       </c>
@@ -4524,7 +4636,7 @@
         <v>8.2804050970559828</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="19">
         <v>4</v>
       </c>
@@ -4535,7 +4647,7 @@
         <v>9.1612992563172586</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="19">
         <v>4</v>
       </c>
@@ -4546,7 +4658,7 @@
         <v>9.8660145837262778</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="19">
         <v>4</v>
       </c>
@@ -4557,7 +4669,7 @@
         <v>10.570729911135297</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="19">
         <v>4</v>
       </c>
@@ -4568,7 +4680,7 @@
         <v>11.363534654470445</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="19">
         <v>4</v>
       </c>
@@ -4579,7 +4691,7 @@
         <v>11.89207115002721</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="19">
         <v>4</v>
       </c>
@@ -4590,7 +4702,7 @@
         <v>12.244428813731718</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="19">
         <v>4</v>
       </c>
@@ -4601,7 +4713,7 @@
         <v>12.420607645583972</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="19">
         <v>4</v>
       </c>
@@ -4612,7 +4724,7 @@
         <v>12.508697061510102</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="19">
         <v>4</v>
       </c>
@@ -4623,7 +4735,7 @@
         <v>12.420607645583972</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="19">
         <v>4</v>
       </c>
@@ -4634,7 +4746,7 @@
         <v>12.156339397805592</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="19">
         <v>5</v>
       </c>
@@ -4645,7 +4757,7 @@
         <v>11.873489788855293</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="19">
         <v>5</v>
       </c>
@@ -4656,7 +4768,7 @@
         <v>11.706257538308035</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="19">
         <v>5</v>
       </c>
@@ -4667,7 +4779,7 @@
         <v>11.037328536119004</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="19">
         <v>5</v>
       </c>
@@ -4678,7 +4790,7 @@
         <v>9.9503189075618295</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="19">
         <v>5</v>
       </c>
@@ -4689,7 +4801,7 @@
         <v>9.2813899053727997</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="19">
         <v>5</v>
       </c>
@@ -4700,7 +4812,7 @@
         <v>8.946925404278284</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="19">
         <v>5</v>
       </c>
@@ -4711,7 +4823,7 @@
         <v>8.7796931537310261</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="19">
         <v>5</v>
       </c>
@@ -4722,7 +4834,7 @@
         <v>8.7796931537310261</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="19">
         <v>5</v>
       </c>
@@ -4733,7 +4845,7 @@
         <v>8.863309279004655</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="19">
         <v>5</v>
       </c>
@@ -4744,7 +4856,7 @@
         <v>9.1141576548255419</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="19">
         <v>5</v>
       </c>
@@ -4755,7 +4867,7 @@
         <v>9.4486221559200558</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="19">
         <v>5</v>
       </c>
@@ -4766,7 +4878,7 @@
         <v>9.6994705317409426</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="19">
         <v>5</v>
       </c>
@@ -4777,7 +4889,7 @@
         <v>9.7830866570145716</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="19">
         <v>5</v>
       </c>
@@ -4788,7 +4900,7 @@
         <v>10.033935032835458</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="19">
         <v>5</v>
       </c>
@@ -4799,7 +4911,7 @@
         <v>10.535631784477232</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="19">
         <v>5</v>
       </c>
@@ -4810,7 +4922,7 @@
         <v>11.120944661392633</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="19">
         <v>5</v>
       </c>
@@ -4821,7 +4933,7 @@
         <v>11.706257538308035</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="19">
         <v>5</v>
       </c>
@@ -4832,7 +4944,7 @@
         <v>12.12433816467618</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="19">
         <v>5</v>
       </c>
@@ -4843,7 +4955,7 @@
         <v>12.291570415223436</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="19">
         <v>5</v>
       </c>
@@ -4854,7 +4966,7 @@
         <v>12.458802665770694</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="19">
         <v>5</v>
       </c>
@@ -4865,7 +4977,7 @@
         <v>12.542418791044323</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="19">
         <v>5</v>
       </c>
@@ -4876,7 +4988,7 @@
         <v>12.375186540497065</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="19">
         <v>5</v>
       </c>
@@ -4887,7 +4999,7 @@
         <v>12.291570415223436</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="19">
         <v>5</v>
       </c>
@@ -4898,7 +5010,7 @@
         <v>12.375186540497065</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="19">
         <v>6</v>
       </c>
@@ -4909,7 +5021,7 @@
         <v>14.750132249750415</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="19">
         <v>6</v>
       </c>
@@ -4920,7 +5032,7 @@
         <v>14.508326803033196</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="19">
         <v>6</v>
       </c>
@@ -4931,7 +5043,7 @@
         <v>14.024715909598756</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="19">
         <v>6</v>
       </c>
@@ -4942,7 +5054,7 @@
         <v>13.420202292805707</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="19">
         <v>6</v>
       </c>
@@ -4953,7 +5065,7 @@
         <v>12.936591399371267</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="19">
         <v>6</v>
       </c>
@@ -4964,7 +5076,7 @@
         <v>12.452980505936829</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="19">
         <v>6</v>
       </c>
@@ -4975,7 +5087,7 @@
         <v>12.452980505936829</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="19">
         <v>6</v>
       </c>
@@ -4986,7 +5098,7 @@
         <v>12.573883229295438</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="19">
         <v>6</v>
       </c>
@@ -4997,7 +5109,7 @@
         <v>12.936591399371267</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="19">
         <v>6</v>
       </c>
@@ -5008,7 +5120,7 @@
         <v>13.299299569447097</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="19">
         <v>6</v>
       </c>
@@ -5019,7 +5131,7 @@
         <v>13.662007739522924</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="19">
         <v>6</v>
       </c>
@@ -5030,7 +5142,7 @@
         <v>14.024715909598756</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="19">
         <v>6</v>
       </c>
@@ -5041,7 +5153,7 @@
         <v>14.145618632957365</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="19">
         <v>6</v>
       </c>
@@ -5052,7 +5164,7 @@
         <v>14.750132249750415</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="19">
         <v>6</v>
       </c>
@@ -5063,7 +5175,7 @@
         <v>15.112840419826245</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="19">
         <v>6</v>
       </c>
@@ -5074,7 +5186,7 @@
         <v>15.233743143184856</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="19">
         <v>6</v>
       </c>
@@ -5085,7 +5197,7 @@
         <v>15.475548589902077</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="19">
         <v>6</v>
       </c>
@@ -5096,7 +5208,7 @@
         <v>15.717354036619296</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="19">
         <v>6</v>
       </c>
@@ -5107,7 +5219,7 @@
         <v>15.838256759977906</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="19">
         <v>6</v>
       </c>
@@ -5118,7 +5230,7 @@
         <v>15.838256759977906</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="19">
         <v>6</v>
       </c>
@@ -5129,7 +5241,7 @@
         <v>15.959159483336515</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="19">
         <v>6</v>
       </c>
@@ -5140,7 +5252,7 @@
         <v>16.080062206695125</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="19">
         <v>6</v>
       </c>
@@ -5151,7 +5263,7 @@
         <v>16.080062206695125</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="19">
         <v>6</v>
       </c>
@@ -5162,7 +5274,7 @@
         <v>15.959159483336515</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="19">
         <v>7</v>
       </c>
@@ -5173,7 +5285,7 @@
         <v>14.754230647152404</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="19">
         <v>7</v>
       </c>
@@ -5184,7 +5296,7 @@
         <v>14.633294330372467</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="19">
         <v>7</v>
       </c>
@@ -5195,7 +5307,7 @@
         <v>14.391421696812589</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="19">
         <v>7</v>
       </c>
@@ -5206,7 +5318,7 @@
         <v>13.907676429692838</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="19">
         <v>7</v>
       </c>
@@ -5217,7 +5329,7 @@
         <v>13.302994845793153</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="19">
         <v>7</v>
       </c>
@@ -5228,7 +5340,7 @@
         <v>12.819249578673402</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="19">
         <v>7</v>
       </c>
@@ -5239,7 +5351,7 @@
         <v>12.577376945113524</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="19">
         <v>7</v>
       </c>
@@ -5250,7 +5362,7 @@
         <v>12.577376945113524</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="19">
         <v>7</v>
       </c>
@@ -5261,7 +5373,7 @@
         <v>12.94018589545334</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="19">
         <v>7</v>
       </c>
@@ -5272,7 +5384,7 @@
         <v>13.302994845793153</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="19">
         <v>7</v>
       </c>
@@ -5283,7 +5395,7 @@
         <v>13.7867401129129</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="19">
         <v>7</v>
       </c>
@@ -5294,7 +5406,7 @@
         <v>14.270485380032653</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="19">
         <v>7</v>
       </c>
@@ -5305,7 +5417,7 @@
         <v>14.754230647152404</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="19">
         <v>7</v>
       </c>
@@ -5316,7 +5428,7 @@
         <v>15.117039597492216</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="19">
         <v>7</v>
       </c>
@@ -5327,7 +5439,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="19">
         <v>7</v>
       </c>
@@ -5338,7 +5450,7 @@
         <v>14.996103280712278</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="19">
         <v>7</v>
       </c>
@@ -5349,7 +5461,7 @@
         <v>14.875166963932342</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="19">
         <v>7</v>
       </c>
@@ -5360,7 +5472,7 @@
         <v>14.754230647152404</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="19">
         <v>7</v>
       </c>
@@ -5371,7 +5483,7 @@
         <v>14.875166963932342</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="19">
         <v>7</v>
       </c>
@@ -5382,7 +5494,7 @@
         <v>14.996103280712278</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="19">
         <v>7</v>
       </c>
@@ -5393,7 +5505,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="19">
         <v>7</v>
       </c>
@@ -5404,7 +5516,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="19">
         <v>7</v>
       </c>
@@ -5415,7 +5527,7 @@
         <v>15.358912231052093</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="19">
         <v>7</v>
       </c>
@@ -5426,7 +5538,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="19">
         <v>8</v>
       </c>
@@ -5437,7 +5549,7 @@
         <v>15.99427999252725</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="19">
         <v>8</v>
       </c>
@@ -5448,7 +5560,7 @@
         <v>15.857576744727872</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="19">
         <v>8</v>
       </c>
@@ -5459,7 +5571,7 @@
         <v>15.310763753530361</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="19">
         <v>8</v>
       </c>
@@ -5470,7 +5582,7 @@
         <v>14.627247514533469</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="19">
         <v>8</v>
       </c>
@@ -5481,7 +5593,7 @@
         <v>13.670324779937822</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="19">
         <v>8</v>
       </c>
@@ -5492,7 +5604,7 @@
         <v>12.986808540940929</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="19">
         <v>8</v>
       </c>
@@ -5503,7 +5615,7 @@
         <v>12.576698797542795</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="19">
         <v>8</v>
       </c>
@@ -5514,7 +5626,7 @@
         <v>12.576698797542795</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="19">
         <v>8</v>
       </c>
@@ -5525,7 +5637,7 @@
         <v>12.986808540940929</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="19">
         <v>8</v>
       </c>
@@ -5536,7 +5648,7 @@
         <v>13.260215036539686</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="19">
         <v>8</v>
       </c>
@@ -5547,7 +5659,7 @@
         <v>13.533621532138444</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="19">
         <v>8</v>
       </c>
@@ -5558,7 +5670,7 @@
         <v>14.217137771135336</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="19">
         <v>8</v>
       </c>
@@ -5569,7 +5681,7 @@
         <v>14.627247514533469</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="19">
         <v>8</v>
       </c>
@@ -5580,7 +5692,7 @@
         <v>15.037357257931603</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="19">
         <v>8</v>
       </c>
@@ -5591,7 +5703,7 @@
         <v>15.174060505730983</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="19">
         <v>8</v>
       </c>
@@ -5602,7 +5714,7 @@
         <v>15.174060505730983</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="19">
         <v>8</v>
       </c>
@@ -5613,7 +5725,7 @@
         <v>15.174060505730983</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="19">
         <v>8</v>
       </c>
@@ -5624,7 +5736,7 @@
         <v>15.310763753530361</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="19">
         <v>8</v>
       </c>
@@ -5635,7 +5747,7 @@
         <v>15.447467001329738</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="19">
         <v>8</v>
       </c>
@@ -5646,7 +5758,7 @@
         <v>15.584170249129116</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="19">
         <v>8</v>
       </c>
@@ -5657,7 +5769,7 @@
         <v>15.857576744727872</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="19">
         <v>8</v>
       </c>
@@ -5668,7 +5780,7 @@
         <v>15.99427999252725</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="19">
         <v>8</v>
       </c>
@@ -5679,7 +5791,7 @@
         <v>15.857576744727872</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="19">
         <v>8</v>
       </c>
@@ -5690,7 +5802,7 @@
         <v>15.584170249129116</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="19">
         <v>9</v>
       </c>
@@ -5701,7 +5813,7 @@
         <v>10.413723481572847</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="19">
         <v>9</v>
       </c>
@@ -5712,7 +5824,7 @@
         <v>10.234176524994005</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="19">
         <v>9</v>
       </c>
@@ -5723,7 +5835,7 @@
         <v>9.9648560901257426</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="19">
         <v>9</v>
       </c>
@@ -5734,7 +5846,7 @@
         <v>9.0671213072315311</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="19">
         <v>9</v>
       </c>
@@ -5745,7 +5857,7 @@
         <v>8.1693865243373196</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="19">
         <v>9</v>
       </c>
@@ -5756,7 +5868,7 @@
         <v>7.6307456546007923</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="19">
         <v>9</v>
       </c>
@@ -5767,7 +5879,7 @@
         <v>7.3614252197325287</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="19">
         <v>9</v>
       </c>
@@ -5778,7 +5890,7 @@
         <v>7.271651741443109</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="19">
         <v>9</v>
       </c>
@@ -5789,7 +5901,7 @@
         <v>7.271651741443109</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="19">
         <v>9</v>
       </c>
@@ -5800,7 +5912,7 @@
         <v>7.5409721763113717</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="19">
         <v>9</v>
       </c>
@@ -5811,7 +5923,7 @@
         <v>7.8102926111796354</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="19">
         <v>9</v>
       </c>
@@ -5822,7 +5934,7 @@
         <v>8.1693865243373196</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="19">
         <v>9</v>
       </c>
@@ -5833,7 +5945,7 @@
         <v>8.6182539157844253</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="19">
         <v>9</v>
       </c>
@@ -5844,7 +5956,7 @@
         <v>8.9773478289421096</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="19">
         <v>9</v>
       </c>
@@ -5855,7 +5967,7 @@
         <v>9.2466682638103723</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="19">
         <v>9</v>
       </c>
@@ -5866,7 +5978,7 @@
         <v>9.3364417420997956</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="19">
         <v>9</v>
       </c>
@@ -5877,7 +5989,7 @@
         <v>9.6955356552574798</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="19">
         <v>9</v>
       </c>
@@ -5888,7 +6000,7 @@
         <v>9.9648560901257426</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="19">
         <v>9</v>
       </c>
@@ -5899,7 +6011,7 @@
         <v>10.054629568415162</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="19">
         <v>9</v>
       </c>
@@ -5910,7 +6022,7 @@
         <v>10.234176524994005</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="19">
         <v>9</v>
       </c>
@@ -5921,7 +6033,7 @@
         <v>10.413723481572847</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="19">
         <v>9</v>
       </c>
@@ -5932,7 +6044,7 @@
         <v>10.503496959862268</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="19">
         <v>9</v>
       </c>
@@ -5943,7 +6055,7 @@
         <v>10.503496959862268</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="19">
         <v>9</v>
       </c>
@@ -5954,7 +6066,7 @@
         <v>10.503496959862268</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="19">
         <v>10</v>
       </c>
@@ -5965,7 +6077,7 @@
         <v>7.6863386701395395</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="19">
         <v>10</v>
       </c>
@@ -5976,7 +6088,7 @@
         <v>7.4688007832487973</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="19">
         <v>10</v>
       </c>
@@ -5987,7 +6099,7 @@
         <v>7.1062376384308941</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="19">
         <v>10</v>
       </c>
@@ -5998,7 +6110,7 @@
         <v>6.59864923568583</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="19">
         <v>10</v>
       </c>
@@ -6009,7 +6121,7 @@
         <v>5.5834724301957026</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="19">
         <v>10</v>
       </c>
@@ -6020,7 +6132,7 @@
         <v>4.5682956247055753</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="19">
         <v>10</v>
       </c>
@@ -6031,7 +6143,7 @@
         <v>4.0607072219605111</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="19">
         <v>10</v>
       </c>
@@ -6042,7 +6154,7 @@
         <v>3.9156819640333502</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="19">
         <v>10</v>
       </c>
@@ -6053,7 +6165,7 @@
         <v>3.9881945929969311</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="19">
         <v>10</v>
       </c>
@@ -6064,7 +6176,7 @@
         <v>3.9881945929969311</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="19">
         <v>10</v>
       </c>
@@ -6075,7 +6187,7 @@
         <v>4.1332198509240916</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="19">
         <v>10</v>
       </c>
@@ -6086,7 +6198,7 @@
         <v>4.2782451088512525</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="19">
         <v>10</v>
       </c>
@@ -6097,7 +6209,7 @@
         <v>4.5682956247055753</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="19">
         <v>10</v>
       </c>
@@ -6108,7 +6220,7 @@
         <v>5.3659345433049612</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="19">
         <v>10</v>
       </c>
@@ -6119,7 +6231,7 @@
         <v>5.8010103170864449</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="19">
         <v>10</v>
       </c>
@@ -6130,7 +6242,7 @@
         <v>6.0910608329407667</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="19">
         <v>10</v>
       </c>
@@ -6141,7 +6253,7 @@
         <v>6.1635734619043472</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="19">
         <v>10</v>
       </c>
@@ -6152,7 +6264,7 @@
         <v>6.4536239777586699</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="19">
         <v>10</v>
       </c>
@@ -6163,7 +6275,7 @@
         <v>6.8161871225765713</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="19">
         <v>10</v>
       </c>
@@ -6174,7 +6286,7 @@
         <v>7.251262896358055</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="19">
         <v>10</v>
       </c>
@@ -6185,7 +6297,7 @@
         <v>7.6138260411759591</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="19">
         <v>10</v>
       </c>
@@ -6196,7 +6308,7 @@
         <v>7.8313639280667005</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="19">
         <v>10</v>
       </c>
@@ -6207,7 +6319,7 @@
         <v>7.9038765570302809</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="19">
         <v>10</v>
       </c>
@@ -6218,7 +6330,7 @@
         <v>7.8313639280667005</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="19">
         <v>11</v>
       </c>
@@ -6229,7 +6341,7 @@
         <v>6.9330774804658635</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="19">
         <v>11</v>
       </c>
@@ -6240,7 +6352,7 @@
         <v>6.9984838717910138</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="19">
         <v>11</v>
       </c>
@@ -6251,7 +6363,7 @@
         <v>6.9984838717910138</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="19">
         <v>11</v>
       </c>
@@ -6262,7 +6374,7 @@
         <v>6.8022646978155654</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="19">
         <v>11</v>
       </c>
@@ -6273,7 +6385,7 @@
         <v>6.2136071758892166</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="19">
         <v>11</v>
       </c>
@@ -6284,7 +6396,7 @@
         <v>5.101698523361673</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="19">
         <v>11</v>
       </c>
@@ -6295,7 +6407,7 @@
         <v>4.4476346101101765</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="19">
         <v>11</v>
       </c>
@@ -6306,7 +6418,7 @@
         <v>4.0551962621592788</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="19">
         <v>11</v>
       </c>
@@ -6317,7 +6429,7 @@
         <v>3.8589770881838299</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="19">
         <v>11</v>
       </c>
@@ -6328,7 +6440,7 @@
         <v>3.79357069685868</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="19">
         <v>11</v>
       </c>
@@ -6339,7 +6451,7 @@
         <v>3.79357069685868</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="19">
         <v>11</v>
       </c>
@@ -6350,7 +6462,7 @@
         <v>3.79357069685868</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="19">
         <v>11</v>
       </c>
@@ -6361,7 +6473,7 @@
         <v>3.9897898708341288</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="19">
         <v>11</v>
       </c>
@@ -6372,7 +6484,7 @@
         <v>4.5784473927604754</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="19">
         <v>11</v>
       </c>
@@ -6383,7 +6495,7 @@
         <v>4.7746665667359247</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="19">
         <v>11</v>
       </c>
@@ -6394,7 +6506,7 @@
         <v>4.8400729580610751</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="19">
         <v>11</v>
       </c>
@@ -6405,7 +6517,7 @@
         <v>4.8400729580610751</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="19">
         <v>11</v>
       </c>
@@ -6416,7 +6528,7 @@
         <v>4.8400729580610751</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="19">
         <v>11</v>
       </c>
@@ -6427,7 +6539,7 @@
         <v>4.9708857407113731</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="19">
         <v>11</v>
       </c>
@@ -6438,7 +6550,7 @@
         <v>5.2979176973371223</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="19">
         <v>11</v>
       </c>
@@ -6449,7 +6561,7 @@
         <v>5.69035604528802</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="19">
         <v>11</v>
       </c>
@@ -6460,7 +6572,7 @@
         <v>6.0827943932389186</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="19">
         <v>11</v>
       </c>
@@ -6471,7 +6583,7 @@
         <v>6.4752327411898163</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="19">
         <v>11</v>
       </c>
@@ -6482,7 +6594,7 @@
         <v>6.7368583064904151</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="19">
         <v>12</v>
       </c>
@@ -6493,7 +6605,7 @@
         <v>7.5486995823254119</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="19">
         <v>12</v>
       </c>
@@ -6504,7 +6616,7 @@
         <v>7.6952762732443523</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="19">
         <v>12</v>
       </c>
@@ -6515,7 +6627,7 @@
         <v>7.6952762732443523</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="19">
         <v>12</v>
       </c>
@@ -6526,7 +6638,7 @@
         <v>7.5486995823254119</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="19">
         <v>12</v>
       </c>
@@ -6537,7 +6649,7 @@
         <v>7.0356811641091213</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="19">
         <v>12</v>
       </c>
@@ -6548,7 +6660,7 @@
         <v>5.9363559822170719</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="19">
         <v>12</v>
       </c>
@@ -6559,7 +6671,7 @@
         <v>5.4233375640007813</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="19">
         <v>12</v>
       </c>
@@ -6570,7 +6682,7 @@
         <v>5.0568958367034309</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="19">
         <v>12</v>
       </c>
@@ -6581,7 +6693,7 @@
         <v>4.8370308003250218</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="19">
         <v>12</v>
       </c>
@@ -6592,7 +6704,7 @@
         <v>4.763742454865552</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="19">
         <v>12</v>
       </c>
@@ -6603,7 +6715,7 @@
         <v>4.6904541094060814</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="19">
         <v>12</v>
       </c>
@@ -6614,7 +6726,7 @@
         <v>4.763742454865552</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="19">
         <v>12</v>
       </c>
@@ -6625,7 +6737,7 @@
         <v>5.0568958367034309</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="19">
         <v>12</v>
       </c>
@@ -6636,7 +6748,7 @@
         <v>5.6432026003791913</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="19">
         <v>12</v>
       </c>
@@ -6647,7 +6759,7 @@
         <v>5.9363559822170719</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="19">
         <v>12</v>
       </c>
@@ -6658,7 +6770,7 @@
         <v>6.0096443276765408</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="19">
         <v>12</v>
       </c>
@@ -6669,7 +6781,7 @@
         <v>6.0829326731360105</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="19">
         <v>12</v>
       </c>
@@ -6680,7 +6792,7 @@
         <v>6.156221018595482</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="19">
         <v>12</v>
       </c>
@@ -6691,7 +6803,7 @@
         <v>6.3760860549738911</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="19">
         <v>12</v>
       </c>
@@ -6702,7 +6814,7 @@
         <v>6.6692394368117718</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="19">
         <v>12</v>
       </c>
@@ -6713,7 +6825,7 @@
         <v>6.9623928186496506</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="19">
         <v>12</v>
       </c>
@@ -6724,7 +6836,7 @@
         <v>7.2555462004875313</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="19">
         <v>12</v>
       </c>
@@ -6735,7 +6847,7 @@
         <v>7.4754112368659413</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="19">
         <v>12</v>
       </c>
@@ -6759,56 +6871,56 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="21" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="21" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
         <v>155</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>156</v>
       </c>
-      <c r="C1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
         <v>157</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>158</v>
       </c>
-      <c r="F1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>150000000</v>
       </c>
@@ -6822,7 +6934,7 @@
         <v>0.1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F2" s="2">
         <v>12000</v>
@@ -6844,47 +6956,47 @@
         <v>80000000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" t="s">
         <v>164</v>
       </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
         <v>165</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6904,7 +7016,7 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6923,7 +7035,7 @@
         <v>364</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I7" s="46">
         <v>110000000</v>
@@ -6932,7 +7044,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6951,18 +7063,18 @@
         <v>341</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I8" s="46">
         <f>400000</f>
         <v>400000</v>
       </c>
       <c r="J8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K8" s="29"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -6981,13 +7093,13 @@
         <v>330</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I9" s="50">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -7006,16 +7118,16 @@
         <v>341</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I10">
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -7034,13 +7146,13 @@
         <v>330</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -7060,7 +7172,7 @@
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -7080,7 +7192,7 @@
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -7099,7 +7211,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -7118,7 +7230,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -7137,7 +7249,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -7156,19 +7268,19 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>1</v>
       </c>
@@ -7180,7 +7292,7 @@
       </c>
       <c r="D22" s="21"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>1</v>
       </c>
@@ -7192,7 +7304,7 @@
       </c>
       <c r="D23" s="21"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>1</v>
       </c>
@@ -7204,7 +7316,7 @@
       </c>
       <c r="D24" s="21"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>1</v>
       </c>
@@ -7216,7 +7328,7 @@
       </c>
       <c r="D25" s="21"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>1</v>
       </c>
@@ -7228,7 +7340,7 @@
       </c>
       <c r="D26" s="21"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>1</v>
       </c>
@@ -7240,7 +7352,7 @@
       </c>
       <c r="D27" s="21"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>1</v>
       </c>
@@ -7252,7 +7364,7 @@
       </c>
       <c r="D28" s="21"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>1</v>
       </c>
@@ -7264,7 +7376,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>1</v>
       </c>
@@ -7276,7 +7388,7 @@
       </c>
       <c r="D30" s="21"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>1</v>
       </c>
@@ -7288,7 +7400,7 @@
       </c>
       <c r="D31" s="21"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>1</v>
       </c>
@@ -7300,7 +7412,7 @@
       </c>
       <c r="D32" s="21"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>1</v>
       </c>
@@ -7312,7 +7424,7 @@
       </c>
       <c r="D33" s="21"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>1</v>
       </c>
@@ -7324,7 +7436,7 @@
       </c>
       <c r="D34" s="21"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>1</v>
       </c>
@@ -7336,7 +7448,7 @@
       </c>
       <c r="D35" s="21"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>1</v>
       </c>
@@ -7348,7 +7460,7 @@
       </c>
       <c r="D36" s="21"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>1</v>
       </c>
@@ -7360,7 +7472,7 @@
       </c>
       <c r="D37" s="21"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>1</v>
       </c>
@@ -7372,7 +7484,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>1</v>
       </c>
@@ -7384,7 +7496,7 @@
       </c>
       <c r="D39" s="21"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>1</v>
       </c>
@@ -7396,7 +7508,7 @@
       </c>
       <c r="D40" s="21"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>1</v>
       </c>
@@ -7408,7 +7520,7 @@
       </c>
       <c r="D41" s="21"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>1</v>
       </c>
@@ -7420,7 +7532,7 @@
       </c>
       <c r="D42" s="21"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>1</v>
       </c>
@@ -7432,7 +7544,7 @@
       </c>
       <c r="D43" s="21"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>1</v>
       </c>
@@ -7444,7 +7556,7 @@
       </c>
       <c r="D44" s="21"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>1</v>
       </c>
@@ -7456,7 +7568,7 @@
       </c>
       <c r="D45" s="21"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>2</v>
       </c>
@@ -7468,7 +7580,7 @@
       </c>
       <c r="D46" s="21"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>2</v>
       </c>
@@ -7480,7 +7592,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>2</v>
       </c>
@@ -7492,7 +7604,7 @@
       </c>
       <c r="D48" s="21"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>2</v>
       </c>
@@ -7504,7 +7616,7 @@
       </c>
       <c r="D49" s="21"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>2</v>
       </c>
@@ -7516,7 +7628,7 @@
       </c>
       <c r="D50" s="21"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>2</v>
       </c>
@@ -7528,7 +7640,7 @@
       </c>
       <c r="D51" s="21"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>2</v>
       </c>
@@ -7540,7 +7652,7 @@
       </c>
       <c r="D52" s="21"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>2</v>
       </c>
@@ -7552,7 +7664,7 @@
       </c>
       <c r="D53" s="21"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>2</v>
       </c>
@@ -7564,7 +7676,7 @@
       </c>
       <c r="D54" s="21"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>2</v>
       </c>
@@ -7576,7 +7688,7 @@
       </c>
       <c r="D55" s="21"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>2</v>
       </c>
@@ -7588,7 +7700,7 @@
       </c>
       <c r="D56" s="21"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>2</v>
       </c>
@@ -7600,7 +7712,7 @@
       </c>
       <c r="D57" s="21"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>2</v>
       </c>
@@ -7612,7 +7724,7 @@
       </c>
       <c r="D58" s="21"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>2</v>
       </c>
@@ -7624,7 +7736,7 @@
       </c>
       <c r="D59" s="21"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>2</v>
       </c>
@@ -7636,7 +7748,7 @@
       </c>
       <c r="D60" s="21"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>2</v>
       </c>
@@ -7648,7 +7760,7 @@
       </c>
       <c r="D61" s="21"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>2</v>
       </c>
@@ -7660,7 +7772,7 @@
       </c>
       <c r="D62" s="21"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>2</v>
       </c>
@@ -7672,7 +7784,7 @@
       </c>
       <c r="D63" s="21"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>2</v>
       </c>
@@ -7684,7 +7796,7 @@
       </c>
       <c r="D64" s="21"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>2</v>
       </c>
@@ -7696,7 +7808,7 @@
       </c>
       <c r="D65" s="21"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>2</v>
       </c>
@@ -7708,7 +7820,7 @@
       </c>
       <c r="D66" s="21"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>2</v>
       </c>
@@ -7720,7 +7832,7 @@
       </c>
       <c r="D67" s="21"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>2</v>
       </c>
@@ -7732,7 +7844,7 @@
       </c>
       <c r="D68" s="21"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>2</v>
       </c>
@@ -7744,7 +7856,7 @@
       </c>
       <c r="D69" s="21"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>3</v>
       </c>
@@ -7756,7 +7868,7 @@
       </c>
       <c r="D70" s="21"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>3</v>
       </c>
@@ -7768,7 +7880,7 @@
       </c>
       <c r="D71" s="21"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>3</v>
       </c>
@@ -7780,7 +7892,7 @@
       </c>
       <c r="D72" s="21"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>3</v>
       </c>
@@ -7792,7 +7904,7 @@
       </c>
       <c r="D73" s="21"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>3</v>
       </c>
@@ -7804,7 +7916,7 @@
       </c>
       <c r="D74" s="21"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>3</v>
       </c>
@@ -7816,7 +7928,7 @@
       </c>
       <c r="D75" s="21"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>3</v>
       </c>
@@ -7828,7 +7940,7 @@
       </c>
       <c r="D76" s="21"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>3</v>
       </c>
@@ -7840,7 +7952,7 @@
       </c>
       <c r="D77" s="21"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>3</v>
       </c>
@@ -7852,7 +7964,7 @@
       </c>
       <c r="D78" s="21"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>3</v>
       </c>
@@ -7864,7 +7976,7 @@
       </c>
       <c r="D79" s="21"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>3</v>
       </c>
@@ -7876,7 +7988,7 @@
       </c>
       <c r="D80" s="21"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>3</v>
       </c>
@@ -7888,7 +8000,7 @@
       </c>
       <c r="D81" s="21"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>3</v>
       </c>
@@ -7900,7 +8012,7 @@
       </c>
       <c r="D82" s="21"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>3</v>
       </c>
@@ -7912,7 +8024,7 @@
       </c>
       <c r="D83" s="21"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>3</v>
       </c>
@@ -7924,7 +8036,7 @@
       </c>
       <c r="D84" s="21"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>3</v>
       </c>
@@ -7936,7 +8048,7 @@
       </c>
       <c r="D85" s="21"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <v>3</v>
       </c>
@@ -7948,7 +8060,7 @@
       </c>
       <c r="D86" s="21"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>3</v>
       </c>
@@ -7960,7 +8072,7 @@
       </c>
       <c r="D87" s="21"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <v>3</v>
       </c>
@@ -7972,7 +8084,7 @@
       </c>
       <c r="D88" s="21"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>3</v>
       </c>
@@ -7984,7 +8096,7 @@
       </c>
       <c r="D89" s="21"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
         <v>3</v>
       </c>
@@ -7996,7 +8108,7 @@
       </c>
       <c r="D90" s="21"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>3</v>
       </c>
@@ -8008,7 +8120,7 @@
       </c>
       <c r="D91" s="21"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>3</v>
       </c>
@@ -8020,7 +8132,7 @@
       </c>
       <c r="D92" s="21"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>3</v>
       </c>
@@ -8032,7 +8144,7 @@
       </c>
       <c r="D93" s="21"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>4</v>
       </c>
@@ -8044,7 +8156,7 @@
       </c>
       <c r="D94" s="21"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>4</v>
       </c>
@@ -8056,7 +8168,7 @@
       </c>
       <c r="D95" s="21"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>4</v>
       </c>
@@ -8068,7 +8180,7 @@
       </c>
       <c r="D96" s="21"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>4</v>
       </c>
@@ -8080,7 +8192,7 @@
       </c>
       <c r="D97" s="21"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>4</v>
       </c>
@@ -8092,7 +8204,7 @@
       </c>
       <c r="D98" s="21"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>4</v>
       </c>
@@ -8104,7 +8216,7 @@
       </c>
       <c r="D99" s="21"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>4</v>
       </c>
@@ -8116,7 +8228,7 @@
       </c>
       <c r="D100" s="21"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>4</v>
       </c>
@@ -8128,7 +8240,7 @@
       </c>
       <c r="D101" s="21"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="19">
         <v>4</v>
       </c>
@@ -8140,7 +8252,7 @@
       </c>
       <c r="D102" s="21"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="19">
         <v>4</v>
       </c>
@@ -8152,7 +8264,7 @@
       </c>
       <c r="D103" s="21"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>4</v>
       </c>
@@ -8164,7 +8276,7 @@
       </c>
       <c r="D104" s="21"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
         <v>4</v>
       </c>
@@ -8176,7 +8288,7 @@
       </c>
       <c r="D105" s="21"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="19">
         <v>4</v>
       </c>
@@ -8188,7 +8300,7 @@
       </c>
       <c r="D106" s="21"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="19">
         <v>4</v>
       </c>
@@ -8200,7 +8312,7 @@
       </c>
       <c r="D107" s="21"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="19">
         <v>4</v>
       </c>
@@ -8212,7 +8324,7 @@
       </c>
       <c r="D108" s="21"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="19">
         <v>4</v>
       </c>
@@ -8224,7 +8336,7 @@
       </c>
       <c r="D109" s="21"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="19">
         <v>4</v>
       </c>
@@ -8236,7 +8348,7 @@
       </c>
       <c r="D110" s="21"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="19">
         <v>4</v>
       </c>
@@ -8248,7 +8360,7 @@
       </c>
       <c r="D111" s="21"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="19">
         <v>4</v>
       </c>
@@ -8260,7 +8372,7 @@
       </c>
       <c r="D112" s="21"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="19">
         <v>4</v>
       </c>
@@ -8272,7 +8384,7 @@
       </c>
       <c r="D113" s="21"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="19">
         <v>4</v>
       </c>
@@ -8284,7 +8396,7 @@
       </c>
       <c r="D114" s="21"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="19">
         <v>4</v>
       </c>
@@ -8296,7 +8408,7 @@
       </c>
       <c r="D115" s="21"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="19">
         <v>4</v>
       </c>
@@ -8308,7 +8420,7 @@
       </c>
       <c r="D116" s="21"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="19">
         <v>4</v>
       </c>
@@ -8320,7 +8432,7 @@
       </c>
       <c r="D117" s="21"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="19">
         <v>5</v>
       </c>
@@ -8332,7 +8444,7 @@
       </c>
       <c r="D118" s="21"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="19">
         <v>5</v>
       </c>
@@ -8344,7 +8456,7 @@
       </c>
       <c r="D119" s="21"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="19">
         <v>5</v>
       </c>
@@ -8356,7 +8468,7 @@
       </c>
       <c r="D120" s="21"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="19">
         <v>5</v>
       </c>
@@ -8368,7 +8480,7 @@
       </c>
       <c r="D121" s="21"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="19">
         <v>5</v>
       </c>
@@ -8380,7 +8492,7 @@
       </c>
       <c r="D122" s="21"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="19">
         <v>5</v>
       </c>
@@ -8392,7 +8504,7 @@
       </c>
       <c r="D123" s="21"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="19">
         <v>5</v>
       </c>
@@ -8404,7 +8516,7 @@
       </c>
       <c r="D124" s="21"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="19">
         <v>5</v>
       </c>
@@ -8416,7 +8528,7 @@
       </c>
       <c r="D125" s="21"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="19">
         <v>5</v>
       </c>
@@ -8428,7 +8540,7 @@
       </c>
       <c r="D126" s="21"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="19">
         <v>5</v>
       </c>
@@ -8440,7 +8552,7 @@
       </c>
       <c r="D127" s="21"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="19">
         <v>5</v>
       </c>
@@ -8452,7 +8564,7 @@
       </c>
       <c r="D128" s="21"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="19">
         <v>5</v>
       </c>
@@ -8464,7 +8576,7 @@
       </c>
       <c r="D129" s="21"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="19">
         <v>5</v>
       </c>
@@ -8476,7 +8588,7 @@
       </c>
       <c r="D130" s="21"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="19">
         <v>5</v>
       </c>
@@ -8488,7 +8600,7 @@
       </c>
       <c r="D131" s="21"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="19">
         <v>5</v>
       </c>
@@ -8500,7 +8612,7 @@
       </c>
       <c r="D132" s="21"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="19">
         <v>5</v>
       </c>
@@ -8512,7 +8624,7 @@
       </c>
       <c r="D133" s="21"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="19">
         <v>5</v>
       </c>
@@ -8524,7 +8636,7 @@
       </c>
       <c r="D134" s="21"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="19">
         <v>5</v>
       </c>
@@ -8536,7 +8648,7 @@
       </c>
       <c r="D135" s="21"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="19">
         <v>5</v>
       </c>
@@ -8548,7 +8660,7 @@
       </c>
       <c r="D136" s="21"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="19">
         <v>5</v>
       </c>
@@ -8560,7 +8672,7 @@
       </c>
       <c r="D137" s="21"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="19">
         <v>5</v>
       </c>
@@ -8572,7 +8684,7 @@
       </c>
       <c r="D138" s="21"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="19">
         <v>5</v>
       </c>
@@ -8584,7 +8696,7 @@
       </c>
       <c r="D139" s="21"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="19">
         <v>5</v>
       </c>
@@ -8596,7 +8708,7 @@
       </c>
       <c r="D140" s="21"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="19">
         <v>5</v>
       </c>
@@ -8608,7 +8720,7 @@
       </c>
       <c r="D141" s="21"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="19">
         <v>6</v>
       </c>
@@ -8620,7 +8732,7 @@
       </c>
       <c r="D142" s="21"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="19">
         <v>6</v>
       </c>
@@ -8632,7 +8744,7 @@
       </c>
       <c r="D143" s="21"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="19">
         <v>6</v>
       </c>
@@ -8644,7 +8756,7 @@
       </c>
       <c r="D144" s="21"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="19">
         <v>6</v>
       </c>
@@ -8656,7 +8768,7 @@
       </c>
       <c r="D145" s="21"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="19">
         <v>6</v>
       </c>
@@ -8668,7 +8780,7 @@
       </c>
       <c r="D146" s="21"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="19">
         <v>6</v>
       </c>
@@ -8680,7 +8792,7 @@
       </c>
       <c r="D147" s="21"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="19">
         <v>6</v>
       </c>
@@ -8692,7 +8804,7 @@
       </c>
       <c r="D148" s="21"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="19">
         <v>6</v>
       </c>
@@ -8704,7 +8816,7 @@
       </c>
       <c r="D149" s="21"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="19">
         <v>6</v>
       </c>
@@ -8716,7 +8828,7 @@
       </c>
       <c r="D150" s="21"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="19">
         <v>6</v>
       </c>
@@ -8728,7 +8840,7 @@
       </c>
       <c r="D151" s="21"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="19">
         <v>6</v>
       </c>
@@ -8740,7 +8852,7 @@
       </c>
       <c r="D152" s="21"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="19">
         <v>6</v>
       </c>
@@ -8752,7 +8864,7 @@
       </c>
       <c r="D153" s="21"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="19">
         <v>6</v>
       </c>
@@ -8764,7 +8876,7 @@
       </c>
       <c r="D154" s="21"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="19">
         <v>6</v>
       </c>
@@ -8776,7 +8888,7 @@
       </c>
       <c r="D155" s="21"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="19">
         <v>6</v>
       </c>
@@ -8788,7 +8900,7 @@
       </c>
       <c r="D156" s="21"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="19">
         <v>6</v>
       </c>
@@ -8800,7 +8912,7 @@
       </c>
       <c r="D157" s="21"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="19">
         <v>6</v>
       </c>
@@ -8812,7 +8924,7 @@
       </c>
       <c r="D158" s="21"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="19">
         <v>6</v>
       </c>
@@ -8824,7 +8936,7 @@
       </c>
       <c r="D159" s="21"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="19">
         <v>6</v>
       </c>
@@ -8836,7 +8948,7 @@
       </c>
       <c r="D160" s="21"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="19">
         <v>6</v>
       </c>
@@ -8848,7 +8960,7 @@
       </c>
       <c r="D161" s="21"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="19">
         <v>6</v>
       </c>
@@ -8860,7 +8972,7 @@
       </c>
       <c r="D162" s="21"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="19">
         <v>6</v>
       </c>
@@ -8872,7 +8984,7 @@
       </c>
       <c r="D163" s="21"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="19">
         <v>6</v>
       </c>
@@ -8884,7 +8996,7 @@
       </c>
       <c r="D164" s="21"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="19">
         <v>6</v>
       </c>
@@ -8896,7 +9008,7 @@
       </c>
       <c r="D165" s="21"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="19">
         <v>7</v>
       </c>
@@ -8908,7 +9020,7 @@
       </c>
       <c r="D166" s="21"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="19">
         <v>7</v>
       </c>
@@ -8920,7 +9032,7 @@
       </c>
       <c r="D167" s="21"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="19">
         <v>7</v>
       </c>
@@ -8932,7 +9044,7 @@
       </c>
       <c r="D168" s="21"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="19">
         <v>7</v>
       </c>
@@ -8944,7 +9056,7 @@
       </c>
       <c r="D169" s="21"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="19">
         <v>7</v>
       </c>
@@ -8956,7 +9068,7 @@
       </c>
       <c r="D170" s="21"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="19">
         <v>7</v>
       </c>
@@ -8968,7 +9080,7 @@
       </c>
       <c r="D171" s="21"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="19">
         <v>7</v>
       </c>
@@ -8980,7 +9092,7 @@
       </c>
       <c r="D172" s="21"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="19">
         <v>7</v>
       </c>
@@ -8992,7 +9104,7 @@
       </c>
       <c r="D173" s="21"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="19">
         <v>7</v>
       </c>
@@ -9004,7 +9116,7 @@
       </c>
       <c r="D174" s="21"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="19">
         <v>7</v>
       </c>
@@ -9016,7 +9128,7 @@
       </c>
       <c r="D175" s="21"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="19">
         <v>7</v>
       </c>
@@ -9028,7 +9140,7 @@
       </c>
       <c r="D176" s="21"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="19">
         <v>7</v>
       </c>
@@ -9040,7 +9152,7 @@
       </c>
       <c r="D177" s="21"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="19">
         <v>7</v>
       </c>
@@ -9052,7 +9164,7 @@
       </c>
       <c r="D178" s="21"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="19">
         <v>7</v>
       </c>
@@ -9064,7 +9176,7 @@
       </c>
       <c r="D179" s="21"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="19">
         <v>7</v>
       </c>
@@ -9076,7 +9188,7 @@
       </c>
       <c r="D180" s="21"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="19">
         <v>7</v>
       </c>
@@ -9088,7 +9200,7 @@
       </c>
       <c r="D181" s="21"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="19">
         <v>7</v>
       </c>
@@ -9100,7 +9212,7 @@
       </c>
       <c r="D182" s="21"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="19">
         <v>7</v>
       </c>
@@ -9112,7 +9224,7 @@
       </c>
       <c r="D183" s="21"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="19">
         <v>7</v>
       </c>
@@ -9124,7 +9236,7 @@
       </c>
       <c r="D184" s="21"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="19">
         <v>7</v>
       </c>
@@ -9136,7 +9248,7 @@
       </c>
       <c r="D185" s="21"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="19">
         <v>7</v>
       </c>
@@ -9148,7 +9260,7 @@
       </c>
       <c r="D186" s="21"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="19">
         <v>7</v>
       </c>
@@ -9160,7 +9272,7 @@
       </c>
       <c r="D187" s="21"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="19">
         <v>7</v>
       </c>
@@ -9172,7 +9284,7 @@
       </c>
       <c r="D188" s="21"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="19">
         <v>7</v>
       </c>
@@ -9184,7 +9296,7 @@
       </c>
       <c r="D189" s="21"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="19">
         <v>8</v>
       </c>
@@ -9196,7 +9308,7 @@
       </c>
       <c r="D190" s="21"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="19">
         <v>8</v>
       </c>
@@ -9208,7 +9320,7 @@
       </c>
       <c r="D191" s="21"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="19">
         <v>8</v>
       </c>
@@ -9220,7 +9332,7 @@
       </c>
       <c r="D192" s="21"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="19">
         <v>8</v>
       </c>
@@ -9232,7 +9344,7 @@
       </c>
       <c r="D193" s="21"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="19">
         <v>8</v>
       </c>
@@ -9244,7 +9356,7 @@
       </c>
       <c r="D194" s="21"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="19">
         <v>8</v>
       </c>
@@ -9256,7 +9368,7 @@
       </c>
       <c r="D195" s="21"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="19">
         <v>8</v>
       </c>
@@ -9268,7 +9380,7 @@
       </c>
       <c r="D196" s="21"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="19">
         <v>8</v>
       </c>
@@ -9280,7 +9392,7 @@
       </c>
       <c r="D197" s="21"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="19">
         <v>8</v>
       </c>
@@ -9292,7 +9404,7 @@
       </c>
       <c r="D198" s="21"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="19">
         <v>8</v>
       </c>
@@ -9304,7 +9416,7 @@
       </c>
       <c r="D199" s="21"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="19">
         <v>8</v>
       </c>
@@ -9316,7 +9428,7 @@
       </c>
       <c r="D200" s="21"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="19">
         <v>8</v>
       </c>
@@ -9328,7 +9440,7 @@
       </c>
       <c r="D201" s="21"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="19">
         <v>8</v>
       </c>
@@ -9340,7 +9452,7 @@
       </c>
       <c r="D202" s="21"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="19">
         <v>8</v>
       </c>
@@ -9352,7 +9464,7 @@
       </c>
       <c r="D203" s="21"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="19">
         <v>8</v>
       </c>
@@ -9364,7 +9476,7 @@
       </c>
       <c r="D204" s="21"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="19">
         <v>8</v>
       </c>
@@ -9376,7 +9488,7 @@
       </c>
       <c r="D205" s="21"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="19">
         <v>8</v>
       </c>
@@ -9388,7 +9500,7 @@
       </c>
       <c r="D206" s="21"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="19">
         <v>8</v>
       </c>
@@ -9400,7 +9512,7 @@
       </c>
       <c r="D207" s="21"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="19">
         <v>8</v>
       </c>
@@ -9412,7 +9524,7 @@
       </c>
       <c r="D208" s="21"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="19">
         <v>8</v>
       </c>
@@ -9424,7 +9536,7 @@
       </c>
       <c r="D209" s="21"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="19">
         <v>8</v>
       </c>
@@ -9436,7 +9548,7 @@
       </c>
       <c r="D210" s="21"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="19">
         <v>8</v>
       </c>
@@ -9448,7 +9560,7 @@
       </c>
       <c r="D211" s="21"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="19">
         <v>8</v>
       </c>
@@ -9460,7 +9572,7 @@
       </c>
       <c r="D212" s="21"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="19">
         <v>8</v>
       </c>
@@ -9472,7 +9584,7 @@
       </c>
       <c r="D213" s="21"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="19">
         <v>9</v>
       </c>
@@ -9484,7 +9596,7 @@
       </c>
       <c r="D214" s="21"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="19">
         <v>9</v>
       </c>
@@ -9496,7 +9608,7 @@
       </c>
       <c r="D215" s="21"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="19">
         <v>9</v>
       </c>
@@ -9508,7 +9620,7 @@
       </c>
       <c r="D216" s="21"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="19">
         <v>9</v>
       </c>
@@ -9520,7 +9632,7 @@
       </c>
       <c r="D217" s="21"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="19">
         <v>9</v>
       </c>
@@ -9532,7 +9644,7 @@
       </c>
       <c r="D218" s="21"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="19">
         <v>9</v>
       </c>
@@ -9544,7 +9656,7 @@
       </c>
       <c r="D219" s="21"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="19">
         <v>9</v>
       </c>
@@ -9556,7 +9668,7 @@
       </c>
       <c r="D220" s="21"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="19">
         <v>9</v>
       </c>
@@ -9568,7 +9680,7 @@
       </c>
       <c r="D221" s="21"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="19">
         <v>9</v>
       </c>
@@ -9580,7 +9692,7 @@
       </c>
       <c r="D222" s="21"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="19">
         <v>9</v>
       </c>
@@ -9592,7 +9704,7 @@
       </c>
       <c r="D223" s="21"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="19">
         <v>9</v>
       </c>
@@ -9604,7 +9716,7 @@
       </c>
       <c r="D224" s="21"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="19">
         <v>9</v>
       </c>
@@ -9616,7 +9728,7 @@
       </c>
       <c r="D225" s="21"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="19">
         <v>9</v>
       </c>
@@ -9628,7 +9740,7 @@
       </c>
       <c r="D226" s="21"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="19">
         <v>9</v>
       </c>
@@ -9640,7 +9752,7 @@
       </c>
       <c r="D227" s="21"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="19">
         <v>9</v>
       </c>
@@ -9652,7 +9764,7 @@
       </c>
       <c r="D228" s="21"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="19">
         <v>9</v>
       </c>
@@ -9664,7 +9776,7 @@
       </c>
       <c r="D229" s="21"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="19">
         <v>9</v>
       </c>
@@ -9676,7 +9788,7 @@
       </c>
       <c r="D230" s="21"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="19">
         <v>9</v>
       </c>
@@ -9688,7 +9800,7 @@
       </c>
       <c r="D231" s="21"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="19">
         <v>9</v>
       </c>
@@ -9700,7 +9812,7 @@
       </c>
       <c r="D232" s="21"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="19">
         <v>9</v>
       </c>
@@ -9712,7 +9824,7 @@
       </c>
       <c r="D233" s="21"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="19">
         <v>9</v>
       </c>
@@ -9724,7 +9836,7 @@
       </c>
       <c r="D234" s="21"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="19">
         <v>9</v>
       </c>
@@ -9736,7 +9848,7 @@
       </c>
       <c r="D235" s="21"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="19">
         <v>9</v>
       </c>
@@ -9748,7 +9860,7 @@
       </c>
       <c r="D236" s="21"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="19">
         <v>9</v>
       </c>
@@ -9760,7 +9872,7 @@
       </c>
       <c r="D237" s="21"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="19">
         <v>10</v>
       </c>
@@ -9772,7 +9884,7 @@
       </c>
       <c r="D238" s="21"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="19">
         <v>10</v>
       </c>
@@ -9784,7 +9896,7 @@
       </c>
       <c r="D239" s="21"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="19">
         <v>10</v>
       </c>
@@ -9796,7 +9908,7 @@
       </c>
       <c r="D240" s="21"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="19">
         <v>10</v>
       </c>
@@ -9808,7 +9920,7 @@
       </c>
       <c r="D241" s="21"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="19">
         <v>10</v>
       </c>
@@ -9820,7 +9932,7 @@
       </c>
       <c r="D242" s="21"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="19">
         <v>10</v>
       </c>
@@ -9832,7 +9944,7 @@
       </c>
       <c r="D243" s="21"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="19">
         <v>10</v>
       </c>
@@ -9844,7 +9956,7 @@
       </c>
       <c r="D244" s="21"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="19">
         <v>10</v>
       </c>
@@ -9856,7 +9968,7 @@
       </c>
       <c r="D245" s="21"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="19">
         <v>10</v>
       </c>
@@ -9868,7 +9980,7 @@
       </c>
       <c r="D246" s="21"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="19">
         <v>10</v>
       </c>
@@ -9880,7 +9992,7 @@
       </c>
       <c r="D247" s="21"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="19">
         <v>10</v>
       </c>
@@ -9892,7 +10004,7 @@
       </c>
       <c r="D248" s="21"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="19">
         <v>10</v>
       </c>
@@ -9904,7 +10016,7 @@
       </c>
       <c r="D249" s="21"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="19">
         <v>10</v>
       </c>
@@ -9916,7 +10028,7 @@
       </c>
       <c r="D250" s="21"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="19">
         <v>10</v>
       </c>
@@ -9928,7 +10040,7 @@
       </c>
       <c r="D251" s="21"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="19">
         <v>10</v>
       </c>
@@ -9940,7 +10052,7 @@
       </c>
       <c r="D252" s="21"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="19">
         <v>10</v>
       </c>
@@ -9952,7 +10064,7 @@
       </c>
       <c r="D253" s="21"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="19">
         <v>10</v>
       </c>
@@ -9964,7 +10076,7 @@
       </c>
       <c r="D254" s="21"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="19">
         <v>10</v>
       </c>
@@ -9976,7 +10088,7 @@
       </c>
       <c r="D255" s="21"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="19">
         <v>10</v>
       </c>
@@ -9988,7 +10100,7 @@
       </c>
       <c r="D256" s="21"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="19">
         <v>10</v>
       </c>
@@ -10000,7 +10112,7 @@
       </c>
       <c r="D257" s="21"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="19">
         <v>10</v>
       </c>
@@ -10012,7 +10124,7 @@
       </c>
       <c r="D258" s="21"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="19">
         <v>10</v>
       </c>
@@ -10024,7 +10136,7 @@
       </c>
       <c r="D259" s="21"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="19">
         <v>10</v>
       </c>
@@ -10036,7 +10148,7 @@
       </c>
       <c r="D260" s="21"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="19">
         <v>10</v>
       </c>
@@ -10048,7 +10160,7 @@
       </c>
       <c r="D261" s="21"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="19">
         <v>11</v>
       </c>
@@ -10060,7 +10172,7 @@
       </c>
       <c r="D262" s="21"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="19">
         <v>11</v>
       </c>
@@ -10072,7 +10184,7 @@
       </c>
       <c r="D263" s="21"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="19">
         <v>11</v>
       </c>
@@ -10084,7 +10196,7 @@
       </c>
       <c r="D264" s="21"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="19">
         <v>11</v>
       </c>
@@ -10096,7 +10208,7 @@
       </c>
       <c r="D265" s="21"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="19">
         <v>11</v>
       </c>
@@ -10108,7 +10220,7 @@
       </c>
       <c r="D266" s="21"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="19">
         <v>11</v>
       </c>
@@ -10120,7 +10232,7 @@
       </c>
       <c r="D267" s="21"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="19">
         <v>11</v>
       </c>
@@ -10132,7 +10244,7 @@
       </c>
       <c r="D268" s="21"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="19">
         <v>11</v>
       </c>
@@ -10144,7 +10256,7 @@
       </c>
       <c r="D269" s="21"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="19">
         <v>11</v>
       </c>
@@ -10156,7 +10268,7 @@
       </c>
       <c r="D270" s="21"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="19">
         <v>11</v>
       </c>
@@ -10168,7 +10280,7 @@
       </c>
       <c r="D271" s="21"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="19">
         <v>11</v>
       </c>
@@ -10180,7 +10292,7 @@
       </c>
       <c r="D272" s="21"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="19">
         <v>11</v>
       </c>
@@ -10192,7 +10304,7 @@
       </c>
       <c r="D273" s="21"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="19">
         <v>11</v>
       </c>
@@ -10204,7 +10316,7 @@
       </c>
       <c r="D274" s="21"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="19">
         <v>11</v>
       </c>
@@ -10216,7 +10328,7 @@
       </c>
       <c r="D275" s="21"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="19">
         <v>11</v>
       </c>
@@ -10228,7 +10340,7 @@
       </c>
       <c r="D276" s="21"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="19">
         <v>11</v>
       </c>
@@ -10240,7 +10352,7 @@
       </c>
       <c r="D277" s="21"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="19">
         <v>11</v>
       </c>
@@ -10252,7 +10364,7 @@
       </c>
       <c r="D278" s="21"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="19">
         <v>11</v>
       </c>
@@ -10264,7 +10376,7 @@
       </c>
       <c r="D279" s="21"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="19">
         <v>11</v>
       </c>
@@ -10276,7 +10388,7 @@
       </c>
       <c r="D280" s="21"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="19">
         <v>11</v>
       </c>
@@ -10288,7 +10400,7 @@
       </c>
       <c r="D281" s="21"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="19">
         <v>11</v>
       </c>
@@ -10300,7 +10412,7 @@
       </c>
       <c r="D282" s="21"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="19">
         <v>11</v>
       </c>
@@ -10312,7 +10424,7 @@
       </c>
       <c r="D283" s="21"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="19">
         <v>11</v>
       </c>
@@ -10324,7 +10436,7 @@
       </c>
       <c r="D284" s="21"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="19">
         <v>11</v>
       </c>
@@ -10336,7 +10448,7 @@
       </c>
       <c r="D285" s="21"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="19">
         <v>12</v>
       </c>
@@ -10348,7 +10460,7 @@
       </c>
       <c r="D286" s="21"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="19">
         <v>12</v>
       </c>
@@ -10360,7 +10472,7 @@
       </c>
       <c r="D287" s="21"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="19">
         <v>12</v>
       </c>
@@ -10372,7 +10484,7 @@
       </c>
       <c r="D288" s="21"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="19">
         <v>12</v>
       </c>
@@ -10384,7 +10496,7 @@
       </c>
       <c r="D289" s="21"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="19">
         <v>12</v>
       </c>
@@ -10396,7 +10508,7 @@
       </c>
       <c r="D290" s="21"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="19">
         <v>12</v>
       </c>
@@ -10408,7 +10520,7 @@
       </c>
       <c r="D291" s="21"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="19">
         <v>12</v>
       </c>
@@ -10420,7 +10532,7 @@
       </c>
       <c r="D292" s="21"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="19">
         <v>12</v>
       </c>
@@ -10432,7 +10544,7 @@
       </c>
       <c r="D293" s="21"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="19">
         <v>12</v>
       </c>
@@ -10444,7 +10556,7 @@
       </c>
       <c r="D294" s="21"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="19">
         <v>12</v>
       </c>
@@ -10456,7 +10568,7 @@
       </c>
       <c r="D295" s="21"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="19">
         <v>12</v>
       </c>
@@ -10468,7 +10580,7 @@
       </c>
       <c r="D296" s="21"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="19">
         <v>12</v>
       </c>
@@ -10480,7 +10592,7 @@
       </c>
       <c r="D297" s="21"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="19">
         <v>12</v>
       </c>
@@ -10492,7 +10604,7 @@
       </c>
       <c r="D298" s="21"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="19">
         <v>12</v>
       </c>
@@ -10504,7 +10616,7 @@
       </c>
       <c r="D299" s="21"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="19">
         <v>12</v>
       </c>
@@ -10516,7 +10628,7 @@
       </c>
       <c r="D300" s="21"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="19">
         <v>12</v>
       </c>
@@ -10528,7 +10640,7 @@
       </c>
       <c r="D301" s="21"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="19">
         <v>12</v>
       </c>
@@ -10540,7 +10652,7 @@
       </c>
       <c r="D302" s="21"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="19">
         <v>12</v>
       </c>
@@ -10552,7 +10664,7 @@
       </c>
       <c r="D303" s="21"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="19">
         <v>12</v>
       </c>
@@ -10564,7 +10676,7 @@
       </c>
       <c r="D304" s="21"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="19">
         <v>12</v>
       </c>
@@ -10576,7 +10688,7 @@
       </c>
       <c r="D305" s="21"/>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="19">
         <v>12</v>
       </c>
@@ -10588,7 +10700,7 @@
       </c>
       <c r="D306" s="21"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="19">
         <v>12</v>
       </c>
@@ -10600,7 +10712,7 @@
       </c>
       <c r="D307" s="21"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="19">
         <v>12</v>
       </c>
@@ -10612,7 +10724,7 @@
       </c>
       <c r="D308" s="21"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="19">
         <v>12</v>
       </c>
@@ -10632,24 +10744,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DB8147-C519-5348-8792-752E0D8AD16E}">
-  <dimension ref="B2:N130"/>
+  <dimension ref="B2:S130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="8" width="14.83203125" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="11" width="24.83203125" customWidth="1"/>
-    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="11" width="24.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="102"/>
       <c r="C2" s="108"/>
       <c r="D2" s="52"/>
@@ -10662,7 +10776,7 @@
       <c r="K2" s="52"/>
       <c r="L2" s="53"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="103"/>
       <c r="C3" s="12"/>
       <c r="D3" s="55"/>
@@ -10674,42 +10788,89 @@
       <c r="J3" s="54"/>
       <c r="L3" s="66"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="103"/>
       <c r="C4" s="12"/>
       <c r="H4" s="57"/>
       <c r="J4" s="54"/>
       <c r="L4" s="57"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <v>5.5</v>
+      </c>
+      <c r="Q4">
+        <f>src!D11*P4</f>
+        <v>5500</v>
+      </c>
+      <c r="R4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="103"/>
       <c r="C5" s="12"/>
       <c r="H5" s="57"/>
       <c r="J5" s="54"/>
       <c r="L5" s="57"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>69</v>
+      </c>
+      <c r="Q5">
+        <f>Q4*69</f>
+        <v>379500</v>
+      </c>
+      <c r="R5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="103"/>
       <c r="C6" s="12"/>
       <c r="H6" s="57"/>
       <c r="J6" s="54"/>
       <c r="L6" s="57"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N6" t="s">
+        <v>210</v>
+      </c>
+      <c r="O6">
+        <v>130</v>
+      </c>
+      <c r="Q6">
+        <f>O6*P4*src!D11</f>
+        <v>715000</v>
+      </c>
+      <c r="R6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="103"/>
       <c r="C7" s="12"/>
       <c r="H7" s="57"/>
       <c r="J7" s="54"/>
       <c r="L7" s="57"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <f>Q6-Q5</f>
+        <v>335500</v>
+      </c>
+      <c r="R7" t="s">
+        <v>212</v>
+      </c>
+      <c r="S7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="103"/>
       <c r="C8" s="12"/>
       <c r="H8" s="57"/>
       <c r="J8" s="54"/>
       <c r="L8" s="57"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <f>Q7/5.5</f>
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="103"/>
       <c r="C9" s="12"/>
       <c r="D9" s="58"/>
@@ -10721,8 +10882,12 @@
       <c r="J9" s="67"/>
       <c r="K9" s="15"/>
       <c r="L9" s="70"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="Q9" s="137">
+        <f>Q8*290</f>
+        <v>17690000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="103"/>
       <c r="C10" s="12"/>
       <c r="D10" s="92"/>
@@ -10735,7 +10900,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="98"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="103"/>
       <c r="C11" s="12"/>
       <c r="D11" s="92"/>
@@ -10748,7 +10913,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="98"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="103"/>
       <c r="C12" s="12"/>
       <c r="D12" s="92"/>
@@ -10761,7 +10926,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="98"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="103"/>
       <c r="C13" s="12"/>
       <c r="D13" s="92"/>
@@ -10774,7 +10939,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="70"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="104"/>
       <c r="C14" s="12"/>
       <c r="D14" s="94"/>
@@ -10787,7 +10952,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="70"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="105"/>
       <c r="C15" s="12"/>
       <c r="D15" s="94"/>
@@ -10799,7 +10964,7 @@
       <c r="J15" s="67"/>
       <c r="L15" s="101"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="106"/>
       <c r="C16" s="12"/>
       <c r="D16" s="101"/>
@@ -10811,7 +10976,7 @@
       <c r="J16" s="67"/>
       <c r="L16" s="91"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="107"/>
       <c r="C17" s="109"/>
       <c r="D17" s="96"/>
@@ -10824,7 +10989,7 @@
       <c r="L17" s="99"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="105"/>
       <c r="C18" s="12"/>
       <c r="D18" s="94"/>
@@ -10835,7 +11000,7 @@
       <c r="J18" s="68"/>
       <c r="L18" s="99"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="94"/>
@@ -10846,7 +11011,7 @@
       <c r="J19" s="69"/>
       <c r="L19" s="70"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="103"/>
       <c r="C20" s="12"/>
       <c r="D20" s="94"/>
@@ -10858,7 +11023,7 @@
       <c r="K20" s="72"/>
       <c r="L20" s="100"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="94"/>
@@ -10868,44 +11033,44 @@
       <c r="H21" s="95"/>
       <c r="L21" s="90"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L22" s="90"/>
     </row>
-    <row r="24" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="113" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C24" s="114" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D24" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="112" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="112" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="112" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="E24" s="112" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="G24" s="112" t="s">
-        <v>192</v>
-      </c>
-      <c r="H24" s="112" t="s">
+      <c r="J24" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="114" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="J24" s="113" t="s">
-        <v>176</v>
-      </c>
-      <c r="K24" s="114" t="s">
-        <v>175</v>
-      </c>
-      <c r="L24" s="116" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="122" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C25" s="123"/>
       <c r="D25" s="124" t="s">
@@ -10924,402 +11089,401 @@
         <v>15</v>
       </c>
       <c r="J25" s="115" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K25" s="115"/>
       <c r="L25" s="112" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="126" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="127"/>
-      <c r="D26" s="128" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="115"/>
+      <c r="D26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="128" t="s">
+      <c r="E26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="128" t="s">
+      <c r="F26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="128" t="s">
+      <c r="G26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="129" t="s">
+      <c r="H26" s="127" t="s">
         <v>19</v>
       </c>
       <c r="J26" s="115" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K26" s="115"/>
       <c r="L26" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="126" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="127"/>
-      <c r="D27" s="128" t="s">
-        <v>194</v>
-      </c>
-      <c r="E27" s="128" t="s">
-        <v>195</v>
-      </c>
-      <c r="F27" s="128" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="115"/>
+      <c r="D27" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="128" t="s">
-        <v>194</v>
-      </c>
-      <c r="H27" s="129" t="s">
-        <v>195</v>
+      <c r="G27" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" s="127" t="s">
+        <v>191</v>
       </c>
       <c r="J27" s="115" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K27" s="115"/>
       <c r="L27" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="126" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" s="127"/>
-      <c r="D28" s="128" t="s">
-        <v>196</v>
-      </c>
-      <c r="E28" s="128" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="115"/>
+      <c r="D28" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="128" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="128" t="s">
-        <v>196</v>
-      </c>
-      <c r="H28" s="129" t="s">
+      <c r="F28" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H28" s="127" t="s">
         <v>33</v>
       </c>
       <c r="J28" s="115" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K28" s="115"/>
       <c r="L28" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="130" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="127"/>
-      <c r="D29" s="131">
-        <v>0.05</v>
-      </c>
-      <c r="E29" s="131">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F29" s="131">
-        <v>0.05</v>
-      </c>
-      <c r="G29" s="131">
-        <v>0.05</v>
-      </c>
-      <c r="H29" s="132">
-        <v>0.05</v>
+    <row r="29" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="128" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="115"/>
+      <c r="D29" s="111">
+        <v>0</v>
+      </c>
+      <c r="E29" s="111">
+        <v>0</v>
+      </c>
+      <c r="F29" s="111">
+        <v>0</v>
+      </c>
+      <c r="G29" s="111">
+        <v>0</v>
+      </c>
+      <c r="H29" s="129">
+        <v>0</v>
       </c>
       <c r="J29" s="115" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K29" s="117" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L29" s="118">
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="126" t="s">
-        <v>180</v>
-      </c>
-      <c r="C30" s="127" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="133">
-        <v>1120</v>
-      </c>
-      <c r="E30" s="133">
+        <v>176</v>
+      </c>
+      <c r="C30" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="130">
+        <v>1000</v>
+      </c>
+      <c r="E30" s="130">
         <v>2500</v>
       </c>
-      <c r="F30" s="133">
-        <v>0</v>
-      </c>
-      <c r="G30" s="133">
-        <v>1120</v>
-      </c>
-      <c r="H30" s="134">
+      <c r="F30" s="130">
+        <v>0</v>
+      </c>
+      <c r="G30" s="130">
+        <v>100</v>
+      </c>
+      <c r="H30" s="131">
         <v>2500</v>
       </c>
       <c r="J30" s="115" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K30" s="115" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L30" s="119">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="126" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="115" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="130">
+        <v>0</v>
+      </c>
+      <c r="E31" s="130">
+        <v>0</v>
+      </c>
+      <c r="F31" s="130">
+        <f>20000000/290</f>
+        <v>68965.517241379304</v>
+      </c>
+      <c r="G31" s="130">
+        <v>0</v>
+      </c>
+      <c r="H31" s="131">
+        <v>0</v>
+      </c>
+      <c r="J31" s="120" t="s">
         <v>181</v>
-      </c>
-      <c r="C31" s="127" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="133">
-        <v>0</v>
-      </c>
-      <c r="E31" s="133">
-        <v>0</v>
-      </c>
-      <c r="F31" s="133">
-        <v>32000000</v>
-      </c>
-      <c r="G31" s="133">
-        <v>0</v>
-      </c>
-      <c r="H31" s="134">
-        <v>0</v>
-      </c>
-      <c r="J31" s="120" t="s">
-        <v>185</v>
       </c>
       <c r="K31" s="115"/>
       <c r="L31" s="111">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="126" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="115" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="130">
+        <v>68.97</v>
+      </c>
+      <c r="E32" s="130">
+        <v>189.66</v>
+      </c>
+      <c r="F32" s="130">
+        <v>0</v>
+      </c>
+      <c r="G32" s="130">
+        <v>37.93</v>
+      </c>
+      <c r="H32" s="131">
+        <v>125</v>
+      </c>
+      <c r="J32" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="K32" s="117" t="s">
+        <v>207</v>
+      </c>
+      <c r="L32" s="110"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="126" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="130">
+        <v>2</v>
+      </c>
+      <c r="E33" s="130">
+        <v>1</v>
+      </c>
+      <c r="F33" s="130">
+        <v>1</v>
+      </c>
+      <c r="G33" s="130">
+        <v>2</v>
+      </c>
+      <c r="H33" s="131">
+        <v>1</v>
+      </c>
+      <c r="J33" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="K33" s="117" t="s">
+        <v>206</v>
+      </c>
+      <c r="L33" s="110">
+        <v>6207</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="128" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="130">
+        <v>4</v>
+      </c>
+      <c r="E34" s="130">
+        <v>4</v>
+      </c>
+      <c r="F34" s="130">
+        <v>4</v>
+      </c>
+      <c r="G34" s="130">
+        <v>4</v>
+      </c>
+      <c r="H34" s="131">
+        <v>8</v>
+      </c>
+      <c r="J34" s="115" t="s">
+        <v>199</v>
+      </c>
+      <c r="K34" s="117" t="s">
+        <v>202</v>
+      </c>
+      <c r="L34" s="110">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="128" t="s">
         <v>182</v>
       </c>
-      <c r="C32" s="127" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="133">
-        <v>35000</v>
-      </c>
-      <c r="E32" s="133">
-        <v>60000</v>
-      </c>
-      <c r="F32" s="133">
-        <v>0</v>
-      </c>
-      <c r="G32" s="133">
-        <v>35000</v>
-      </c>
-      <c r="H32" s="134">
-        <v>45000</v>
-      </c>
-      <c r="J32" s="115" t="s">
-        <v>155</v>
-      </c>
-      <c r="K32" s="117" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="110">
-        <v>45000000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="126" t="s">
-        <v>183</v>
-      </c>
-      <c r="C33" s="127" t="s">
-        <v>184</v>
-      </c>
-      <c r="D33" s="133">
+      <c r="C35" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="130">
         <v>2</v>
       </c>
-      <c r="E33" s="133">
-        <v>1</v>
-      </c>
-      <c r="F33" s="133">
-        <v>1</v>
-      </c>
-      <c r="G33" s="133">
+      <c r="E35" s="130">
+        <v>0</v>
+      </c>
+      <c r="F35" s="130">
+        <v>0</v>
+      </c>
+      <c r="G35" s="130">
         <v>2</v>
       </c>
-      <c r="H33" s="134">
-        <v>1</v>
-      </c>
-      <c r="J33" s="115" t="s">
-        <v>202</v>
-      </c>
-      <c r="K33" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="L33" s="110">
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="130" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" s="127" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="133">
-        <v>4</v>
-      </c>
-      <c r="E34" s="133">
-        <v>4</v>
-      </c>
-      <c r="F34" s="133">
-        <v>4</v>
-      </c>
-      <c r="G34" s="133">
-        <v>4</v>
-      </c>
-      <c r="H34" s="134">
-        <v>8</v>
-      </c>
-      <c r="J34" s="115" t="s">
-        <v>203</v>
-      </c>
-      <c r="K34" s="117" t="s">
-        <v>40</v>
-      </c>
-      <c r="L34" s="110">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="130" t="s">
-        <v>186</v>
-      </c>
-      <c r="C35" s="127" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="133">
-        <v>2</v>
-      </c>
-      <c r="E35" s="133">
-        <v>0</v>
-      </c>
-      <c r="F35" s="133">
-        <v>0</v>
-      </c>
-      <c r="G35" s="133">
-        <v>2</v>
-      </c>
-      <c r="H35" s="134">
+      <c r="H35" s="131">
         <v>0</v>
       </c>
       <c r="J35" s="115" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K35" s="115" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L35" s="118">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="126" t="s">
-        <v>187</v>
-      </c>
-      <c r="C36" s="127" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="133">
-        <v>0</v>
-      </c>
-      <c r="E36" s="133">
+        <v>183</v>
+      </c>
+      <c r="C36" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="130">
+        <v>0</v>
+      </c>
+      <c r="E36" s="130">
         <v>25</v>
       </c>
-      <c r="F36" s="133">
+      <c r="F36" s="130">
         <v>100</v>
       </c>
-      <c r="G36" s="133">
-        <v>0</v>
-      </c>
-      <c r="H36" s="134">
+      <c r="G36" s="130">
+        <v>0</v>
+      </c>
+      <c r="H36" s="131">
         <v>10</v>
       </c>
       <c r="J36" s="115" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K36" s="115" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L36" s="119">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="135" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="136" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="137">
-        <v>0</v>
-      </c>
-      <c r="E37" s="137">
-        <v>0</v>
-      </c>
-      <c r="F37" s="137">
-        <v>0</v>
-      </c>
-      <c r="G37" s="137">
-        <v>0</v>
-      </c>
-      <c r="H37" s="138">
-        <v>6000</v>
+    <row r="37" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="132" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="133" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="134">
+        <v>0</v>
+      </c>
+      <c r="E37" s="134">
+        <v>0</v>
+      </c>
+      <c r="F37" s="134">
+        <v>0</v>
+      </c>
+      <c r="G37" s="134">
+        <v>0</v>
+      </c>
+      <c r="H37" s="135">
+        <v>21</v>
       </c>
       <c r="J37" s="120" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K37" s="115" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L37" s="119">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J38" s="117" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K38" s="115"/>
       <c r="L38" s="121">
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J39" s="115" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K39" s="115" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L39" s="119">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="51" t="s">
         <v>0</v>
       </c>
@@ -11342,7 +11506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B41" s="54" t="s">
         <v>10</v>
       </c>
@@ -11362,7 +11526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="54" t="s">
         <v>17</v>
       </c>
@@ -11382,7 +11546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="54" t="s">
         <v>20</v>
       </c>
@@ -11402,7 +11566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="54" t="s">
         <v>24</v>
       </c>
@@ -11422,7 +11586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="54" t="s">
         <v>27</v>
       </c>
@@ -11442,7 +11606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="54" t="s">
         <v>30</v>
       </c>
@@ -11462,7 +11626,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="54" t="s">
         <v>35</v>
       </c>
@@ -11485,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="54" t="s">
         <v>39</v>
       </c>
@@ -11508,12 +11672,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
         <v>42</v>
-      </c>
-      <c r="C49" t="s">
-        <v>43</v>
       </c>
       <c r="D49" s="92">
         <v>1300</v>
@@ -11531,12 +11695,12 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
         <v>45</v>
-      </c>
-      <c r="C50" t="s">
-        <v>46</v>
       </c>
       <c r="D50" s="92">
         <v>0</v>
@@ -11554,9 +11718,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
         <v>40</v>
@@ -11577,12 +11741,12 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D52" s="94">
         <v>2</v>
@@ -11600,12 +11764,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="62" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D53" s="94">
         <v>4</v>
@@ -11623,9 +11787,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D54" s="101">
         <v>0.05</v>
@@ -11643,58 +11807,58 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="94">
+        <v>0</v>
+      </c>
+      <c r="E55" s="94">
+        <v>0</v>
+      </c>
+      <c r="F55" s="94">
+        <v>0</v>
+      </c>
+      <c r="G55" s="94">
+        <v>0</v>
+      </c>
+      <c r="H55" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="94">
-        <v>0</v>
-      </c>
-      <c r="E55" s="94">
-        <v>0</v>
-      </c>
-      <c r="F55" s="94">
-        <v>0</v>
-      </c>
-      <c r="G55" s="94">
-        <v>0</v>
-      </c>
-      <c r="H55" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B56" s="64" t="s">
+      <c r="C56" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="96">
+        <v>0</v>
+      </c>
+      <c r="E56" s="96">
+        <v>0</v>
+      </c>
+      <c r="F56" s="96">
+        <v>0</v>
+      </c>
+      <c r="G56" s="96">
+        <v>0</v>
+      </c>
+      <c r="H56" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="65" t="s">
+      <c r="C57" t="s">
         <v>65</v>
-      </c>
-      <c r="D56" s="96">
-        <v>0</v>
-      </c>
-      <c r="E56" s="96">
-        <v>0</v>
-      </c>
-      <c r="F56" s="96">
-        <v>0</v>
-      </c>
-      <c r="G56" s="96">
-        <v>0</v>
-      </c>
-      <c r="H56" s="97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B57" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" t="s">
-        <v>67</v>
       </c>
       <c r="D57" s="94">
         <v>2</v>
@@ -11712,12 +11876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D58" s="94">
         <v>0</v>
@@ -11735,7 +11899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="67" t="s">
         <v>37</v>
       </c>
@@ -11755,9 +11919,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
         <v>40</v>
@@ -11778,7 +11942,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="51" t="s">
         <v>0</v>
       </c>
@@ -11801,7 +11965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B64" s="54" t="s">
         <v>10</v>
       </c>
@@ -11821,7 +11985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="54" t="s">
         <v>17</v>
       </c>
@@ -11841,7 +12005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="54" t="s">
         <v>20</v>
       </c>
@@ -11861,7 +12025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="54" t="s">
         <v>24</v>
       </c>
@@ -11881,7 +12045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="54" t="s">
         <v>27</v>
       </c>
@@ -11901,7 +12065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="54" t="s">
         <v>30</v>
       </c>
@@ -11921,7 +12085,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="54" t="s">
         <v>35</v>
       </c>
@@ -11944,7 +12108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="54" t="s">
         <v>39</v>
       </c>
@@ -11967,12 +12131,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" t="s">
         <v>42</v>
-      </c>
-      <c r="C72" t="s">
-        <v>43</v>
       </c>
       <c r="D72" s="92">
         <v>1300</v>
@@ -11990,12 +12154,12 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" t="s">
         <v>45</v>
-      </c>
-      <c r="C73" t="s">
-        <v>46</v>
       </c>
       <c r="D73" s="92">
         <v>0</v>
@@ -12013,9 +12177,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
         <v>40</v>
@@ -12036,12 +12200,12 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D75" s="94">
         <v>2</v>
@@ -12059,12 +12223,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="62" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D76" s="94">
         <v>4</v>
@@ -12082,9 +12246,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D77" s="101">
         <v>0.05</v>
@@ -12102,58 +12266,58 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C78" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="94">
+        <v>0</v>
+      </c>
+      <c r="E78" s="94">
+        <v>0</v>
+      </c>
+      <c r="F78" s="94">
+        <v>0</v>
+      </c>
+      <c r="G78" s="94">
+        <v>0</v>
+      </c>
+      <c r="H78" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D78" s="94">
-        <v>0</v>
-      </c>
-      <c r="E78" s="94">
-        <v>0</v>
-      </c>
-      <c r="F78" s="94">
-        <v>0</v>
-      </c>
-      <c r="G78" s="94">
-        <v>0</v>
-      </c>
-      <c r="H78" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B79" s="64" t="s">
+      <c r="C79" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" s="96">
+        <v>0</v>
+      </c>
+      <c r="E79" s="96">
+        <v>0</v>
+      </c>
+      <c r="F79" s="96">
+        <v>0</v>
+      </c>
+      <c r="G79" s="96">
+        <v>0</v>
+      </c>
+      <c r="H79" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C79" s="65" t="s">
+      <c r="C80" t="s">
         <v>65</v>
-      </c>
-      <c r="D79" s="96">
-        <v>0</v>
-      </c>
-      <c r="E79" s="96">
-        <v>0</v>
-      </c>
-      <c r="F79" s="96">
-        <v>0</v>
-      </c>
-      <c r="G79" s="96">
-        <v>0</v>
-      </c>
-      <c r="H79" s="97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B80" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C80" t="s">
-        <v>67</v>
       </c>
       <c r="D80" s="94">
         <v>2</v>
@@ -12171,12 +12335,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C81" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D81" s="94">
         <v>0</v>
@@ -12194,7 +12358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="67" t="s">
         <v>37</v>
       </c>
@@ -12214,9 +12378,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C83" t="s">
         <v>40</v>
@@ -12237,7 +12401,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="51" t="s">
         <v>0</v>
       </c>
@@ -12260,7 +12424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B87" s="54" t="s">
         <v>10</v>
       </c>
@@ -12280,7 +12444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="54" t="s">
         <v>17</v>
       </c>
@@ -12300,7 +12464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="54" t="s">
         <v>20</v>
       </c>
@@ -12320,7 +12484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="54" t="s">
         <v>24</v>
       </c>
@@ -12340,7 +12504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="54" t="s">
         <v>27</v>
       </c>
@@ -12360,7 +12524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="54" t="s">
         <v>30</v>
       </c>
@@ -12380,7 +12544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="54" t="s">
         <v>35</v>
       </c>
@@ -12403,7 +12567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="54" t="s">
         <v>39</v>
       </c>
@@ -12426,12 +12590,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95" t="s">
         <v>42</v>
-      </c>
-      <c r="C95" t="s">
-        <v>43</v>
       </c>
       <c r="D95" s="92">
         <v>1300</v>
@@ -12449,12 +12613,12 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" t="s">
         <v>45</v>
-      </c>
-      <c r="C96" t="s">
-        <v>46</v>
       </c>
       <c r="D96" s="92">
         <v>0</v>
@@ -12472,9 +12636,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C97" t="s">
         <v>40</v>
@@ -12495,12 +12659,12 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C98" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D98" s="94">
         <v>2</v>
@@ -12518,12 +12682,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="62" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C99" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D99" s="94">
         <v>4</v>
@@ -12541,9 +12705,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D100" s="101">
         <v>0.05</v>
@@ -12561,58 +12725,58 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C101" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101" s="94">
+        <v>0</v>
+      </c>
+      <c r="E101" s="94">
+        <v>0</v>
+      </c>
+      <c r="F101" s="94">
+        <v>0</v>
+      </c>
+      <c r="G101" s="94">
+        <v>0</v>
+      </c>
+      <c r="H101" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D101" s="94">
-        <v>0</v>
-      </c>
-      <c r="E101" s="94">
-        <v>0</v>
-      </c>
-      <c r="F101" s="94">
-        <v>0</v>
-      </c>
-      <c r="G101" s="94">
-        <v>0</v>
-      </c>
-      <c r="H101" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B102" s="64" t="s">
+      <c r="C102" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" s="96">
+        <v>0</v>
+      </c>
+      <c r="E102" s="96">
+        <v>0</v>
+      </c>
+      <c r="F102" s="96">
+        <v>0</v>
+      </c>
+      <c r="G102" s="96">
+        <v>0</v>
+      </c>
+      <c r="H102" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C102" s="65" t="s">
+      <c r="C103" t="s">
         <v>65</v>
-      </c>
-      <c r="D102" s="96">
-        <v>0</v>
-      </c>
-      <c r="E102" s="96">
-        <v>0</v>
-      </c>
-      <c r="F102" s="96">
-        <v>0</v>
-      </c>
-      <c r="G102" s="96">
-        <v>0</v>
-      </c>
-      <c r="H102" s="97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B103" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C103" t="s">
-        <v>67</v>
       </c>
       <c r="D103" s="94">
         <v>2</v>
@@ -12630,12 +12794,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C104" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D104" s="94">
         <v>0</v>
@@ -12653,7 +12817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="67" t="s">
         <v>37</v>
       </c>
@@ -12673,9 +12837,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C106" t="s">
         <v>40</v>
@@ -12696,112 +12860,112 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E110" s="52"/>
       <c r="F110" s="52"/>
       <c r="G110" s="52"/>
       <c r="H110" s="53"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E111" s="55"/>
       <c r="F111" s="55"/>
       <c r="G111" s="55"/>
       <c r="H111" s="56"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H112" s="57"/>
     </row>
-    <row r="113" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H113" s="57"/>
     </row>
-    <row r="114" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H114" s="57"/>
     </row>
-    <row r="115" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H115" s="57"/>
     </row>
-    <row r="116" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H116" s="57"/>
     </row>
-    <row r="117" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E117" s="58"/>
       <c r="F117" s="58"/>
       <c r="G117" s="58"/>
       <c r="H117" s="59"/>
     </row>
-    <row r="118" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E118" s="92"/>
       <c r="F118" s="92"/>
       <c r="G118" s="92"/>
       <c r="H118" s="93"/>
     </row>
-    <row r="119" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E119" s="92"/>
       <c r="F119" s="92"/>
       <c r="G119" s="92"/>
       <c r="H119" s="93"/>
     </row>
-    <row r="120" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E120" s="92"/>
       <c r="F120" s="92"/>
       <c r="G120" s="92"/>
       <c r="H120" s="93"/>
     </row>
-    <row r="121" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E121" s="92"/>
       <c r="F121" s="92"/>
       <c r="G121" s="92"/>
       <c r="H121" s="93"/>
     </row>
-    <row r="122" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E122" s="94"/>
       <c r="F122" s="94"/>
       <c r="G122" s="94"/>
       <c r="H122" s="95"/>
     </row>
-    <row r="123" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E123" s="94"/>
       <c r="F123" s="94"/>
       <c r="G123" s="94"/>
       <c r="H123" s="95"/>
     </row>
-    <row r="124" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E124" s="101"/>
       <c r="F124" s="101"/>
       <c r="G124" s="101"/>
       <c r="H124" s="101"/>
     </row>
-    <row r="125" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E125" s="94"/>
       <c r="F125" s="94"/>
       <c r="G125" s="94"/>
       <c r="H125" s="95"/>
     </row>
-    <row r="126" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E126" s="96"/>
       <c r="F126" s="96"/>
       <c r="G126" s="96"/>
       <c r="H126" s="97"/>
     </row>
-    <row r="127" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E127" s="94"/>
       <c r="F127" s="94"/>
       <c r="G127" s="94"/>
       <c r="H127" s="95"/>
     </row>
-    <row r="128" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E128" s="94"/>
       <c r="F128" s="94"/>
       <c r="G128" s="94"/>
       <c r="H128" s="95"/>
     </row>
-    <row r="129" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E129" s="94"/>
       <c r="F129" s="94"/>
       <c r="G129" s="94"/>
       <c r="H129" s="95"/>
     </row>
-    <row r="130" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E130" s="94"/>
       <c r="F130" s="94"/>
       <c r="G130" s="94"/>
